--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>Opponent</t>
   </si>
@@ -37,25 +37,16 @@
     <t>VPS</t>
   </si>
   <si>
-    <t>Torrington</t>
+    <t>NW Catholic</t>
+  </si>
+  <si>
+    <t>DJ Hawkins</t>
   </si>
   <si>
     <t>Chad Rizzo</t>
   </si>
   <si>
-    <t>DJ Hawkins</t>
-  </si>
-  <si>
-    <t>Excel Adekola</t>
-  </si>
-  <si>
     <t>Kit Scudder</t>
-  </si>
-  <si>
-    <t>Tobin Grande</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Nicholas Bergin</t>
@@ -67,16 +58,7 @@
     <t>Caleb Smith</t>
   </si>
   <si>
-    <t>Griffin Kiniry</t>
-  </si>
-  <si>
-    <t>Ethan Shternfeld</t>
-  </si>
-  <si>
-    <t>JJ Conant</t>
-  </si>
-  <si>
-    <t>NW Catholic</t>
+    <t>Excel Adekola</t>
   </si>
   <si>
     <t>New Britain</t>
@@ -84,12 +66,15 @@
   <si>
     <t>Glastonbury</t>
   </si>
+  <si>
+    <t>AOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -107,10 +92,11 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF661329"/>
+      <color rgb="FFCC1329"/>
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <color rgb="FF009CE3"/>
       <name val="Arial"/>
     </font>
@@ -119,12 +105,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FFCC1329"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF009CE3"/>
+      <color rgb="FF661329"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -194,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -219,74 +200,65 @@
     <xf borderId="1" fillId="2" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="2" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -536,25 +508,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="5">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="7">
-        <v>0.714</v>
+        <v>0.313</v>
       </c>
       <c r="F2" s="8">
-        <v>0.125</v>
+        <v>0.096</v>
       </c>
       <c r="G2" s="9">
-        <v>0.0</v>
+        <v>0.38</v>
       </c>
       <c r="H2" s="9">
-        <v>2.33</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="3">
@@ -562,25 +534,25 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="5">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7">
-        <v>0.389</v>
+        <v>0.591</v>
       </c>
       <c r="F3" s="8">
-        <v>0.0</v>
+        <v>0.077</v>
       </c>
       <c r="G3" s="9">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="H3" s="9">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="4">
@@ -588,25 +560,25 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="5">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="7">
-        <v>1.0</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="8">
-        <v>0.0</v>
+        <v>0.143</v>
       </c>
       <c r="G4" s="9">
         <v>0.0</v>
       </c>
       <c r="H4" s="9">
-        <v>3.0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -614,25 +586,25 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="5">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="7">
-        <v>0.625</v>
+        <v>0.077</v>
       </c>
       <c r="F5" s="8">
-        <v>0.0</v>
+        <v>0.063</v>
       </c>
       <c r="G5" s="9">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="H5" s="9">
-        <v>3.57</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
@@ -640,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="5">
-        <v>24.0</v>
+        <v>5.0</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
+      <c r="E6" s="7">
+        <v>0.385</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.063</v>
       </c>
       <c r="G6" s="9">
-        <v>0.0</v>
+        <v>0.31</v>
       </c>
       <c r="H6" s="9">
-        <v>4.0</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="7">
@@ -666,25 +638,25 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="5">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="7">
         <v>0.667</v>
       </c>
       <c r="F7" s="8">
-        <v>0.13</v>
+        <v>0.0</v>
       </c>
       <c r="G7" s="9">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="H7" s="9">
-        <v>1.76</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8">
@@ -692,559 +664,559 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="11">
         <v>0.0</v>
       </c>
-      <c r="C8" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.308</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.071</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="13">
         <v>0.0</v>
       </c>
-      <c r="H8" s="9">
-        <v>1.14</v>
+      <c r="H8" s="13">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>14.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1.0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.9</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.417</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.126</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="5">
         <v>2.0</v>
       </c>
+      <c r="C10" s="14">
+        <v>10.0</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.5</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.333</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.365</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.33</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C11" s="14">
+        <v>11.0</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0.0</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.714</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.201</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.29</v>
+      </c>
+      <c r="H11" s="17">
+        <v>2.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="10">
-        <v>4.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C12" s="14">
+        <v>3.0</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0.75</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.571</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.101</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.57</v>
+      </c>
+      <c r="H12" s="17">
+        <v>2.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C13" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.313</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.096</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.38</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.63</v>
+        <v>5.0</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.667</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.216</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.44</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1.35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.591</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0.077</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.18</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1.47</v>
+        <v>14.0</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.667</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C15" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="15">
         <v>1.0</v>
       </c>
-      <c r="C15" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="F15" s="19">
         <v>0.5</v>
       </c>
-      <c r="F15" s="8">
-        <v>0.143</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="G15" s="20">
         <v>0.0</v>
       </c>
-      <c r="H15" s="9">
-        <v>1.31</v>
+      <c r="H15" s="20">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C16" s="21">
         <v>1.0</v>
       </c>
-      <c r="C16" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.077</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.063</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0.31</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.36</v>
+      <c r="D16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0.429</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="25">
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>16</v>
+        <v>3.0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="7">
-        <v>0.385</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="8">
-        <v>0.063</v>
+        <v>0.25</v>
       </c>
       <c r="G17" s="9">
-        <v>0.31</v>
+        <v>0.0</v>
       </c>
       <c r="H17" s="9">
-        <v>1.12</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="14">
-        <v>14.0</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>17</v>
+        <v>3.0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E18" s="7">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="8">
         <v>0.0</v>
       </c>
       <c r="G18" s="9">
-        <v>0.0</v>
+        <v>0.36</v>
       </c>
       <c r="H18" s="9">
-        <v>1.17</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="16">
-        <v>13.0</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.5</v>
+        <v>3.0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.357</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.106</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="19">
-        <v>0.417</v>
-      </c>
-      <c r="F20" s="20">
-        <v>0.126</v>
-      </c>
-      <c r="G20" s="21">
-        <v>0.33</v>
-      </c>
-      <c r="H20" s="21">
-        <v>0.8</v>
+        <v>3.0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.364</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.169</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.339</v>
+      </c>
+      <c r="G21" s="9">
         <v>2.0</v>
       </c>
-      <c r="C21" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="19">
-        <v>0.333</v>
-      </c>
-      <c r="F21" s="20">
-        <v>0.365</v>
-      </c>
-      <c r="G21" s="21">
-        <v>0.33</v>
-      </c>
-      <c r="H21" s="21">
-        <v>0.73</v>
+      <c r="H21" s="9">
+        <v>0.63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C22" s="26">
+        <v>13.0</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="13">
         <v>2.0</v>
-      </c>
-      <c r="C22" s="18">
-        <v>11.0</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="19">
-        <v>0.714</v>
-      </c>
-      <c r="F22" s="20">
-        <v>0.201</v>
-      </c>
-      <c r="G22" s="21">
-        <v>0.29</v>
-      </c>
-      <c r="H22" s="21">
-        <v>2.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C23" s="18">
-        <v>3.0</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="19">
-        <v>0.571</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0.101</v>
-      </c>
-      <c r="G23" s="21">
-        <v>0.57</v>
-      </c>
-      <c r="H23" s="21">
-        <v>2.11</v>
+        <v>4.0</v>
+      </c>
+      <c r="C23" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.357</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0.201</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0.29</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0.94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C24" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="19">
-        <v>0.667</v>
-      </c>
-      <c r="F24" s="20">
-        <v>0.216</v>
-      </c>
-      <c r="G24" s="21">
-        <v>0.44</v>
-      </c>
-      <c r="H24" s="21">
-        <v>1.35</v>
+        <v>4.0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.773</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.074</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C25" s="18">
-        <v>14.0</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="19">
-        <v>0.667</v>
-      </c>
-      <c r="F25" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="G25" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="21">
-        <v>0.83</v>
+        <v>4.0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.183</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H25" s="9">
+        <v>4.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="C26" s="22">
-        <v>13.0</v>
-      </c>
-      <c r="D26" s="15" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="F26" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="24">
+      <c r="E26" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F26" s="8">
         <v>0.0</v>
       </c>
-      <c r="H26" s="24">
-        <v>0.5</v>
+      <c r="G26" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2.14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C27" s="5">
         <v>3.0</v>
       </c>
-      <c r="C27" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="27">
-        <v>0.75</v>
-      </c>
-      <c r="F27" s="28">
-        <v>0.429</v>
-      </c>
-      <c r="G27" s="29">
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="8">
         <v>0.0</v>
       </c>
-      <c r="H27" s="29">
-        <v>1.0</v>
+      <c r="G27" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C28" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>9</v>
+        <v>4.0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E28" s="7">
-        <v>0.0</v>
+        <v>0.556</v>
       </c>
       <c r="F28" s="8">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G28" s="9">
-        <v>0.0</v>
+        <v>0.78</v>
       </c>
       <c r="H28" s="9">
-        <v>0.38</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C29" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>12</v>
+        <v>4.0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E29" s="7">
         <v>0.5</v>
@@ -1253,3035 +1225,2917 @@
         <v>0.0</v>
       </c>
       <c r="G29" s="9">
-        <v>0.36</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1.59</v>
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="27">
+        <v>1.13</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C30" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0.357</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0.106</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0.43</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0.69</v>
-      </c>
+      <c r="D30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C31" s="14">
-        <v>5.0</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0.364</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0.169</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0.73</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0.93</v>
-      </c>
+      <c r="D31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C32" s="14">
-        <v>14.0</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0.339</v>
-      </c>
-      <c r="G32" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0.63</v>
-      </c>
+      <c r="D32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C33" s="30">
-        <v>13.0</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="F33" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G33" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="13">
-        <v>2.0</v>
-      </c>
+      <c r="D33" s="28"/>
     </row>
     <row r="34">
-      <c r="D34" s="31"/>
+      <c r="D34" s="28"/>
     </row>
     <row r="35">
-      <c r="D35" s="31"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36">
-      <c r="D36" s="31"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37">
-      <c r="D37" s="31"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38">
-      <c r="D38" s="31"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="39">
-      <c r="D39" s="31"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40">
-      <c r="D40" s="31"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41">
-      <c r="D41" s="31"/>
+      <c r="D41" s="28"/>
     </row>
     <row r="42">
-      <c r="D42" s="31"/>
+      <c r="D42" s="28"/>
     </row>
     <row r="43">
-      <c r="D43" s="31"/>
+      <c r="D43" s="28"/>
     </row>
     <row r="44">
-      <c r="D44" s="31"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45">
-      <c r="D45" s="31"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46">
-      <c r="D46" s="31"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47">
-      <c r="D47" s="31"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48">
-      <c r="D48" s="31"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49">
-      <c r="D49" s="31"/>
+      <c r="D49" s="28"/>
     </row>
     <row r="50">
-      <c r="D50" s="31"/>
+      <c r="D50" s="28"/>
     </row>
     <row r="51">
-      <c r="D51" s="31"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="52">
-      <c r="D52" s="31"/>
+      <c r="D52" s="28"/>
     </row>
     <row r="53">
-      <c r="D53" s="31"/>
+      <c r="D53" s="28"/>
     </row>
     <row r="54">
-      <c r="D54" s="31"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55">
-      <c r="D55" s="31"/>
+      <c r="D55" s="28"/>
     </row>
     <row r="56">
-      <c r="D56" s="31"/>
+      <c r="D56" s="28"/>
     </row>
     <row r="57">
-      <c r="D57" s="31"/>
+      <c r="D57" s="28"/>
     </row>
     <row r="58">
-      <c r="D58" s="31"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59">
-      <c r="D59" s="31"/>
+      <c r="D59" s="28"/>
     </row>
     <row r="60">
-      <c r="D60" s="31"/>
+      <c r="D60" s="28"/>
     </row>
     <row r="61">
-      <c r="D61" s="31"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62">
-      <c r="D62" s="31"/>
+      <c r="D62" s="28"/>
     </row>
     <row r="63">
-      <c r="D63" s="31"/>
+      <c r="D63" s="28"/>
     </row>
     <row r="64">
-      <c r="D64" s="31"/>
+      <c r="D64" s="28"/>
     </row>
     <row r="65">
-      <c r="D65" s="31"/>
+      <c r="D65" s="28"/>
     </row>
     <row r="66">
-      <c r="D66" s="31"/>
+      <c r="D66" s="28"/>
     </row>
     <row r="67">
-      <c r="D67" s="31"/>
+      <c r="D67" s="28"/>
     </row>
     <row r="68">
-      <c r="D68" s="31"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69">
-      <c r="D69" s="31"/>
+      <c r="D69" s="28"/>
     </row>
     <row r="70">
-      <c r="D70" s="31"/>
+      <c r="D70" s="28"/>
     </row>
     <row r="71">
-      <c r="D71" s="31"/>
+      <c r="D71" s="28"/>
     </row>
     <row r="72">
-      <c r="D72" s="31"/>
+      <c r="D72" s="28"/>
     </row>
     <row r="73">
-      <c r="D73" s="31"/>
+      <c r="D73" s="28"/>
     </row>
     <row r="74">
-      <c r="D74" s="31"/>
+      <c r="D74" s="28"/>
     </row>
     <row r="75">
-      <c r="D75" s="31"/>
+      <c r="D75" s="28"/>
     </row>
     <row r="76">
-      <c r="D76" s="31"/>
+      <c r="D76" s="28"/>
     </row>
     <row r="77">
-      <c r="D77" s="31"/>
+      <c r="D77" s="28"/>
     </row>
     <row r="78">
-      <c r="D78" s="31"/>
+      <c r="D78" s="28"/>
     </row>
     <row r="79">
-      <c r="D79" s="31"/>
+      <c r="D79" s="28"/>
     </row>
     <row r="80">
-      <c r="D80" s="31"/>
+      <c r="D80" s="28"/>
     </row>
     <row r="81">
-      <c r="D81" s="31"/>
+      <c r="D81" s="28"/>
     </row>
     <row r="82">
-      <c r="D82" s="31"/>
+      <c r="D82" s="28"/>
     </row>
     <row r="83">
-      <c r="D83" s="31"/>
+      <c r="D83" s="28"/>
     </row>
     <row r="84">
-      <c r="D84" s="31"/>
+      <c r="D84" s="28"/>
     </row>
     <row r="85">
-      <c r="D85" s="31"/>
+      <c r="D85" s="28"/>
     </row>
     <row r="86">
-      <c r="D86" s="31"/>
+      <c r="D86" s="28"/>
     </row>
     <row r="87">
-      <c r="D87" s="31"/>
+      <c r="D87" s="28"/>
     </row>
     <row r="88">
-      <c r="D88" s="31"/>
+      <c r="D88" s="28"/>
     </row>
     <row r="89">
-      <c r="D89" s="31"/>
+      <c r="D89" s="28"/>
     </row>
     <row r="90">
-      <c r="D90" s="31"/>
+      <c r="D90" s="28"/>
     </row>
     <row r="91">
-      <c r="D91" s="31"/>
+      <c r="D91" s="28"/>
     </row>
     <row r="92">
-      <c r="D92" s="31"/>
+      <c r="D92" s="28"/>
     </row>
     <row r="93">
-      <c r="D93" s="31"/>
+      <c r="D93" s="28"/>
     </row>
     <row r="94">
-      <c r="D94" s="31"/>
+      <c r="D94" s="28"/>
     </row>
     <row r="95">
-      <c r="D95" s="31"/>
+      <c r="D95" s="28"/>
     </row>
     <row r="96">
-      <c r="D96" s="31"/>
+      <c r="D96" s="28"/>
     </row>
     <row r="97">
-      <c r="D97" s="31"/>
+      <c r="D97" s="28"/>
     </row>
     <row r="98">
-      <c r="D98" s="31"/>
+      <c r="D98" s="28"/>
     </row>
     <row r="99">
-      <c r="D99" s="31"/>
+      <c r="D99" s="28"/>
     </row>
     <row r="100">
-      <c r="D100" s="31"/>
+      <c r="D100" s="28"/>
     </row>
     <row r="101">
-      <c r="D101" s="31"/>
+      <c r="D101" s="28"/>
     </row>
     <row r="102">
-      <c r="D102" s="31"/>
+      <c r="D102" s="28"/>
     </row>
     <row r="103">
-      <c r="D103" s="31"/>
+      <c r="D103" s="28"/>
     </row>
     <row r="104">
-      <c r="D104" s="31"/>
+      <c r="D104" s="28"/>
     </row>
     <row r="105">
-      <c r="D105" s="31"/>
+      <c r="D105" s="28"/>
     </row>
     <row r="106">
-      <c r="D106" s="31"/>
+      <c r="D106" s="28"/>
     </row>
     <row r="107">
-      <c r="D107" s="31"/>
+      <c r="D107" s="28"/>
     </row>
     <row r="108">
-      <c r="D108" s="31"/>
+      <c r="D108" s="28"/>
     </row>
     <row r="109">
-      <c r="D109" s="31"/>
+      <c r="D109" s="28"/>
     </row>
     <row r="110">
-      <c r="D110" s="31"/>
+      <c r="D110" s="28"/>
     </row>
     <row r="111">
-      <c r="D111" s="31"/>
+      <c r="D111" s="28"/>
     </row>
     <row r="112">
-      <c r="D112" s="31"/>
+      <c r="D112" s="28"/>
     </row>
     <row r="113">
-      <c r="D113" s="31"/>
+      <c r="D113" s="28"/>
     </row>
     <row r="114">
-      <c r="D114" s="31"/>
+      <c r="D114" s="28"/>
     </row>
     <row r="115">
-      <c r="D115" s="31"/>
+      <c r="D115" s="28"/>
     </row>
     <row r="116">
-      <c r="D116" s="31"/>
+      <c r="D116" s="28"/>
     </row>
     <row r="117">
-      <c r="D117" s="31"/>
+      <c r="D117" s="28"/>
     </row>
     <row r="118">
-      <c r="D118" s="31"/>
+      <c r="D118" s="28"/>
     </row>
     <row r="119">
-      <c r="D119" s="31"/>
+      <c r="D119" s="28"/>
     </row>
     <row r="120">
-      <c r="D120" s="31"/>
+      <c r="D120" s="28"/>
     </row>
     <row r="121">
-      <c r="D121" s="31"/>
+      <c r="D121" s="28"/>
     </row>
     <row r="122">
-      <c r="D122" s="31"/>
+      <c r="D122" s="28"/>
     </row>
     <row r="123">
-      <c r="D123" s="31"/>
+      <c r="D123" s="28"/>
     </row>
     <row r="124">
-      <c r="D124" s="31"/>
+      <c r="D124" s="28"/>
     </row>
     <row r="125">
-      <c r="D125" s="31"/>
+      <c r="D125" s="28"/>
     </row>
     <row r="126">
-      <c r="D126" s="31"/>
+      <c r="D126" s="28"/>
     </row>
     <row r="127">
-      <c r="D127" s="31"/>
+      <c r="D127" s="28"/>
     </row>
     <row r="128">
-      <c r="D128" s="31"/>
+      <c r="D128" s="28"/>
     </row>
     <row r="129">
-      <c r="D129" s="31"/>
+      <c r="D129" s="28"/>
     </row>
     <row r="130">
-      <c r="D130" s="31"/>
+      <c r="D130" s="28"/>
     </row>
     <row r="131">
-      <c r="D131" s="31"/>
+      <c r="D131" s="28"/>
     </row>
     <row r="132">
-      <c r="D132" s="31"/>
+      <c r="D132" s="28"/>
     </row>
     <row r="133">
-      <c r="D133" s="31"/>
+      <c r="D133" s="28"/>
     </row>
     <row r="134">
-      <c r="D134" s="31"/>
+      <c r="D134" s="28"/>
     </row>
     <row r="135">
-      <c r="D135" s="31"/>
+      <c r="D135" s="28"/>
     </row>
     <row r="136">
-      <c r="D136" s="31"/>
+      <c r="D136" s="28"/>
     </row>
     <row r="137">
-      <c r="D137" s="31"/>
+      <c r="D137" s="28"/>
     </row>
     <row r="138">
-      <c r="D138" s="31"/>
+      <c r="D138" s="28"/>
     </row>
     <row r="139">
-      <c r="D139" s="31"/>
+      <c r="D139" s="28"/>
     </row>
     <row r="140">
-      <c r="D140" s="31"/>
+      <c r="D140" s="28"/>
     </row>
     <row r="141">
-      <c r="D141" s="31"/>
+      <c r="D141" s="28"/>
     </row>
     <row r="142">
-      <c r="D142" s="31"/>
+      <c r="D142" s="28"/>
     </row>
     <row r="143">
-      <c r="D143" s="31"/>
+      <c r="D143" s="28"/>
     </row>
     <row r="144">
-      <c r="D144" s="31"/>
+      <c r="D144" s="28"/>
     </row>
     <row r="145">
-      <c r="D145" s="31"/>
+      <c r="D145" s="28"/>
     </row>
     <row r="146">
-      <c r="D146" s="31"/>
+      <c r="D146" s="28"/>
     </row>
     <row r="147">
-      <c r="D147" s="31"/>
+      <c r="D147" s="28"/>
     </row>
     <row r="148">
-      <c r="D148" s="31"/>
+      <c r="D148" s="28"/>
     </row>
     <row r="149">
-      <c r="D149" s="31"/>
+      <c r="D149" s="28"/>
     </row>
     <row r="150">
-      <c r="D150" s="31"/>
+      <c r="D150" s="28"/>
     </row>
     <row r="151">
-      <c r="D151" s="31"/>
+      <c r="D151" s="28"/>
     </row>
     <row r="152">
-      <c r="D152" s="31"/>
+      <c r="D152" s="28"/>
     </row>
     <row r="153">
-      <c r="D153" s="31"/>
+      <c r="D153" s="28"/>
     </row>
     <row r="154">
-      <c r="D154" s="31"/>
+      <c r="D154" s="28"/>
     </row>
     <row r="155">
-      <c r="D155" s="31"/>
+      <c r="D155" s="28"/>
     </row>
     <row r="156">
-      <c r="D156" s="31"/>
+      <c r="D156" s="28"/>
     </row>
     <row r="157">
-      <c r="D157" s="31"/>
+      <c r="D157" s="28"/>
     </row>
     <row r="158">
-      <c r="D158" s="31"/>
+      <c r="D158" s="28"/>
     </row>
     <row r="159">
-      <c r="D159" s="31"/>
+      <c r="D159" s="28"/>
     </row>
     <row r="160">
-      <c r="D160" s="31"/>
+      <c r="D160" s="28"/>
     </row>
     <row r="161">
-      <c r="D161" s="31"/>
+      <c r="D161" s="28"/>
     </row>
     <row r="162">
-      <c r="D162" s="31"/>
+      <c r="D162" s="28"/>
     </row>
     <row r="163">
-      <c r="D163" s="31"/>
+      <c r="D163" s="28"/>
     </row>
     <row r="164">
-      <c r="D164" s="31"/>
+      <c r="D164" s="28"/>
     </row>
     <row r="165">
-      <c r="D165" s="31"/>
+      <c r="D165" s="28"/>
     </row>
     <row r="166">
-      <c r="D166" s="31"/>
+      <c r="D166" s="28"/>
     </row>
     <row r="167">
-      <c r="D167" s="31"/>
+      <c r="D167" s="28"/>
     </row>
     <row r="168">
-      <c r="D168" s="31"/>
+      <c r="D168" s="28"/>
     </row>
     <row r="169">
-      <c r="D169" s="31"/>
+      <c r="D169" s="28"/>
     </row>
     <row r="170">
-      <c r="D170" s="31"/>
+      <c r="D170" s="28"/>
     </row>
     <row r="171">
-      <c r="D171" s="31"/>
+      <c r="D171" s="28"/>
     </row>
     <row r="172">
-      <c r="D172" s="31"/>
+      <c r="D172" s="28"/>
     </row>
     <row r="173">
-      <c r="D173" s="31"/>
+      <c r="D173" s="28"/>
     </row>
     <row r="174">
-      <c r="D174" s="31"/>
+      <c r="D174" s="28"/>
     </row>
     <row r="175">
-      <c r="D175" s="31"/>
+      <c r="D175" s="28"/>
     </row>
     <row r="176">
-      <c r="D176" s="31"/>
+      <c r="D176" s="28"/>
     </row>
     <row r="177">
-      <c r="D177" s="31"/>
+      <c r="D177" s="28"/>
     </row>
     <row r="178">
-      <c r="D178" s="31"/>
+      <c r="D178" s="28"/>
     </row>
     <row r="179">
-      <c r="D179" s="31"/>
+      <c r="D179" s="28"/>
     </row>
     <row r="180">
-      <c r="D180" s="31"/>
+      <c r="D180" s="28"/>
     </row>
     <row r="181">
-      <c r="D181" s="31"/>
+      <c r="D181" s="28"/>
     </row>
     <row r="182">
-      <c r="D182" s="31"/>
+      <c r="D182" s="28"/>
     </row>
     <row r="183">
-      <c r="D183" s="31"/>
+      <c r="D183" s="28"/>
     </row>
     <row r="184">
-      <c r="D184" s="31"/>
+      <c r="D184" s="28"/>
     </row>
     <row r="185">
-      <c r="D185" s="31"/>
+      <c r="D185" s="28"/>
     </row>
     <row r="186">
-      <c r="D186" s="31"/>
+      <c r="D186" s="28"/>
     </row>
     <row r="187">
-      <c r="D187" s="31"/>
+      <c r="D187" s="28"/>
     </row>
     <row r="188">
-      <c r="D188" s="31"/>
+      <c r="D188" s="28"/>
     </row>
     <row r="189">
-      <c r="D189" s="31"/>
+      <c r="D189" s="28"/>
     </row>
     <row r="190">
-      <c r="D190" s="31"/>
+      <c r="D190" s="28"/>
     </row>
     <row r="191">
-      <c r="D191" s="31"/>
+      <c r="D191" s="28"/>
     </row>
     <row r="192">
-      <c r="D192" s="31"/>
+      <c r="D192" s="28"/>
     </row>
     <row r="193">
-      <c r="D193" s="31"/>
+      <c r="D193" s="28"/>
     </row>
     <row r="194">
-      <c r="D194" s="31"/>
+      <c r="D194" s="28"/>
     </row>
     <row r="195">
-      <c r="D195" s="31"/>
+      <c r="D195" s="28"/>
     </row>
     <row r="196">
-      <c r="D196" s="31"/>
+      <c r="D196" s="28"/>
     </row>
     <row r="197">
-      <c r="D197" s="31"/>
+      <c r="D197" s="28"/>
     </row>
     <row r="198">
-      <c r="D198" s="31"/>
+      <c r="D198" s="28"/>
     </row>
     <row r="199">
-      <c r="D199" s="31"/>
+      <c r="D199" s="28"/>
     </row>
     <row r="200">
-      <c r="D200" s="31"/>
+      <c r="D200" s="28"/>
     </row>
     <row r="201">
-      <c r="D201" s="31"/>
+      <c r="D201" s="28"/>
     </row>
     <row r="202">
-      <c r="D202" s="31"/>
+      <c r="D202" s="28"/>
     </row>
     <row r="203">
-      <c r="D203" s="31"/>
+      <c r="D203" s="28"/>
     </row>
     <row r="204">
-      <c r="D204" s="31"/>
+      <c r="D204" s="28"/>
     </row>
     <row r="205">
-      <c r="D205" s="31"/>
+      <c r="D205" s="28"/>
     </row>
     <row r="206">
-      <c r="D206" s="31"/>
+      <c r="D206" s="28"/>
     </row>
     <row r="207">
-      <c r="D207" s="31"/>
+      <c r="D207" s="28"/>
     </row>
     <row r="208">
-      <c r="D208" s="31"/>
+      <c r="D208" s="28"/>
     </row>
     <row r="209">
-      <c r="D209" s="31"/>
+      <c r="D209" s="28"/>
     </row>
     <row r="210">
-      <c r="D210" s="31"/>
+      <c r="D210" s="28"/>
     </row>
     <row r="211">
-      <c r="D211" s="31"/>
+      <c r="D211" s="28"/>
     </row>
     <row r="212">
-      <c r="D212" s="31"/>
+      <c r="D212" s="28"/>
     </row>
     <row r="213">
-      <c r="D213" s="31"/>
+      <c r="D213" s="28"/>
     </row>
     <row r="214">
-      <c r="D214" s="31"/>
+      <c r="D214" s="28"/>
     </row>
     <row r="215">
-      <c r="D215" s="31"/>
+      <c r="D215" s="28"/>
     </row>
     <row r="216">
-      <c r="D216" s="31"/>
+      <c r="D216" s="28"/>
     </row>
     <row r="217">
-      <c r="D217" s="31"/>
+      <c r="D217" s="28"/>
     </row>
     <row r="218">
-      <c r="D218" s="31"/>
+      <c r="D218" s="28"/>
     </row>
     <row r="219">
-      <c r="D219" s="31"/>
+      <c r="D219" s="28"/>
     </row>
     <row r="220">
-      <c r="D220" s="31"/>
+      <c r="D220" s="28"/>
     </row>
     <row r="221">
-      <c r="D221" s="31"/>
+      <c r="D221" s="28"/>
     </row>
     <row r="222">
-      <c r="D222" s="31"/>
+      <c r="D222" s="28"/>
     </row>
     <row r="223">
-      <c r="D223" s="31"/>
+      <c r="D223" s="28"/>
     </row>
     <row r="224">
-      <c r="D224" s="31"/>
+      <c r="D224" s="28"/>
     </row>
     <row r="225">
-      <c r="D225" s="31"/>
+      <c r="D225" s="28"/>
     </row>
     <row r="226">
-      <c r="D226" s="31"/>
+      <c r="D226" s="28"/>
     </row>
     <row r="227">
-      <c r="D227" s="31"/>
+      <c r="D227" s="28"/>
     </row>
     <row r="228">
-      <c r="D228" s="31"/>
+      <c r="D228" s="28"/>
     </row>
     <row r="229">
-      <c r="D229" s="31"/>
+      <c r="D229" s="28"/>
     </row>
     <row r="230">
-      <c r="D230" s="31"/>
+      <c r="D230" s="28"/>
     </row>
     <row r="231">
-      <c r="D231" s="31"/>
+      <c r="D231" s="28"/>
     </row>
     <row r="232">
-      <c r="D232" s="31"/>
+      <c r="D232" s="28"/>
     </row>
     <row r="233">
-      <c r="D233" s="31"/>
+      <c r="D233" s="28"/>
     </row>
     <row r="234">
-      <c r="D234" s="31"/>
+      <c r="D234" s="28"/>
     </row>
     <row r="235">
-      <c r="D235" s="31"/>
+      <c r="D235" s="28"/>
     </row>
     <row r="236">
-      <c r="D236" s="31"/>
+      <c r="D236" s="28"/>
     </row>
     <row r="237">
-      <c r="D237" s="31"/>
+      <c r="D237" s="28"/>
     </row>
     <row r="238">
-      <c r="D238" s="31"/>
+      <c r="D238" s="28"/>
     </row>
     <row r="239">
-      <c r="D239" s="31"/>
+      <c r="D239" s="28"/>
     </row>
     <row r="240">
-      <c r="D240" s="31"/>
+      <c r="D240" s="28"/>
     </row>
     <row r="241">
-      <c r="D241" s="31"/>
+      <c r="D241" s="28"/>
     </row>
     <row r="242">
-      <c r="D242" s="31"/>
+      <c r="D242" s="28"/>
     </row>
     <row r="243">
-      <c r="D243" s="31"/>
+      <c r="D243" s="28"/>
     </row>
     <row r="244">
-      <c r="D244" s="31"/>
+      <c r="D244" s="28"/>
     </row>
     <row r="245">
-      <c r="D245" s="31"/>
+      <c r="D245" s="28"/>
     </row>
     <row r="246">
-      <c r="D246" s="31"/>
+      <c r="D246" s="28"/>
     </row>
     <row r="247">
-      <c r="D247" s="31"/>
+      <c r="D247" s="28"/>
     </row>
     <row r="248">
-      <c r="D248" s="31"/>
+      <c r="D248" s="28"/>
     </row>
     <row r="249">
-      <c r="D249" s="31"/>
+      <c r="D249" s="28"/>
     </row>
     <row r="250">
-      <c r="D250" s="31"/>
+      <c r="D250" s="28"/>
     </row>
     <row r="251">
-      <c r="D251" s="31"/>
+      <c r="D251" s="28"/>
     </row>
     <row r="252">
-      <c r="D252" s="31"/>
+      <c r="D252" s="28"/>
     </row>
     <row r="253">
-      <c r="D253" s="31"/>
+      <c r="D253" s="28"/>
     </row>
     <row r="254">
-      <c r="D254" s="31"/>
+      <c r="D254" s="28"/>
     </row>
     <row r="255">
-      <c r="D255" s="31"/>
+      <c r="D255" s="28"/>
     </row>
     <row r="256">
-      <c r="D256" s="31"/>
+      <c r="D256" s="28"/>
     </row>
     <row r="257">
-      <c r="D257" s="31"/>
+      <c r="D257" s="28"/>
     </row>
     <row r="258">
-      <c r="D258" s="31"/>
+      <c r="D258" s="28"/>
     </row>
     <row r="259">
-      <c r="D259" s="31"/>
+      <c r="D259" s="28"/>
     </row>
     <row r="260">
-      <c r="D260" s="31"/>
+      <c r="D260" s="28"/>
     </row>
     <row r="261">
-      <c r="D261" s="31"/>
+      <c r="D261" s="28"/>
     </row>
     <row r="262">
-      <c r="D262" s="31"/>
+      <c r="D262" s="28"/>
     </row>
     <row r="263">
-      <c r="D263" s="31"/>
+      <c r="D263" s="28"/>
     </row>
     <row r="264">
-      <c r="D264" s="31"/>
+      <c r="D264" s="28"/>
     </row>
     <row r="265">
-      <c r="D265" s="31"/>
+      <c r="D265" s="28"/>
     </row>
     <row r="266">
-      <c r="D266" s="31"/>
+      <c r="D266" s="28"/>
     </row>
     <row r="267">
-      <c r="D267" s="31"/>
+      <c r="D267" s="28"/>
     </row>
     <row r="268">
-      <c r="D268" s="31"/>
+      <c r="D268" s="28"/>
     </row>
     <row r="269">
-      <c r="D269" s="31"/>
+      <c r="D269" s="28"/>
     </row>
     <row r="270">
-      <c r="D270" s="31"/>
+      <c r="D270" s="28"/>
     </row>
     <row r="271">
-      <c r="D271" s="31"/>
+      <c r="D271" s="28"/>
     </row>
     <row r="272">
-      <c r="D272" s="31"/>
+      <c r="D272" s="28"/>
     </row>
     <row r="273">
-      <c r="D273" s="31"/>
+      <c r="D273" s="28"/>
     </row>
     <row r="274">
-      <c r="D274" s="31"/>
+      <c r="D274" s="28"/>
     </row>
     <row r="275">
-      <c r="D275" s="31"/>
+      <c r="D275" s="28"/>
     </row>
     <row r="276">
-      <c r="D276" s="31"/>
+      <c r="D276" s="28"/>
     </row>
     <row r="277">
-      <c r="D277" s="31"/>
+      <c r="D277" s="28"/>
     </row>
     <row r="278">
-      <c r="D278" s="31"/>
+      <c r="D278" s="28"/>
     </row>
     <row r="279">
-      <c r="D279" s="31"/>
+      <c r="D279" s="28"/>
     </row>
     <row r="280">
-      <c r="D280" s="31"/>
+      <c r="D280" s="28"/>
     </row>
     <row r="281">
-      <c r="D281" s="31"/>
+      <c r="D281" s="28"/>
     </row>
     <row r="282">
-      <c r="D282" s="31"/>
+      <c r="D282" s="28"/>
     </row>
     <row r="283">
-      <c r="D283" s="31"/>
+      <c r="D283" s="28"/>
     </row>
     <row r="284">
-      <c r="D284" s="31"/>
+      <c r="D284" s="28"/>
     </row>
     <row r="285">
-      <c r="D285" s="31"/>
+      <c r="D285" s="28"/>
     </row>
     <row r="286">
-      <c r="D286" s="31"/>
+      <c r="D286" s="28"/>
     </row>
     <row r="287">
-      <c r="D287" s="31"/>
+      <c r="D287" s="28"/>
     </row>
     <row r="288">
-      <c r="D288" s="31"/>
+      <c r="D288" s="28"/>
     </row>
     <row r="289">
-      <c r="D289" s="31"/>
+      <c r="D289" s="28"/>
     </row>
     <row r="290">
-      <c r="D290" s="31"/>
+      <c r="D290" s="28"/>
     </row>
     <row r="291">
-      <c r="D291" s="31"/>
+      <c r="D291" s="28"/>
     </row>
     <row r="292">
-      <c r="D292" s="31"/>
+      <c r="D292" s="28"/>
     </row>
     <row r="293">
-      <c r="D293" s="31"/>
+      <c r="D293" s="28"/>
     </row>
     <row r="294">
-      <c r="D294" s="31"/>
+      <c r="D294" s="28"/>
     </row>
     <row r="295">
-      <c r="D295" s="31"/>
+      <c r="D295" s="28"/>
     </row>
     <row r="296">
-      <c r="D296" s="31"/>
+      <c r="D296" s="28"/>
     </row>
     <row r="297">
-      <c r="D297" s="31"/>
+      <c r="D297" s="28"/>
     </row>
     <row r="298">
-      <c r="D298" s="31"/>
+      <c r="D298" s="28"/>
     </row>
     <row r="299">
-      <c r="D299" s="31"/>
+      <c r="D299" s="28"/>
     </row>
     <row r="300">
-      <c r="D300" s="31"/>
+      <c r="D300" s="28"/>
     </row>
     <row r="301">
-      <c r="D301" s="31"/>
+      <c r="D301" s="28"/>
     </row>
     <row r="302">
-      <c r="D302" s="31"/>
+      <c r="D302" s="28"/>
     </row>
     <row r="303">
-      <c r="D303" s="31"/>
+      <c r="D303" s="28"/>
     </row>
     <row r="304">
-      <c r="D304" s="31"/>
+      <c r="D304" s="28"/>
     </row>
     <row r="305">
-      <c r="D305" s="31"/>
+      <c r="D305" s="28"/>
     </row>
     <row r="306">
-      <c r="D306" s="31"/>
+      <c r="D306" s="28"/>
     </row>
     <row r="307">
-      <c r="D307" s="31"/>
+      <c r="D307" s="28"/>
     </row>
     <row r="308">
-      <c r="D308" s="31"/>
+      <c r="D308" s="28"/>
     </row>
     <row r="309">
-      <c r="D309" s="31"/>
+      <c r="D309" s="28"/>
     </row>
     <row r="310">
-      <c r="D310" s="31"/>
+      <c r="D310" s="28"/>
     </row>
     <row r="311">
-      <c r="D311" s="31"/>
+      <c r="D311" s="28"/>
     </row>
     <row r="312">
-      <c r="D312" s="31"/>
+      <c r="D312" s="28"/>
     </row>
     <row r="313">
-      <c r="D313" s="31"/>
+      <c r="D313" s="28"/>
     </row>
     <row r="314">
-      <c r="D314" s="31"/>
+      <c r="D314" s="28"/>
     </row>
     <row r="315">
-      <c r="D315" s="31"/>
+      <c r="D315" s="28"/>
     </row>
     <row r="316">
-      <c r="D316" s="31"/>
+      <c r="D316" s="28"/>
     </row>
     <row r="317">
-      <c r="D317" s="31"/>
+      <c r="D317" s="28"/>
     </row>
     <row r="318">
-      <c r="D318" s="31"/>
+      <c r="D318" s="28"/>
     </row>
     <row r="319">
-      <c r="D319" s="31"/>
+      <c r="D319" s="28"/>
     </row>
     <row r="320">
-      <c r="D320" s="31"/>
+      <c r="D320" s="28"/>
     </row>
     <row r="321">
-      <c r="D321" s="31"/>
+      <c r="D321" s="28"/>
     </row>
     <row r="322">
-      <c r="D322" s="31"/>
+      <c r="D322" s="28"/>
     </row>
     <row r="323">
-      <c r="D323" s="31"/>
+      <c r="D323" s="28"/>
     </row>
     <row r="324">
-      <c r="D324" s="31"/>
+      <c r="D324" s="28"/>
     </row>
     <row r="325">
-      <c r="D325" s="31"/>
+      <c r="D325" s="28"/>
     </row>
     <row r="326">
-      <c r="D326" s="31"/>
+      <c r="D326" s="28"/>
     </row>
     <row r="327">
-      <c r="D327" s="31"/>
+      <c r="D327" s="28"/>
     </row>
     <row r="328">
-      <c r="D328" s="31"/>
+      <c r="D328" s="28"/>
     </row>
     <row r="329">
-      <c r="D329" s="31"/>
+      <c r="D329" s="28"/>
     </row>
     <row r="330">
-      <c r="D330" s="31"/>
+      <c r="D330" s="28"/>
     </row>
     <row r="331">
-      <c r="D331" s="31"/>
+      <c r="D331" s="28"/>
     </row>
     <row r="332">
-      <c r="D332" s="31"/>
+      <c r="D332" s="28"/>
     </row>
     <row r="333">
-      <c r="D333" s="31"/>
+      <c r="D333" s="28"/>
     </row>
     <row r="334">
-      <c r="D334" s="31"/>
+      <c r="D334" s="28"/>
     </row>
     <row r="335">
-      <c r="D335" s="31"/>
+      <c r="D335" s="28"/>
     </row>
     <row r="336">
-      <c r="D336" s="31"/>
+      <c r="D336" s="28"/>
     </row>
     <row r="337">
-      <c r="D337" s="31"/>
+      <c r="D337" s="28"/>
     </row>
     <row r="338">
-      <c r="D338" s="31"/>
+      <c r="D338" s="28"/>
     </row>
     <row r="339">
-      <c r="D339" s="31"/>
+      <c r="D339" s="28"/>
     </row>
     <row r="340">
-      <c r="D340" s="31"/>
+      <c r="D340" s="28"/>
     </row>
     <row r="341">
-      <c r="D341" s="31"/>
+      <c r="D341" s="28"/>
     </row>
     <row r="342">
-      <c r="D342" s="31"/>
+      <c r="D342" s="28"/>
     </row>
     <row r="343">
-      <c r="D343" s="31"/>
+      <c r="D343" s="28"/>
     </row>
     <row r="344">
-      <c r="D344" s="31"/>
+      <c r="D344" s="28"/>
     </row>
     <row r="345">
-      <c r="D345" s="31"/>
+      <c r="D345" s="28"/>
     </row>
     <row r="346">
-      <c r="D346" s="31"/>
+      <c r="D346" s="28"/>
     </row>
     <row r="347">
-      <c r="D347" s="31"/>
+      <c r="D347" s="28"/>
     </row>
     <row r="348">
-      <c r="D348" s="31"/>
+      <c r="D348" s="28"/>
     </row>
     <row r="349">
-      <c r="D349" s="31"/>
+      <c r="D349" s="28"/>
     </row>
     <row r="350">
-      <c r="D350" s="31"/>
+      <c r="D350" s="28"/>
     </row>
     <row r="351">
-      <c r="D351" s="31"/>
+      <c r="D351" s="28"/>
     </row>
     <row r="352">
-      <c r="D352" s="31"/>
+      <c r="D352" s="28"/>
     </row>
     <row r="353">
-      <c r="D353" s="31"/>
+      <c r="D353" s="28"/>
     </row>
     <row r="354">
-      <c r="D354" s="31"/>
+      <c r="D354" s="28"/>
     </row>
     <row r="355">
-      <c r="D355" s="31"/>
+      <c r="D355" s="28"/>
     </row>
     <row r="356">
-      <c r="D356" s="31"/>
+      <c r="D356" s="28"/>
     </row>
     <row r="357">
-      <c r="D357" s="31"/>
+      <c r="D357" s="28"/>
     </row>
     <row r="358">
-      <c r="D358" s="31"/>
+      <c r="D358" s="28"/>
     </row>
     <row r="359">
-      <c r="D359" s="31"/>
+      <c r="D359" s="28"/>
     </row>
     <row r="360">
-      <c r="D360" s="31"/>
+      <c r="D360" s="28"/>
     </row>
     <row r="361">
-      <c r="D361" s="31"/>
+      <c r="D361" s="28"/>
     </row>
     <row r="362">
-      <c r="D362" s="31"/>
+      <c r="D362" s="28"/>
     </row>
     <row r="363">
-      <c r="D363" s="31"/>
+      <c r="D363" s="28"/>
     </row>
     <row r="364">
-      <c r="D364" s="31"/>
+      <c r="D364" s="28"/>
     </row>
     <row r="365">
-      <c r="D365" s="31"/>
+      <c r="D365" s="28"/>
     </row>
     <row r="366">
-      <c r="D366" s="31"/>
+      <c r="D366" s="28"/>
     </row>
     <row r="367">
-      <c r="D367" s="31"/>
+      <c r="D367" s="28"/>
     </row>
     <row r="368">
-      <c r="D368" s="31"/>
+      <c r="D368" s="28"/>
     </row>
     <row r="369">
-      <c r="D369" s="31"/>
+      <c r="D369" s="28"/>
     </row>
     <row r="370">
-      <c r="D370" s="31"/>
+      <c r="D370" s="28"/>
     </row>
     <row r="371">
-      <c r="D371" s="31"/>
+      <c r="D371" s="28"/>
     </row>
     <row r="372">
-      <c r="D372" s="31"/>
+      <c r="D372" s="28"/>
     </row>
     <row r="373">
-      <c r="D373" s="31"/>
+      <c r="D373" s="28"/>
     </row>
     <row r="374">
-      <c r="D374" s="31"/>
+      <c r="D374" s="28"/>
     </row>
     <row r="375">
-      <c r="D375" s="31"/>
+      <c r="D375" s="28"/>
     </row>
     <row r="376">
-      <c r="D376" s="31"/>
+      <c r="D376" s="28"/>
     </row>
     <row r="377">
-      <c r="D377" s="31"/>
+      <c r="D377" s="28"/>
     </row>
     <row r="378">
-      <c r="D378" s="31"/>
+      <c r="D378" s="28"/>
     </row>
     <row r="379">
-      <c r="D379" s="31"/>
+      <c r="D379" s="28"/>
     </row>
     <row r="380">
-      <c r="D380" s="31"/>
+      <c r="D380" s="28"/>
     </row>
     <row r="381">
-      <c r="D381" s="31"/>
+      <c r="D381" s="28"/>
     </row>
     <row r="382">
-      <c r="D382" s="31"/>
+      <c r="D382" s="28"/>
     </row>
     <row r="383">
-      <c r="D383" s="31"/>
+      <c r="D383" s="28"/>
     </row>
     <row r="384">
-      <c r="D384" s="31"/>
+      <c r="D384" s="28"/>
     </row>
     <row r="385">
-      <c r="D385" s="31"/>
+      <c r="D385" s="28"/>
     </row>
     <row r="386">
-      <c r="D386" s="31"/>
+      <c r="D386" s="28"/>
     </row>
     <row r="387">
-      <c r="D387" s="31"/>
+      <c r="D387" s="28"/>
     </row>
     <row r="388">
-      <c r="D388" s="31"/>
+      <c r="D388" s="28"/>
     </row>
     <row r="389">
-      <c r="D389" s="31"/>
+      <c r="D389" s="28"/>
     </row>
     <row r="390">
-      <c r="D390" s="31"/>
+      <c r="D390" s="28"/>
     </row>
     <row r="391">
-      <c r="D391" s="31"/>
+      <c r="D391" s="28"/>
     </row>
     <row r="392">
-      <c r="D392" s="31"/>
+      <c r="D392" s="28"/>
     </row>
     <row r="393">
-      <c r="D393" s="31"/>
+      <c r="D393" s="28"/>
     </row>
     <row r="394">
-      <c r="D394" s="31"/>
+      <c r="D394" s="28"/>
     </row>
     <row r="395">
-      <c r="D395" s="31"/>
+      <c r="D395" s="28"/>
     </row>
     <row r="396">
-      <c r="D396" s="31"/>
+      <c r="D396" s="28"/>
     </row>
     <row r="397">
-      <c r="D397" s="31"/>
+      <c r="D397" s="28"/>
     </row>
     <row r="398">
-      <c r="D398" s="31"/>
+      <c r="D398" s="28"/>
     </row>
     <row r="399">
-      <c r="D399" s="31"/>
+      <c r="D399" s="28"/>
     </row>
     <row r="400">
-      <c r="D400" s="31"/>
+      <c r="D400" s="28"/>
     </row>
     <row r="401">
-      <c r="D401" s="31"/>
+      <c r="D401" s="28"/>
     </row>
     <row r="402">
-      <c r="D402" s="31"/>
+      <c r="D402" s="28"/>
     </row>
     <row r="403">
-      <c r="D403" s="31"/>
+      <c r="D403" s="28"/>
     </row>
     <row r="404">
-      <c r="D404" s="31"/>
+      <c r="D404" s="28"/>
     </row>
     <row r="405">
-      <c r="D405" s="31"/>
+      <c r="D405" s="28"/>
     </row>
     <row r="406">
-      <c r="D406" s="31"/>
+      <c r="D406" s="28"/>
     </row>
     <row r="407">
-      <c r="D407" s="31"/>
+      <c r="D407" s="28"/>
     </row>
     <row r="408">
-      <c r="D408" s="31"/>
+      <c r="D408" s="28"/>
     </row>
     <row r="409">
-      <c r="D409" s="31"/>
+      <c r="D409" s="28"/>
     </row>
     <row r="410">
-      <c r="D410" s="31"/>
+      <c r="D410" s="28"/>
     </row>
     <row r="411">
-      <c r="D411" s="31"/>
+      <c r="D411" s="28"/>
     </row>
     <row r="412">
-      <c r="D412" s="31"/>
+      <c r="D412" s="28"/>
     </row>
     <row r="413">
-      <c r="D413" s="31"/>
+      <c r="D413" s="28"/>
     </row>
     <row r="414">
-      <c r="D414" s="31"/>
+      <c r="D414" s="28"/>
     </row>
     <row r="415">
-      <c r="D415" s="31"/>
+      <c r="D415" s="28"/>
     </row>
     <row r="416">
-      <c r="D416" s="31"/>
+      <c r="D416" s="28"/>
     </row>
     <row r="417">
-      <c r="D417" s="31"/>
+      <c r="D417" s="28"/>
     </row>
     <row r="418">
-      <c r="D418" s="31"/>
+      <c r="D418" s="28"/>
     </row>
     <row r="419">
-      <c r="D419" s="31"/>
+      <c r="D419" s="28"/>
     </row>
     <row r="420">
-      <c r="D420" s="31"/>
+      <c r="D420" s="28"/>
     </row>
     <row r="421">
-      <c r="D421" s="31"/>
+      <c r="D421" s="28"/>
     </row>
     <row r="422">
-      <c r="D422" s="31"/>
+      <c r="D422" s="28"/>
     </row>
     <row r="423">
-      <c r="D423" s="31"/>
+      <c r="D423" s="28"/>
     </row>
     <row r="424">
-      <c r="D424" s="31"/>
+      <c r="D424" s="28"/>
     </row>
     <row r="425">
-      <c r="D425" s="31"/>
+      <c r="D425" s="28"/>
     </row>
     <row r="426">
-      <c r="D426" s="31"/>
+      <c r="D426" s="28"/>
     </row>
     <row r="427">
-      <c r="D427" s="31"/>
+      <c r="D427" s="28"/>
     </row>
     <row r="428">
-      <c r="D428" s="31"/>
+      <c r="D428" s="28"/>
     </row>
     <row r="429">
-      <c r="D429" s="31"/>
+      <c r="D429" s="28"/>
     </row>
     <row r="430">
-      <c r="D430" s="31"/>
+      <c r="D430" s="28"/>
     </row>
     <row r="431">
-      <c r="D431" s="31"/>
+      <c r="D431" s="28"/>
     </row>
     <row r="432">
-      <c r="D432" s="31"/>
+      <c r="D432" s="28"/>
     </row>
     <row r="433">
-      <c r="D433" s="31"/>
+      <c r="D433" s="28"/>
     </row>
     <row r="434">
-      <c r="D434" s="31"/>
+      <c r="D434" s="28"/>
     </row>
     <row r="435">
-      <c r="D435" s="31"/>
+      <c r="D435" s="28"/>
     </row>
     <row r="436">
-      <c r="D436" s="31"/>
+      <c r="D436" s="28"/>
     </row>
     <row r="437">
-      <c r="D437" s="31"/>
+      <c r="D437" s="28"/>
     </row>
     <row r="438">
-      <c r="D438" s="31"/>
+      <c r="D438" s="28"/>
     </row>
     <row r="439">
-      <c r="D439" s="31"/>
+      <c r="D439" s="28"/>
     </row>
     <row r="440">
-      <c r="D440" s="31"/>
+      <c r="D440" s="28"/>
     </row>
     <row r="441">
-      <c r="D441" s="31"/>
+      <c r="D441" s="28"/>
     </row>
     <row r="442">
-      <c r="D442" s="31"/>
+      <c r="D442" s="28"/>
     </row>
     <row r="443">
-      <c r="D443" s="31"/>
+      <c r="D443" s="28"/>
     </row>
     <row r="444">
-      <c r="D444" s="31"/>
+      <c r="D444" s="28"/>
     </row>
     <row r="445">
-      <c r="D445" s="31"/>
+      <c r="D445" s="28"/>
     </row>
     <row r="446">
-      <c r="D446" s="31"/>
+      <c r="D446" s="28"/>
     </row>
     <row r="447">
-      <c r="D447" s="31"/>
+      <c r="D447" s="28"/>
     </row>
     <row r="448">
-      <c r="D448" s="31"/>
+      <c r="D448" s="28"/>
     </row>
     <row r="449">
-      <c r="D449" s="31"/>
+      <c r="D449" s="28"/>
     </row>
     <row r="450">
-      <c r="D450" s="31"/>
+      <c r="D450" s="28"/>
     </row>
     <row r="451">
-      <c r="D451" s="31"/>
+      <c r="D451" s="28"/>
     </row>
     <row r="452">
-      <c r="D452" s="31"/>
+      <c r="D452" s="28"/>
     </row>
     <row r="453">
-      <c r="D453" s="31"/>
+      <c r="D453" s="28"/>
     </row>
     <row r="454">
-      <c r="D454" s="31"/>
+      <c r="D454" s="28"/>
     </row>
     <row r="455">
-      <c r="D455" s="31"/>
+      <c r="D455" s="28"/>
     </row>
     <row r="456">
-      <c r="D456" s="31"/>
+      <c r="D456" s="28"/>
     </row>
     <row r="457">
-      <c r="D457" s="31"/>
+      <c r="D457" s="28"/>
     </row>
     <row r="458">
-      <c r="D458" s="31"/>
+      <c r="D458" s="28"/>
     </row>
     <row r="459">
-      <c r="D459" s="31"/>
+      <c r="D459" s="28"/>
     </row>
     <row r="460">
-      <c r="D460" s="31"/>
+      <c r="D460" s="28"/>
     </row>
     <row r="461">
-      <c r="D461" s="31"/>
+      <c r="D461" s="28"/>
     </row>
     <row r="462">
-      <c r="D462" s="31"/>
+      <c r="D462" s="28"/>
     </row>
     <row r="463">
-      <c r="D463" s="31"/>
+      <c r="D463" s="28"/>
     </row>
     <row r="464">
-      <c r="D464" s="31"/>
+      <c r="D464" s="28"/>
     </row>
     <row r="465">
-      <c r="D465" s="31"/>
+      <c r="D465" s="28"/>
     </row>
     <row r="466">
-      <c r="D466" s="31"/>
+      <c r="D466" s="28"/>
     </row>
     <row r="467">
-      <c r="D467" s="31"/>
+      <c r="D467" s="28"/>
     </row>
     <row r="468">
-      <c r="D468" s="31"/>
+      <c r="D468" s="28"/>
     </row>
     <row r="469">
-      <c r="D469" s="31"/>
+      <c r="D469" s="28"/>
     </row>
     <row r="470">
-      <c r="D470" s="31"/>
+      <c r="D470" s="28"/>
     </row>
     <row r="471">
-      <c r="D471" s="31"/>
+      <c r="D471" s="28"/>
     </row>
     <row r="472">
-      <c r="D472" s="31"/>
+      <c r="D472" s="28"/>
     </row>
     <row r="473">
-      <c r="D473" s="31"/>
+      <c r="D473" s="28"/>
     </row>
     <row r="474">
-      <c r="D474" s="31"/>
+      <c r="D474" s="28"/>
     </row>
     <row r="475">
-      <c r="D475" s="31"/>
+      <c r="D475" s="28"/>
     </row>
     <row r="476">
-      <c r="D476" s="31"/>
+      <c r="D476" s="28"/>
     </row>
     <row r="477">
-      <c r="D477" s="31"/>
+      <c r="D477" s="28"/>
     </row>
     <row r="478">
-      <c r="D478" s="31"/>
+      <c r="D478" s="28"/>
     </row>
     <row r="479">
-      <c r="D479" s="31"/>
+      <c r="D479" s="28"/>
     </row>
     <row r="480">
-      <c r="D480" s="31"/>
+      <c r="D480" s="28"/>
     </row>
     <row r="481">
-      <c r="D481" s="31"/>
+      <c r="D481" s="28"/>
     </row>
     <row r="482">
-      <c r="D482" s="31"/>
+      <c r="D482" s="28"/>
     </row>
     <row r="483">
-      <c r="D483" s="31"/>
+      <c r="D483" s="28"/>
     </row>
     <row r="484">
-      <c r="D484" s="31"/>
+      <c r="D484" s="28"/>
     </row>
     <row r="485">
-      <c r="D485" s="31"/>
+      <c r="D485" s="28"/>
     </row>
     <row r="486">
-      <c r="D486" s="31"/>
+      <c r="D486" s="28"/>
     </row>
     <row r="487">
-      <c r="D487" s="31"/>
+      <c r="D487" s="28"/>
     </row>
     <row r="488">
-      <c r="D488" s="31"/>
+      <c r="D488" s="28"/>
     </row>
     <row r="489">
-      <c r="D489" s="31"/>
+      <c r="D489" s="28"/>
     </row>
     <row r="490">
-      <c r="D490" s="31"/>
+      <c r="D490" s="28"/>
     </row>
     <row r="491">
-      <c r="D491" s="31"/>
+      <c r="D491" s="28"/>
     </row>
     <row r="492">
-      <c r="D492" s="31"/>
+      <c r="D492" s="28"/>
     </row>
     <row r="493">
-      <c r="D493" s="31"/>
+      <c r="D493" s="28"/>
     </row>
     <row r="494">
-      <c r="D494" s="31"/>
+      <c r="D494" s="28"/>
     </row>
     <row r="495">
-      <c r="D495" s="31"/>
+      <c r="D495" s="28"/>
     </row>
     <row r="496">
-      <c r="D496" s="31"/>
+      <c r="D496" s="28"/>
     </row>
     <row r="497">
-      <c r="D497" s="31"/>
+      <c r="D497" s="28"/>
     </row>
     <row r="498">
-      <c r="D498" s="31"/>
+      <c r="D498" s="28"/>
     </row>
     <row r="499">
-      <c r="D499" s="31"/>
+      <c r="D499" s="28"/>
     </row>
     <row r="500">
-      <c r="D500" s="31"/>
+      <c r="D500" s="28"/>
     </row>
     <row r="501">
-      <c r="D501" s="31"/>
+      <c r="D501" s="28"/>
     </row>
     <row r="502">
-      <c r="D502" s="31"/>
+      <c r="D502" s="28"/>
     </row>
     <row r="503">
-      <c r="D503" s="31"/>
+      <c r="D503" s="28"/>
     </row>
     <row r="504">
-      <c r="D504" s="31"/>
+      <c r="D504" s="28"/>
     </row>
     <row r="505">
-      <c r="D505" s="31"/>
+      <c r="D505" s="28"/>
     </row>
     <row r="506">
-      <c r="D506" s="31"/>
+      <c r="D506" s="28"/>
     </row>
     <row r="507">
-      <c r="D507" s="31"/>
+      <c r="D507" s="28"/>
     </row>
     <row r="508">
-      <c r="D508" s="31"/>
+      <c r="D508" s="28"/>
     </row>
     <row r="509">
-      <c r="D509" s="31"/>
+      <c r="D509" s="28"/>
     </row>
     <row r="510">
-      <c r="D510" s="31"/>
+      <c r="D510" s="28"/>
     </row>
     <row r="511">
-      <c r="D511" s="31"/>
+      <c r="D511" s="28"/>
     </row>
     <row r="512">
-      <c r="D512" s="31"/>
+      <c r="D512" s="28"/>
     </row>
     <row r="513">
-      <c r="D513" s="31"/>
+      <c r="D513" s="28"/>
     </row>
     <row r="514">
-      <c r="D514" s="31"/>
+      <c r="D514" s="28"/>
     </row>
     <row r="515">
-      <c r="D515" s="31"/>
+      <c r="D515" s="28"/>
     </row>
     <row r="516">
-      <c r="D516" s="31"/>
+      <c r="D516" s="28"/>
     </row>
     <row r="517">
-      <c r="D517" s="31"/>
+      <c r="D517" s="28"/>
     </row>
     <row r="518">
-      <c r="D518" s="31"/>
+      <c r="D518" s="28"/>
     </row>
     <row r="519">
-      <c r="D519" s="31"/>
+      <c r="D519" s="28"/>
     </row>
     <row r="520">
-      <c r="D520" s="31"/>
+      <c r="D520" s="28"/>
     </row>
     <row r="521">
-      <c r="D521" s="31"/>
+      <c r="D521" s="28"/>
     </row>
     <row r="522">
-      <c r="D522" s="31"/>
+      <c r="D522" s="28"/>
     </row>
     <row r="523">
-      <c r="D523" s="31"/>
+      <c r="D523" s="28"/>
     </row>
     <row r="524">
-      <c r="D524" s="31"/>
+      <c r="D524" s="28"/>
     </row>
     <row r="525">
-      <c r="D525" s="31"/>
+      <c r="D525" s="28"/>
     </row>
     <row r="526">
-      <c r="D526" s="31"/>
+      <c r="D526" s="28"/>
     </row>
     <row r="527">
-      <c r="D527" s="31"/>
+      <c r="D527" s="28"/>
     </row>
     <row r="528">
-      <c r="D528" s="31"/>
+      <c r="D528" s="28"/>
     </row>
     <row r="529">
-      <c r="D529" s="31"/>
+      <c r="D529" s="28"/>
     </row>
     <row r="530">
-      <c r="D530" s="31"/>
+      <c r="D530" s="28"/>
     </row>
     <row r="531">
-      <c r="D531" s="31"/>
+      <c r="D531" s="28"/>
     </row>
     <row r="532">
-      <c r="D532" s="31"/>
+      <c r="D532" s="28"/>
     </row>
     <row r="533">
-      <c r="D533" s="31"/>
+      <c r="D533" s="28"/>
     </row>
     <row r="534">
-      <c r="D534" s="31"/>
+      <c r="D534" s="28"/>
     </row>
     <row r="535">
-      <c r="D535" s="31"/>
+      <c r="D535" s="28"/>
     </row>
     <row r="536">
-      <c r="D536" s="31"/>
+      <c r="D536" s="28"/>
     </row>
     <row r="537">
-      <c r="D537" s="31"/>
+      <c r="D537" s="28"/>
     </row>
     <row r="538">
-      <c r="D538" s="31"/>
+      <c r="D538" s="28"/>
     </row>
     <row r="539">
-      <c r="D539" s="31"/>
+      <c r="D539" s="28"/>
     </row>
     <row r="540">
-      <c r="D540" s="31"/>
+      <c r="D540" s="28"/>
     </row>
     <row r="541">
-      <c r="D541" s="31"/>
+      <c r="D541" s="28"/>
     </row>
     <row r="542">
-      <c r="D542" s="31"/>
+      <c r="D542" s="28"/>
     </row>
     <row r="543">
-      <c r="D543" s="31"/>
+      <c r="D543" s="28"/>
     </row>
     <row r="544">
-      <c r="D544" s="31"/>
+      <c r="D544" s="28"/>
     </row>
     <row r="545">
-      <c r="D545" s="31"/>
+      <c r="D545" s="28"/>
     </row>
     <row r="546">
-      <c r="D546" s="31"/>
+      <c r="D546" s="28"/>
     </row>
     <row r="547">
-      <c r="D547" s="31"/>
+      <c r="D547" s="28"/>
     </row>
     <row r="548">
-      <c r="D548" s="31"/>
+      <c r="D548" s="28"/>
     </row>
     <row r="549">
-      <c r="D549" s="31"/>
+      <c r="D549" s="28"/>
     </row>
     <row r="550">
-      <c r="D550" s="31"/>
+      <c r="D550" s="28"/>
     </row>
     <row r="551">
-      <c r="D551" s="31"/>
+      <c r="D551" s="28"/>
     </row>
     <row r="552">
-      <c r="D552" s="31"/>
+      <c r="D552" s="28"/>
     </row>
     <row r="553">
-      <c r="D553" s="31"/>
+      <c r="D553" s="28"/>
     </row>
     <row r="554">
-      <c r="D554" s="31"/>
+      <c r="D554" s="28"/>
     </row>
     <row r="555">
-      <c r="D555" s="31"/>
+      <c r="D555" s="28"/>
     </row>
     <row r="556">
-      <c r="D556" s="31"/>
+      <c r="D556" s="28"/>
     </row>
     <row r="557">
-      <c r="D557" s="31"/>
+      <c r="D557" s="28"/>
     </row>
     <row r="558">
-      <c r="D558" s="31"/>
+      <c r="D558" s="28"/>
     </row>
     <row r="559">
-      <c r="D559" s="31"/>
+      <c r="D559" s="28"/>
     </row>
     <row r="560">
-      <c r="D560" s="31"/>
+      <c r="D560" s="28"/>
     </row>
     <row r="561">
-      <c r="D561" s="31"/>
+      <c r="D561" s="28"/>
     </row>
     <row r="562">
-      <c r="D562" s="31"/>
+      <c r="D562" s="28"/>
     </row>
     <row r="563">
-      <c r="D563" s="31"/>
+      <c r="D563" s="28"/>
     </row>
     <row r="564">
-      <c r="D564" s="31"/>
+      <c r="D564" s="28"/>
     </row>
     <row r="565">
-      <c r="D565" s="31"/>
+      <c r="D565" s="28"/>
     </row>
     <row r="566">
-      <c r="D566" s="31"/>
+      <c r="D566" s="28"/>
     </row>
     <row r="567">
-      <c r="D567" s="31"/>
+      <c r="D567" s="28"/>
     </row>
     <row r="568">
-      <c r="D568" s="31"/>
+      <c r="D568" s="28"/>
     </row>
     <row r="569">
-      <c r="D569" s="31"/>
+      <c r="D569" s="28"/>
     </row>
     <row r="570">
-      <c r="D570" s="31"/>
+      <c r="D570" s="28"/>
     </row>
     <row r="571">
-      <c r="D571" s="31"/>
+      <c r="D571" s="28"/>
     </row>
     <row r="572">
-      <c r="D572" s="31"/>
+      <c r="D572" s="28"/>
     </row>
     <row r="573">
-      <c r="D573" s="31"/>
+      <c r="D573" s="28"/>
     </row>
     <row r="574">
-      <c r="D574" s="31"/>
+      <c r="D574" s="28"/>
     </row>
     <row r="575">
-      <c r="D575" s="31"/>
+      <c r="D575" s="28"/>
     </row>
     <row r="576">
-      <c r="D576" s="31"/>
+      <c r="D576" s="28"/>
     </row>
     <row r="577">
-      <c r="D577" s="31"/>
+      <c r="D577" s="28"/>
     </row>
     <row r="578">
-      <c r="D578" s="31"/>
+      <c r="D578" s="28"/>
     </row>
     <row r="579">
-      <c r="D579" s="31"/>
+      <c r="D579" s="28"/>
     </row>
     <row r="580">
-      <c r="D580" s="31"/>
+      <c r="D580" s="28"/>
     </row>
     <row r="581">
-      <c r="D581" s="31"/>
+      <c r="D581" s="28"/>
     </row>
     <row r="582">
-      <c r="D582" s="31"/>
+      <c r="D582" s="28"/>
     </row>
     <row r="583">
-      <c r="D583" s="31"/>
+      <c r="D583" s="28"/>
     </row>
     <row r="584">
-      <c r="D584" s="31"/>
+      <c r="D584" s="28"/>
     </row>
     <row r="585">
-      <c r="D585" s="31"/>
+      <c r="D585" s="28"/>
     </row>
     <row r="586">
-      <c r="D586" s="31"/>
+      <c r="D586" s="28"/>
     </row>
     <row r="587">
-      <c r="D587" s="31"/>
+      <c r="D587" s="28"/>
     </row>
     <row r="588">
-      <c r="D588" s="31"/>
+      <c r="D588" s="28"/>
     </row>
     <row r="589">
-      <c r="D589" s="31"/>
+      <c r="D589" s="28"/>
     </row>
     <row r="590">
-      <c r="D590" s="31"/>
+      <c r="D590" s="28"/>
     </row>
     <row r="591">
-      <c r="D591" s="31"/>
+      <c r="D591" s="28"/>
     </row>
     <row r="592">
-      <c r="D592" s="31"/>
+      <c r="D592" s="28"/>
     </row>
     <row r="593">
-      <c r="D593" s="31"/>
+      <c r="D593" s="28"/>
     </row>
     <row r="594">
-      <c r="D594" s="31"/>
+      <c r="D594" s="28"/>
     </row>
     <row r="595">
-      <c r="D595" s="31"/>
+      <c r="D595" s="28"/>
     </row>
     <row r="596">
-      <c r="D596" s="31"/>
+      <c r="D596" s="28"/>
     </row>
     <row r="597">
-      <c r="D597" s="31"/>
+      <c r="D597" s="28"/>
     </row>
     <row r="598">
-      <c r="D598" s="31"/>
+      <c r="D598" s="28"/>
     </row>
     <row r="599">
-      <c r="D599" s="31"/>
+      <c r="D599" s="28"/>
     </row>
     <row r="600">
-      <c r="D600" s="31"/>
+      <c r="D600" s="28"/>
     </row>
     <row r="601">
-      <c r="D601" s="31"/>
+      <c r="D601" s="28"/>
     </row>
     <row r="602">
-      <c r="D602" s="31"/>
+      <c r="D602" s="28"/>
     </row>
     <row r="603">
-      <c r="D603" s="31"/>
+      <c r="D603" s="28"/>
     </row>
     <row r="604">
-      <c r="D604" s="31"/>
+      <c r="D604" s="28"/>
     </row>
     <row r="605">
-      <c r="D605" s="31"/>
+      <c r="D605" s="28"/>
     </row>
     <row r="606">
-      <c r="D606" s="31"/>
+      <c r="D606" s="28"/>
     </row>
     <row r="607">
-      <c r="D607" s="31"/>
+      <c r="D607" s="28"/>
     </row>
     <row r="608">
-      <c r="D608" s="31"/>
+      <c r="D608" s="28"/>
     </row>
     <row r="609">
-      <c r="D609" s="31"/>
+      <c r="D609" s="28"/>
     </row>
     <row r="610">
-      <c r="D610" s="31"/>
+      <c r="D610" s="28"/>
     </row>
     <row r="611">
-      <c r="D611" s="31"/>
+      <c r="D611" s="28"/>
     </row>
     <row r="612">
-      <c r="D612" s="31"/>
+      <c r="D612" s="28"/>
     </row>
     <row r="613">
-      <c r="D613" s="31"/>
+      <c r="D613" s="28"/>
     </row>
     <row r="614">
-      <c r="D614" s="31"/>
+      <c r="D614" s="28"/>
     </row>
     <row r="615">
-      <c r="D615" s="31"/>
+      <c r="D615" s="28"/>
     </row>
     <row r="616">
-      <c r="D616" s="31"/>
+      <c r="D616" s="28"/>
     </row>
     <row r="617">
-      <c r="D617" s="31"/>
+      <c r="D617" s="28"/>
     </row>
     <row r="618">
-      <c r="D618" s="31"/>
+      <c r="D618" s="28"/>
     </row>
     <row r="619">
-      <c r="D619" s="31"/>
+      <c r="D619" s="28"/>
     </row>
     <row r="620">
-      <c r="D620" s="31"/>
+      <c r="D620" s="28"/>
     </row>
     <row r="621">
-      <c r="D621" s="31"/>
+      <c r="D621" s="28"/>
     </row>
     <row r="622">
-      <c r="D622" s="31"/>
+      <c r="D622" s="28"/>
     </row>
     <row r="623">
-      <c r="D623" s="31"/>
+      <c r="D623" s="28"/>
     </row>
     <row r="624">
-      <c r="D624" s="31"/>
+      <c r="D624" s="28"/>
     </row>
     <row r="625">
-      <c r="D625" s="31"/>
+      <c r="D625" s="28"/>
     </row>
     <row r="626">
-      <c r="D626" s="31"/>
+      <c r="D626" s="28"/>
     </row>
     <row r="627">
-      <c r="D627" s="31"/>
+      <c r="D627" s="28"/>
     </row>
     <row r="628">
-      <c r="D628" s="31"/>
+      <c r="D628" s="28"/>
     </row>
     <row r="629">
-      <c r="D629" s="31"/>
+      <c r="D629" s="28"/>
     </row>
     <row r="630">
-      <c r="D630" s="31"/>
+      <c r="D630" s="28"/>
     </row>
     <row r="631">
-      <c r="D631" s="31"/>
+      <c r="D631" s="28"/>
     </row>
     <row r="632">
-      <c r="D632" s="31"/>
+      <c r="D632" s="28"/>
     </row>
     <row r="633">
-      <c r="D633" s="31"/>
+      <c r="D633" s="28"/>
     </row>
     <row r="634">
-      <c r="D634" s="31"/>
+      <c r="D634" s="28"/>
     </row>
     <row r="635">
-      <c r="D635" s="31"/>
+      <c r="D635" s="28"/>
     </row>
     <row r="636">
-      <c r="D636" s="31"/>
+      <c r="D636" s="28"/>
     </row>
     <row r="637">
-      <c r="D637" s="31"/>
+      <c r="D637" s="28"/>
     </row>
     <row r="638">
-      <c r="D638" s="31"/>
+      <c r="D638" s="28"/>
     </row>
     <row r="639">
-      <c r="D639" s="31"/>
+      <c r="D639" s="28"/>
     </row>
     <row r="640">
-      <c r="D640" s="31"/>
+      <c r="D640" s="28"/>
     </row>
     <row r="641">
-      <c r="D641" s="31"/>
+      <c r="D641" s="28"/>
     </row>
     <row r="642">
-      <c r="D642" s="31"/>
+      <c r="D642" s="28"/>
     </row>
     <row r="643">
-      <c r="D643" s="31"/>
+      <c r="D643" s="28"/>
     </row>
     <row r="644">
-      <c r="D644" s="31"/>
+      <c r="D644" s="28"/>
     </row>
     <row r="645">
-      <c r="D645" s="31"/>
+      <c r="D645" s="28"/>
     </row>
     <row r="646">
-      <c r="D646" s="31"/>
+      <c r="D646" s="28"/>
     </row>
     <row r="647">
-      <c r="D647" s="31"/>
+      <c r="D647" s="28"/>
     </row>
     <row r="648">
-      <c r="D648" s="31"/>
+      <c r="D648" s="28"/>
     </row>
     <row r="649">
-      <c r="D649" s="31"/>
+      <c r="D649" s="28"/>
     </row>
     <row r="650">
-      <c r="D650" s="31"/>
+      <c r="D650" s="28"/>
     </row>
     <row r="651">
-      <c r="D651" s="31"/>
+      <c r="D651" s="28"/>
     </row>
     <row r="652">
-      <c r="D652" s="31"/>
+      <c r="D652" s="28"/>
     </row>
     <row r="653">
-      <c r="D653" s="31"/>
+      <c r="D653" s="28"/>
     </row>
     <row r="654">
-      <c r="D654" s="31"/>
+      <c r="D654" s="28"/>
     </row>
     <row r="655">
-      <c r="D655" s="31"/>
+      <c r="D655" s="28"/>
     </row>
     <row r="656">
-      <c r="D656" s="31"/>
+      <c r="D656" s="28"/>
     </row>
     <row r="657">
-      <c r="D657" s="31"/>
+      <c r="D657" s="28"/>
     </row>
     <row r="658">
-      <c r="D658" s="31"/>
+      <c r="D658" s="28"/>
     </row>
     <row r="659">
-      <c r="D659" s="31"/>
+      <c r="D659" s="28"/>
     </row>
     <row r="660">
-      <c r="D660" s="31"/>
+      <c r="D660" s="28"/>
     </row>
     <row r="661">
-      <c r="D661" s="31"/>
+      <c r="D661" s="28"/>
     </row>
     <row r="662">
-      <c r="D662" s="31"/>
+      <c r="D662" s="28"/>
     </row>
     <row r="663">
-      <c r="D663" s="31"/>
+      <c r="D663" s="28"/>
     </row>
     <row r="664">
-      <c r="D664" s="31"/>
+      <c r="D664" s="28"/>
     </row>
     <row r="665">
-      <c r="D665" s="31"/>
+      <c r="D665" s="28"/>
     </row>
     <row r="666">
-      <c r="D666" s="31"/>
+      <c r="D666" s="28"/>
     </row>
     <row r="667">
-      <c r="D667" s="31"/>
+      <c r="D667" s="28"/>
     </row>
     <row r="668">
-      <c r="D668" s="31"/>
+      <c r="D668" s="28"/>
     </row>
     <row r="669">
-      <c r="D669" s="31"/>
+      <c r="D669" s="28"/>
     </row>
     <row r="670">
-      <c r="D670" s="31"/>
+      <c r="D670" s="28"/>
     </row>
     <row r="671">
-      <c r="D671" s="31"/>
+      <c r="D671" s="28"/>
     </row>
     <row r="672">
-      <c r="D672" s="31"/>
+      <c r="D672" s="28"/>
     </row>
     <row r="673">
-      <c r="D673" s="31"/>
+      <c r="D673" s="28"/>
     </row>
     <row r="674">
-      <c r="D674" s="31"/>
+      <c r="D674" s="28"/>
     </row>
     <row r="675">
-      <c r="D675" s="31"/>
+      <c r="D675" s="28"/>
     </row>
     <row r="676">
-      <c r="D676" s="31"/>
+      <c r="D676" s="28"/>
     </row>
     <row r="677">
-      <c r="D677" s="31"/>
+      <c r="D677" s="28"/>
     </row>
     <row r="678">
-      <c r="D678" s="31"/>
+      <c r="D678" s="28"/>
     </row>
     <row r="679">
-      <c r="D679" s="31"/>
+      <c r="D679" s="28"/>
     </row>
     <row r="680">
-      <c r="D680" s="31"/>
+      <c r="D680" s="28"/>
     </row>
     <row r="681">
-      <c r="D681" s="31"/>
+      <c r="D681" s="28"/>
     </row>
     <row r="682">
-      <c r="D682" s="31"/>
+      <c r="D682" s="28"/>
     </row>
     <row r="683">
-      <c r="D683" s="31"/>
+      <c r="D683" s="28"/>
     </row>
     <row r="684">
-      <c r="D684" s="31"/>
+      <c r="D684" s="28"/>
     </row>
     <row r="685">
-      <c r="D685" s="31"/>
+      <c r="D685" s="28"/>
     </row>
     <row r="686">
-      <c r="D686" s="31"/>
+      <c r="D686" s="28"/>
     </row>
     <row r="687">
-      <c r="D687" s="31"/>
+      <c r="D687" s="28"/>
     </row>
     <row r="688">
-      <c r="D688" s="31"/>
+      <c r="D688" s="28"/>
     </row>
     <row r="689">
-      <c r="D689" s="31"/>
+      <c r="D689" s="28"/>
     </row>
     <row r="690">
-      <c r="D690" s="31"/>
+      <c r="D690" s="28"/>
     </row>
     <row r="691">
-      <c r="D691" s="31"/>
+      <c r="D691" s="28"/>
     </row>
     <row r="692">
-      <c r="D692" s="31"/>
+      <c r="D692" s="28"/>
     </row>
     <row r="693">
-      <c r="D693" s="31"/>
+      <c r="D693" s="28"/>
     </row>
     <row r="694">
-      <c r="D694" s="31"/>
+      <c r="D694" s="28"/>
     </row>
     <row r="695">
-      <c r="D695" s="31"/>
+      <c r="D695" s="28"/>
     </row>
     <row r="696">
-      <c r="D696" s="31"/>
+      <c r="D696" s="28"/>
     </row>
     <row r="697">
-      <c r="D697" s="31"/>
+      <c r="D697" s="28"/>
     </row>
     <row r="698">
-      <c r="D698" s="31"/>
+      <c r="D698" s="28"/>
     </row>
     <row r="699">
-      <c r="D699" s="31"/>
+      <c r="D699" s="28"/>
     </row>
     <row r="700">
-      <c r="D700" s="31"/>
+      <c r="D700" s="28"/>
     </row>
     <row r="701">
-      <c r="D701" s="31"/>
+      <c r="D701" s="28"/>
     </row>
     <row r="702">
-      <c r="D702" s="31"/>
+      <c r="D702" s="28"/>
     </row>
     <row r="703">
-      <c r="D703" s="31"/>
+      <c r="D703" s="28"/>
     </row>
     <row r="704">
-      <c r="D704" s="31"/>
+      <c r="D704" s="28"/>
     </row>
     <row r="705">
-      <c r="D705" s="31"/>
+      <c r="D705" s="28"/>
     </row>
     <row r="706">
-      <c r="D706" s="31"/>
+      <c r="D706" s="28"/>
     </row>
     <row r="707">
-      <c r="D707" s="31"/>
+      <c r="D707" s="28"/>
     </row>
     <row r="708">
-      <c r="D708" s="31"/>
+      <c r="D708" s="28"/>
     </row>
     <row r="709">
-      <c r="D709" s="31"/>
+      <c r="D709" s="28"/>
     </row>
     <row r="710">
-      <c r="D710" s="31"/>
+      <c r="D710" s="28"/>
     </row>
     <row r="711">
-      <c r="D711" s="31"/>
+      <c r="D711" s="28"/>
     </row>
     <row r="712">
-      <c r="D712" s="31"/>
+      <c r="D712" s="28"/>
     </row>
     <row r="713">
-      <c r="D713" s="31"/>
+      <c r="D713" s="28"/>
     </row>
     <row r="714">
-      <c r="D714" s="31"/>
+      <c r="D714" s="28"/>
     </row>
     <row r="715">
-      <c r="D715" s="31"/>
+      <c r="D715" s="28"/>
     </row>
     <row r="716">
-      <c r="D716" s="31"/>
+      <c r="D716" s="28"/>
     </row>
     <row r="717">
-      <c r="D717" s="31"/>
+      <c r="D717" s="28"/>
     </row>
     <row r="718">
-      <c r="D718" s="31"/>
+      <c r="D718" s="28"/>
     </row>
     <row r="719">
-      <c r="D719" s="31"/>
+      <c r="D719" s="28"/>
     </row>
     <row r="720">
-      <c r="D720" s="31"/>
+      <c r="D720" s="28"/>
     </row>
     <row r="721">
-      <c r="D721" s="31"/>
+      <c r="D721" s="28"/>
     </row>
     <row r="722">
-      <c r="D722" s="31"/>
+      <c r="D722" s="28"/>
     </row>
     <row r="723">
-      <c r="D723" s="31"/>
+      <c r="D723" s="28"/>
     </row>
     <row r="724">
-      <c r="D724" s="31"/>
+      <c r="D724" s="28"/>
     </row>
     <row r="725">
-      <c r="D725" s="31"/>
+      <c r="D725" s="28"/>
     </row>
     <row r="726">
-      <c r="D726" s="31"/>
+      <c r="D726" s="28"/>
     </row>
     <row r="727">
-      <c r="D727" s="31"/>
+      <c r="D727" s="28"/>
     </row>
     <row r="728">
-      <c r="D728" s="31"/>
+      <c r="D728" s="28"/>
     </row>
     <row r="729">
-      <c r="D729" s="31"/>
+      <c r="D729" s="28"/>
     </row>
     <row r="730">
-      <c r="D730" s="31"/>
+      <c r="D730" s="28"/>
     </row>
     <row r="731">
-      <c r="D731" s="31"/>
+      <c r="D731" s="28"/>
     </row>
     <row r="732">
-      <c r="D732" s="31"/>
+      <c r="D732" s="28"/>
     </row>
     <row r="733">
-      <c r="D733" s="31"/>
+      <c r="D733" s="28"/>
     </row>
     <row r="734">
-      <c r="D734" s="31"/>
+      <c r="D734" s="28"/>
     </row>
     <row r="735">
-      <c r="D735" s="31"/>
+      <c r="D735" s="28"/>
     </row>
     <row r="736">
-      <c r="D736" s="31"/>
+      <c r="D736" s="28"/>
     </row>
     <row r="737">
-      <c r="D737" s="31"/>
+      <c r="D737" s="28"/>
     </row>
     <row r="738">
-      <c r="D738" s="31"/>
+      <c r="D738" s="28"/>
     </row>
     <row r="739">
-      <c r="D739" s="31"/>
+      <c r="D739" s="28"/>
     </row>
     <row r="740">
-      <c r="D740" s="31"/>
+      <c r="D740" s="28"/>
     </row>
     <row r="741">
-      <c r="D741" s="31"/>
+      <c r="D741" s="28"/>
     </row>
     <row r="742">
-      <c r="D742" s="31"/>
+      <c r="D742" s="28"/>
     </row>
     <row r="743">
-      <c r="D743" s="31"/>
+      <c r="D743" s="28"/>
     </row>
     <row r="744">
-      <c r="D744" s="31"/>
+      <c r="D744" s="28"/>
     </row>
     <row r="745">
-      <c r="D745" s="31"/>
+      <c r="D745" s="28"/>
     </row>
     <row r="746">
-      <c r="D746" s="31"/>
+      <c r="D746" s="28"/>
     </row>
     <row r="747">
-      <c r="D747" s="31"/>
+      <c r="D747" s="28"/>
     </row>
     <row r="748">
-      <c r="D748" s="31"/>
+      <c r="D748" s="28"/>
     </row>
     <row r="749">
-      <c r="D749" s="31"/>
+      <c r="D749" s="28"/>
     </row>
     <row r="750">
-      <c r="D750" s="31"/>
+      <c r="D750" s="28"/>
     </row>
     <row r="751">
-      <c r="D751" s="31"/>
+      <c r="D751" s="28"/>
     </row>
     <row r="752">
-      <c r="D752" s="31"/>
+      <c r="D752" s="28"/>
     </row>
     <row r="753">
-      <c r="D753" s="31"/>
+      <c r="D753" s="28"/>
     </row>
     <row r="754">
-      <c r="D754" s="31"/>
+      <c r="D754" s="28"/>
     </row>
     <row r="755">
-      <c r="D755" s="31"/>
+      <c r="D755" s="28"/>
     </row>
     <row r="756">
-      <c r="D756" s="31"/>
+      <c r="D756" s="28"/>
     </row>
     <row r="757">
-      <c r="D757" s="31"/>
+      <c r="D757" s="28"/>
     </row>
     <row r="758">
-      <c r="D758" s="31"/>
+      <c r="D758" s="28"/>
     </row>
     <row r="759">
-      <c r="D759" s="31"/>
+      <c r="D759" s="28"/>
     </row>
     <row r="760">
-      <c r="D760" s="31"/>
+      <c r="D760" s="28"/>
     </row>
     <row r="761">
-      <c r="D761" s="31"/>
+      <c r="D761" s="28"/>
     </row>
     <row r="762">
-      <c r="D762" s="31"/>
+      <c r="D762" s="28"/>
     </row>
     <row r="763">
-      <c r="D763" s="31"/>
+      <c r="D763" s="28"/>
     </row>
     <row r="764">
-      <c r="D764" s="31"/>
+      <c r="D764" s="28"/>
     </row>
     <row r="765">
-      <c r="D765" s="31"/>
+      <c r="D765" s="28"/>
     </row>
     <row r="766">
-      <c r="D766" s="31"/>
+      <c r="D766" s="28"/>
     </row>
     <row r="767">
-      <c r="D767" s="31"/>
+      <c r="D767" s="28"/>
     </row>
     <row r="768">
-      <c r="D768" s="31"/>
+      <c r="D768" s="28"/>
     </row>
     <row r="769">
-      <c r="D769" s="31"/>
+      <c r="D769" s="28"/>
     </row>
     <row r="770">
-      <c r="D770" s="31"/>
+      <c r="D770" s="28"/>
     </row>
     <row r="771">
-      <c r="D771" s="31"/>
+      <c r="D771" s="28"/>
     </row>
     <row r="772">
-      <c r="D772" s="31"/>
+      <c r="D772" s="28"/>
     </row>
     <row r="773">
-      <c r="D773" s="31"/>
+      <c r="D773" s="28"/>
     </row>
     <row r="774">
-      <c r="D774" s="31"/>
+      <c r="D774" s="28"/>
     </row>
     <row r="775">
-      <c r="D775" s="31"/>
+      <c r="D775" s="28"/>
     </row>
     <row r="776">
-      <c r="D776" s="31"/>
+      <c r="D776" s="28"/>
     </row>
     <row r="777">
-      <c r="D777" s="31"/>
+      <c r="D777" s="28"/>
     </row>
     <row r="778">
-      <c r="D778" s="31"/>
+      <c r="D778" s="28"/>
     </row>
     <row r="779">
-      <c r="D779" s="31"/>
+      <c r="D779" s="28"/>
     </row>
     <row r="780">
-      <c r="D780" s="31"/>
+      <c r="D780" s="28"/>
     </row>
     <row r="781">
-      <c r="D781" s="31"/>
+      <c r="D781" s="28"/>
     </row>
     <row r="782">
-      <c r="D782" s="31"/>
+      <c r="D782" s="28"/>
     </row>
     <row r="783">
-      <c r="D783" s="31"/>
+      <c r="D783" s="28"/>
     </row>
     <row r="784">
-      <c r="D784" s="31"/>
+      <c r="D784" s="28"/>
     </row>
     <row r="785">
-      <c r="D785" s="31"/>
+      <c r="D785" s="28"/>
     </row>
     <row r="786">
-      <c r="D786" s="31"/>
+      <c r="D786" s="28"/>
     </row>
     <row r="787">
-      <c r="D787" s="31"/>
+      <c r="D787" s="28"/>
     </row>
     <row r="788">
-      <c r="D788" s="31"/>
+      <c r="D788" s="28"/>
     </row>
     <row r="789">
-      <c r="D789" s="31"/>
+      <c r="D789" s="28"/>
     </row>
     <row r="790">
-      <c r="D790" s="31"/>
+      <c r="D790" s="28"/>
     </row>
     <row r="791">
-      <c r="D791" s="31"/>
+      <c r="D791" s="28"/>
     </row>
     <row r="792">
-      <c r="D792" s="31"/>
+      <c r="D792" s="28"/>
     </row>
     <row r="793">
-      <c r="D793" s="31"/>
+      <c r="D793" s="28"/>
     </row>
     <row r="794">
-      <c r="D794" s="31"/>
+      <c r="D794" s="28"/>
     </row>
     <row r="795">
-      <c r="D795" s="31"/>
+      <c r="D795" s="28"/>
     </row>
     <row r="796">
-      <c r="D796" s="31"/>
+      <c r="D796" s="28"/>
     </row>
     <row r="797">
-      <c r="D797" s="31"/>
+      <c r="D797" s="28"/>
     </row>
     <row r="798">
-      <c r="D798" s="31"/>
+      <c r="D798" s="28"/>
     </row>
     <row r="799">
-      <c r="D799" s="31"/>
+      <c r="D799" s="28"/>
     </row>
     <row r="800">
-      <c r="D800" s="31"/>
+      <c r="D800" s="28"/>
     </row>
     <row r="801">
-      <c r="D801" s="31"/>
+      <c r="D801" s="28"/>
     </row>
     <row r="802">
-      <c r="D802" s="31"/>
+      <c r="D802" s="28"/>
     </row>
     <row r="803">
-      <c r="D803" s="31"/>
+      <c r="D803" s="28"/>
     </row>
     <row r="804">
-      <c r="D804" s="31"/>
+      <c r="D804" s="28"/>
     </row>
     <row r="805">
-      <c r="D805" s="31"/>
+      <c r="D805" s="28"/>
     </row>
     <row r="806">
-      <c r="D806" s="31"/>
+      <c r="D806" s="28"/>
     </row>
     <row r="807">
-      <c r="D807" s="31"/>
+      <c r="D807" s="28"/>
     </row>
     <row r="808">
-      <c r="D808" s="31"/>
+      <c r="D808" s="28"/>
     </row>
     <row r="809">
-      <c r="D809" s="31"/>
+      <c r="D809" s="28"/>
     </row>
     <row r="810">
-      <c r="D810" s="31"/>
+      <c r="D810" s="28"/>
     </row>
     <row r="811">
-      <c r="D811" s="31"/>
+      <c r="D811" s="28"/>
     </row>
     <row r="812">
-      <c r="D812" s="31"/>
+      <c r="D812" s="28"/>
     </row>
     <row r="813">
-      <c r="D813" s="31"/>
+      <c r="D813" s="28"/>
     </row>
     <row r="814">
-      <c r="D814" s="31"/>
+      <c r="D814" s="28"/>
     </row>
     <row r="815">
-      <c r="D815" s="31"/>
+      <c r="D815" s="28"/>
     </row>
     <row r="816">
-      <c r="D816" s="31"/>
+      <c r="D816" s="28"/>
     </row>
     <row r="817">
-      <c r="D817" s="31"/>
+      <c r="D817" s="28"/>
     </row>
     <row r="818">
-      <c r="D818" s="31"/>
+      <c r="D818" s="28"/>
     </row>
     <row r="819">
-      <c r="D819" s="31"/>
+      <c r="D819" s="28"/>
     </row>
     <row r="820">
-      <c r="D820" s="31"/>
+      <c r="D820" s="28"/>
     </row>
     <row r="821">
-      <c r="D821" s="31"/>
+      <c r="D821" s="28"/>
     </row>
     <row r="822">
-      <c r="D822" s="31"/>
+      <c r="D822" s="28"/>
     </row>
     <row r="823">
-      <c r="D823" s="31"/>
+      <c r="D823" s="28"/>
     </row>
     <row r="824">
-      <c r="D824" s="31"/>
+      <c r="D824" s="28"/>
     </row>
     <row r="825">
-      <c r="D825" s="31"/>
+      <c r="D825" s="28"/>
     </row>
     <row r="826">
-      <c r="D826" s="31"/>
+      <c r="D826" s="28"/>
     </row>
     <row r="827">
-      <c r="D827" s="31"/>
+      <c r="D827" s="28"/>
     </row>
     <row r="828">
-      <c r="D828" s="31"/>
+      <c r="D828" s="28"/>
     </row>
     <row r="829">
-      <c r="D829" s="31"/>
+      <c r="D829" s="28"/>
     </row>
     <row r="830">
-      <c r="D830" s="31"/>
+      <c r="D830" s="28"/>
     </row>
     <row r="831">
-      <c r="D831" s="31"/>
+      <c r="D831" s="28"/>
     </row>
     <row r="832">
-      <c r="D832" s="31"/>
+      <c r="D832" s="28"/>
     </row>
     <row r="833">
-      <c r="D833" s="31"/>
+      <c r="D833" s="28"/>
     </row>
     <row r="834">
-      <c r="D834" s="31"/>
+      <c r="D834" s="28"/>
     </row>
     <row r="835">
-      <c r="D835" s="31"/>
+      <c r="D835" s="28"/>
     </row>
     <row r="836">
-      <c r="D836" s="31"/>
+      <c r="D836" s="28"/>
     </row>
     <row r="837">
-      <c r="D837" s="31"/>
+      <c r="D837" s="28"/>
     </row>
     <row r="838">
-      <c r="D838" s="31"/>
+      <c r="D838" s="28"/>
     </row>
     <row r="839">
-      <c r="D839" s="31"/>
+      <c r="D839" s="28"/>
     </row>
     <row r="840">
-      <c r="D840" s="31"/>
+      <c r="D840" s="28"/>
     </row>
     <row r="841">
-      <c r="D841" s="31"/>
+      <c r="D841" s="28"/>
     </row>
     <row r="842">
-      <c r="D842" s="31"/>
+      <c r="D842" s="28"/>
     </row>
     <row r="843">
-      <c r="D843" s="31"/>
+      <c r="D843" s="28"/>
     </row>
     <row r="844">
-      <c r="D844" s="31"/>
+      <c r="D844" s="28"/>
     </row>
     <row r="845">
-      <c r="D845" s="31"/>
+      <c r="D845" s="28"/>
     </row>
     <row r="846">
-      <c r="D846" s="31"/>
+      <c r="D846" s="28"/>
     </row>
     <row r="847">
-      <c r="D847" s="31"/>
+      <c r="D847" s="28"/>
     </row>
     <row r="848">
-      <c r="D848" s="31"/>
+      <c r="D848" s="28"/>
     </row>
     <row r="849">
-      <c r="D849" s="31"/>
+      <c r="D849" s="28"/>
     </row>
     <row r="850">
-      <c r="D850" s="31"/>
+      <c r="D850" s="28"/>
     </row>
     <row r="851">
-      <c r="D851" s="31"/>
+      <c r="D851" s="28"/>
     </row>
     <row r="852">
-      <c r="D852" s="31"/>
+      <c r="D852" s="28"/>
     </row>
     <row r="853">
-      <c r="D853" s="31"/>
+      <c r="D853" s="28"/>
     </row>
     <row r="854">
-      <c r="D854" s="31"/>
+      <c r="D854" s="28"/>
     </row>
     <row r="855">
-      <c r="D855" s="31"/>
+      <c r="D855" s="28"/>
     </row>
     <row r="856">
-      <c r="D856" s="31"/>
+      <c r="D856" s="28"/>
     </row>
     <row r="857">
-      <c r="D857" s="31"/>
+      <c r="D857" s="28"/>
     </row>
     <row r="858">
-      <c r="D858" s="31"/>
+      <c r="D858" s="28"/>
     </row>
     <row r="859">
-      <c r="D859" s="31"/>
+      <c r="D859" s="28"/>
     </row>
     <row r="860">
-      <c r="D860" s="31"/>
+      <c r="D860" s="28"/>
     </row>
     <row r="861">
-      <c r="D861" s="31"/>
+      <c r="D861" s="28"/>
     </row>
     <row r="862">
-      <c r="D862" s="31"/>
+      <c r="D862" s="28"/>
     </row>
     <row r="863">
-      <c r="D863" s="31"/>
+      <c r="D863" s="28"/>
     </row>
     <row r="864">
-      <c r="D864" s="31"/>
+      <c r="D864" s="28"/>
     </row>
     <row r="865">
-      <c r="D865" s="31"/>
+      <c r="D865" s="28"/>
     </row>
     <row r="866">
-      <c r="D866" s="31"/>
+      <c r="D866" s="28"/>
     </row>
     <row r="867">
-      <c r="D867" s="31"/>
+      <c r="D867" s="28"/>
     </row>
     <row r="868">
-      <c r="D868" s="31"/>
+      <c r="D868" s="28"/>
     </row>
     <row r="869">
-      <c r="D869" s="31"/>
+      <c r="D869" s="28"/>
     </row>
     <row r="870">
-      <c r="D870" s="31"/>
+      <c r="D870" s="28"/>
     </row>
     <row r="871">
-      <c r="D871" s="31"/>
+      <c r="D871" s="28"/>
     </row>
     <row r="872">
-      <c r="D872" s="31"/>
+      <c r="D872" s="28"/>
     </row>
     <row r="873">
-      <c r="D873" s="31"/>
+      <c r="D873" s="28"/>
     </row>
     <row r="874">
-      <c r="D874" s="31"/>
+      <c r="D874" s="28"/>
     </row>
     <row r="875">
-      <c r="D875" s="31"/>
+      <c r="D875" s="28"/>
     </row>
     <row r="876">
-      <c r="D876" s="31"/>
+      <c r="D876" s="28"/>
     </row>
     <row r="877">
-      <c r="D877" s="31"/>
+      <c r="D877" s="28"/>
     </row>
     <row r="878">
-      <c r="D878" s="31"/>
+      <c r="D878" s="28"/>
     </row>
     <row r="879">
-      <c r="D879" s="31"/>
+      <c r="D879" s="28"/>
     </row>
     <row r="880">
-      <c r="D880" s="31"/>
+      <c r="D880" s="28"/>
     </row>
     <row r="881">
-      <c r="D881" s="31"/>
+      <c r="D881" s="28"/>
     </row>
     <row r="882">
-      <c r="D882" s="31"/>
+      <c r="D882" s="28"/>
     </row>
     <row r="883">
-      <c r="D883" s="31"/>
+      <c r="D883" s="28"/>
     </row>
     <row r="884">
-      <c r="D884" s="31"/>
+      <c r="D884" s="28"/>
     </row>
     <row r="885">
-      <c r="D885" s="31"/>
+      <c r="D885" s="28"/>
     </row>
     <row r="886">
-      <c r="D886" s="31"/>
+      <c r="D886" s="28"/>
     </row>
     <row r="887">
-      <c r="D887" s="31"/>
+      <c r="D887" s="28"/>
     </row>
     <row r="888">
-      <c r="D888" s="31"/>
+      <c r="D888" s="28"/>
     </row>
     <row r="889">
-      <c r="D889" s="31"/>
+      <c r="D889" s="28"/>
     </row>
     <row r="890">
-      <c r="D890" s="31"/>
+      <c r="D890" s="28"/>
     </row>
     <row r="891">
-      <c r="D891" s="31"/>
+      <c r="D891" s="28"/>
     </row>
     <row r="892">
-      <c r="D892" s="31"/>
+      <c r="D892" s="28"/>
     </row>
     <row r="893">
-      <c r="D893" s="31"/>
+      <c r="D893" s="28"/>
     </row>
     <row r="894">
-      <c r="D894" s="31"/>
+      <c r="D894" s="28"/>
     </row>
     <row r="895">
-      <c r="D895" s="31"/>
+      <c r="D895" s="28"/>
     </row>
     <row r="896">
-      <c r="D896" s="31"/>
+      <c r="D896" s="28"/>
     </row>
     <row r="897">
-      <c r="D897" s="31"/>
+      <c r="D897" s="28"/>
     </row>
     <row r="898">
-      <c r="D898" s="31"/>
+      <c r="D898" s="28"/>
     </row>
     <row r="899">
-      <c r="D899" s="31"/>
+      <c r="D899" s="28"/>
     </row>
     <row r="900">
-      <c r="D900" s="31"/>
+      <c r="D900" s="28"/>
     </row>
     <row r="901">
-      <c r="D901" s="31"/>
+      <c r="D901" s="28"/>
     </row>
     <row r="902">
-      <c r="D902" s="31"/>
+      <c r="D902" s="28"/>
     </row>
     <row r="903">
-      <c r="D903" s="31"/>
+      <c r="D903" s="28"/>
     </row>
     <row r="904">
-      <c r="D904" s="31"/>
+      <c r="D904" s="28"/>
     </row>
     <row r="905">
-      <c r="D905" s="31"/>
+      <c r="D905" s="28"/>
     </row>
     <row r="906">
-      <c r="D906" s="31"/>
+      <c r="D906" s="28"/>
     </row>
     <row r="907">
-      <c r="D907" s="31"/>
+      <c r="D907" s="28"/>
     </row>
     <row r="908">
-      <c r="D908" s="31"/>
+      <c r="D908" s="28"/>
     </row>
     <row r="909">
-      <c r="D909" s="31"/>
+      <c r="D909" s="28"/>
     </row>
     <row r="910">
-      <c r="D910" s="31"/>
+      <c r="D910" s="28"/>
     </row>
     <row r="911">
-      <c r="D911" s="31"/>
+      <c r="D911" s="28"/>
     </row>
     <row r="912">
-      <c r="D912" s="31"/>
+      <c r="D912" s="28"/>
     </row>
     <row r="913">
-      <c r="D913" s="31"/>
+      <c r="D913" s="28"/>
     </row>
     <row r="914">
-      <c r="D914" s="31"/>
+      <c r="D914" s="28"/>
     </row>
     <row r="915">
-      <c r="D915" s="31"/>
+      <c r="D915" s="28"/>
     </row>
     <row r="916">
-      <c r="D916" s="31"/>
+      <c r="D916" s="28"/>
     </row>
     <row r="917">
-      <c r="D917" s="31"/>
+      <c r="D917" s="28"/>
     </row>
     <row r="918">
-      <c r="D918" s="31"/>
+      <c r="D918" s="28"/>
     </row>
     <row r="919">
-      <c r="D919" s="31"/>
+      <c r="D919" s="28"/>
     </row>
     <row r="920">
-      <c r="D920" s="31"/>
+      <c r="D920" s="28"/>
     </row>
     <row r="921">
-      <c r="D921" s="31"/>
+      <c r="D921" s="28"/>
     </row>
     <row r="922">
-      <c r="D922" s="31"/>
+      <c r="D922" s="28"/>
     </row>
     <row r="923">
-      <c r="D923" s="31"/>
+      <c r="D923" s="28"/>
     </row>
     <row r="924">
-      <c r="D924" s="31"/>
+      <c r="D924" s="28"/>
     </row>
     <row r="925">
-      <c r="D925" s="31"/>
+      <c r="D925" s="28"/>
     </row>
     <row r="926">
-      <c r="D926" s="31"/>
+      <c r="D926" s="28"/>
     </row>
     <row r="927">
-      <c r="D927" s="31"/>
+      <c r="D927" s="28"/>
     </row>
     <row r="928">
-      <c r="D928" s="31"/>
+      <c r="D928" s="28"/>
     </row>
     <row r="929">
-      <c r="D929" s="31"/>
+      <c r="D929" s="28"/>
     </row>
     <row r="930">
-      <c r="D930" s="31"/>
+      <c r="D930" s="28"/>
     </row>
     <row r="931">
-      <c r="D931" s="31"/>
+      <c r="D931" s="28"/>
     </row>
     <row r="932">
-      <c r="D932" s="31"/>
+      <c r="D932" s="28"/>
     </row>
     <row r="933">
-      <c r="D933" s="31"/>
+      <c r="D933" s="28"/>
     </row>
     <row r="934">
-      <c r="D934" s="31"/>
+      <c r="D934" s="28"/>
     </row>
     <row r="935">
-      <c r="D935" s="31"/>
+      <c r="D935" s="28"/>
     </row>
     <row r="936">
-      <c r="D936" s="31"/>
+      <c r="D936" s="28"/>
     </row>
     <row r="937">
-      <c r="D937" s="31"/>
+      <c r="D937" s="28"/>
     </row>
     <row r="938">
-      <c r="D938" s="31"/>
+      <c r="D938" s="28"/>
     </row>
     <row r="939">
-      <c r="D939" s="31"/>
+      <c r="D939" s="28"/>
     </row>
     <row r="940">
-      <c r="D940" s="31"/>
+      <c r="D940" s="28"/>
     </row>
     <row r="941">
-      <c r="D941" s="31"/>
+      <c r="D941" s="28"/>
     </row>
     <row r="942">
-      <c r="D942" s="31"/>
+      <c r="D942" s="28"/>
     </row>
     <row r="943">
-      <c r="D943" s="31"/>
+      <c r="D943" s="28"/>
     </row>
     <row r="944">
-      <c r="D944" s="31"/>
+      <c r="D944" s="28"/>
     </row>
     <row r="945">
-      <c r="D945" s="31"/>
+      <c r="D945" s="28"/>
     </row>
     <row r="946">
-      <c r="D946" s="31"/>
+      <c r="D946" s="28"/>
     </row>
     <row r="947">
-      <c r="D947" s="31"/>
+      <c r="D947" s="28"/>
     </row>
     <row r="948">
-      <c r="D948" s="31"/>
+      <c r="D948" s="28"/>
     </row>
     <row r="949">
-      <c r="D949" s="31"/>
+      <c r="D949" s="28"/>
     </row>
     <row r="950">
-      <c r="D950" s="31"/>
+      <c r="D950" s="28"/>
     </row>
     <row r="951">
-      <c r="D951" s="31"/>
+      <c r="D951" s="28"/>
     </row>
     <row r="952">
-      <c r="D952" s="31"/>
+      <c r="D952" s="28"/>
     </row>
     <row r="953">
-      <c r="D953" s="31"/>
+      <c r="D953" s="28"/>
     </row>
     <row r="954">
-      <c r="D954" s="31"/>
+      <c r="D954" s="28"/>
     </row>
     <row r="955">
-      <c r="D955" s="31"/>
+      <c r="D955" s="28"/>
     </row>
     <row r="956">
-      <c r="D956" s="31"/>
+      <c r="D956" s="28"/>
     </row>
     <row r="957">
-      <c r="D957" s="31"/>
+      <c r="D957" s="28"/>
     </row>
     <row r="958">
-      <c r="D958" s="31"/>
+      <c r="D958" s="28"/>
     </row>
     <row r="959">
-      <c r="D959" s="31"/>
+      <c r="D959" s="28"/>
     </row>
     <row r="960">
-      <c r="D960" s="31"/>
+      <c r="D960" s="28"/>
     </row>
     <row r="961">
-      <c r="D961" s="31"/>
+      <c r="D961" s="28"/>
     </row>
     <row r="962">
-      <c r="D962" s="31"/>
+      <c r="D962" s="28"/>
     </row>
     <row r="963">
-      <c r="D963" s="31"/>
+      <c r="D963" s="28"/>
     </row>
     <row r="964">
-      <c r="D964" s="31"/>
+      <c r="D964" s="28"/>
     </row>
     <row r="965">
-      <c r="D965" s="31"/>
+      <c r="D965" s="28"/>
     </row>
     <row r="966">
-      <c r="D966" s="31"/>
+      <c r="D966" s="28"/>
     </row>
     <row r="967">
-      <c r="D967" s="31"/>
+      <c r="D967" s="28"/>
     </row>
     <row r="968">
-      <c r="D968" s="31"/>
+      <c r="D968" s="28"/>
     </row>
     <row r="969">
-      <c r="D969" s="31"/>
+      <c r="D969" s="28"/>
     </row>
     <row r="970">
-      <c r="D970" s="31"/>
+      <c r="D970" s="28"/>
     </row>
     <row r="971">
-      <c r="D971" s="31"/>
+      <c r="D971" s="28"/>
     </row>
     <row r="972">
-      <c r="D972" s="31"/>
+      <c r="D972" s="28"/>
     </row>
     <row r="973">
-      <c r="D973" s="31"/>
+      <c r="D973" s="28"/>
     </row>
     <row r="974">
-      <c r="D974" s="31"/>
+      <c r="D974" s="28"/>
     </row>
     <row r="975">
-      <c r="D975" s="31"/>
+      <c r="D975" s="28"/>
     </row>
     <row r="976">
-      <c r="D976" s="31"/>
+      <c r="D976" s="28"/>
     </row>
     <row r="977">
-      <c r="D977" s="31"/>
+      <c r="D977" s="28"/>
     </row>
     <row r="978">
-      <c r="D978" s="31"/>
+      <c r="D978" s="28"/>
     </row>
     <row r="979">
-      <c r="D979" s="31"/>
+      <c r="D979" s="28"/>
     </row>
     <row r="980">
-      <c r="D980" s="31"/>
+      <c r="D980" s="28"/>
     </row>
     <row r="981">
-      <c r="D981" s="31"/>
+      <c r="D981" s="28"/>
     </row>
     <row r="982">
-      <c r="D982" s="31"/>
+      <c r="D982" s="28"/>
     </row>
     <row r="983">
-      <c r="D983" s="31"/>
+      <c r="D983" s="28"/>
     </row>
     <row r="984">
-      <c r="D984" s="31"/>
+      <c r="D984" s="28"/>
     </row>
     <row r="985">
-      <c r="D985" s="31"/>
+      <c r="D985" s="28"/>
     </row>
     <row r="986">
-      <c r="D986" s="31"/>
+      <c r="D986" s="28"/>
     </row>
     <row r="987">
-      <c r="D987" s="31"/>
-    </row>
-    <row r="988">
-      <c r="D988" s="31"/>
-    </row>
-    <row r="989">
-      <c r="D989" s="31"/>
-    </row>
-    <row r="990">
-      <c r="D990" s="31"/>
-    </row>
-    <row r="991">
-      <c r="D991" s="31"/>
-    </row>
-    <row r="992">
-      <c r="D992" s="31"/>
-    </row>
-    <row r="993">
-      <c r="D993" s="31"/>
-    </row>
-    <row r="994">
-      <c r="D994" s="31"/>
-    </row>
-    <row r="995">
-      <c r="D995" s="31"/>
-    </row>
-    <row r="996">
-      <c r="D996" s="31"/>
-    </row>
-    <row r="997">
-      <c r="D997" s="31"/>
-    </row>
-    <row r="998">
-      <c r="D998" s="31"/>
+      <c r="D987" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D13"/>
-    <hyperlink r:id="rId2" ref="D14"/>
-    <hyperlink r:id="rId3" ref="D15"/>
-    <hyperlink r:id="rId4" ref="D16"/>
-    <hyperlink r:id="rId5" ref="D17"/>
-    <hyperlink r:id="rId6" ref="D18"/>
-    <hyperlink r:id="rId7" ref="D19"/>
-    <hyperlink r:id="rId8" ref="D20"/>
-    <hyperlink r:id="rId9" ref="D21"/>
-    <hyperlink r:id="rId10" ref="D22"/>
-    <hyperlink r:id="rId11" ref="D23"/>
-    <hyperlink r:id="rId12" ref="D24"/>
-    <hyperlink r:id="rId13" ref="D25"/>
-    <hyperlink r:id="rId14" ref="D26"/>
-    <hyperlink r:id="rId15" ref="D27"/>
-    <hyperlink r:id="rId16" ref="D28"/>
-    <hyperlink r:id="rId17" ref="D29"/>
-    <hyperlink r:id="rId18" ref="D30"/>
-    <hyperlink r:id="rId19" ref="D31"/>
-    <hyperlink r:id="rId20" ref="D32"/>
-    <hyperlink r:id="rId21" ref="D33"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink r:id="rId4" ref="D5"/>
+    <hyperlink r:id="rId5" ref="D6"/>
+    <hyperlink r:id="rId6" ref="D7"/>
+    <hyperlink r:id="rId7" ref="D8"/>
+    <hyperlink r:id="rId8" ref="D9"/>
+    <hyperlink r:id="rId9" ref="D10"/>
+    <hyperlink r:id="rId10" ref="D11"/>
+    <hyperlink r:id="rId11" ref="D12"/>
+    <hyperlink r:id="rId12" ref="D13"/>
+    <hyperlink r:id="rId13" ref="D14"/>
+    <hyperlink r:id="rId14" ref="D15"/>
+    <hyperlink r:id="rId15" ref="D16"/>
+    <hyperlink r:id="rId16" ref="D17"/>
+    <hyperlink r:id="rId17" ref="D18"/>
+    <hyperlink r:id="rId18" ref="D19"/>
+    <hyperlink r:id="rId19" ref="D20"/>
+    <hyperlink r:id="rId20" ref="D21"/>
+    <hyperlink r:id="rId21" ref="D22"/>
+    <hyperlink r:id="rId22" ref="D23"/>
+    <hyperlink r:id="rId23" ref="D24"/>
+    <hyperlink r:id="rId24" ref="D25"/>
+    <hyperlink r:id="rId25" ref="D26"/>
+    <hyperlink r:id="rId26" ref="D27"/>
+    <hyperlink r:id="rId27" ref="D28"/>
+    <hyperlink r:id="rId28" ref="D29"/>
   </hyperlinks>
-  <drawing r:id="rId22"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>
--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
   <si>
     <t>Opponent</t>
   </si>
@@ -68,6 +68,21 @@
   </si>
   <si>
     <t>AOS</t>
+  </si>
+  <si>
+    <t>Granby</t>
+  </si>
+  <si>
+    <t>Sam Olivastro</t>
+  </si>
+  <si>
+    <t>Bryce McMahon</t>
+  </si>
+  <si>
+    <t>Griffin Kiniry</t>
+  </si>
+  <si>
+    <t>JJ Conant</t>
   </si>
 </sst>
 </file>
@@ -1232,37 +1247,290 @@
       </c>
     </row>
     <row r="30">
-      <c r="D30" s="28"/>
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C30" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0.286</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="25">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="31">
-      <c r="D31" s="28"/>
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0.106</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="32">
-      <c r="D32" s="28"/>
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.667</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="D33" s="28"/>
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.167</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="D34" s="28"/>
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
-      <c r="D35" s="28"/>
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.563</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="36">
-      <c r="D36" s="28"/>
+      <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.571</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.335</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.29</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="37">
-      <c r="D37" s="28"/>
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0.333</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="D38" s="28"/>
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="39">
-      <c r="D39" s="28"/>
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.333</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40">
-      <c r="D40" s="28"/>
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="D41" s="28"/>
@@ -4135,7 +4403,18 @@
     <hyperlink r:id="rId26" ref="D27"/>
     <hyperlink r:id="rId27" ref="D28"/>
     <hyperlink r:id="rId28" ref="D29"/>
+    <hyperlink r:id="rId29" ref="D30"/>
+    <hyperlink r:id="rId30" ref="D31"/>
+    <hyperlink r:id="rId31" ref="D32"/>
+    <hyperlink r:id="rId32" ref="D33"/>
+    <hyperlink r:id="rId33" ref="D34"/>
+    <hyperlink r:id="rId34" ref="D35"/>
+    <hyperlink r:id="rId35" ref="D36"/>
+    <hyperlink r:id="rId36" ref="D37"/>
+    <hyperlink r:id="rId37" ref="D38"/>
+    <hyperlink r:id="rId38" ref="D39"/>
+    <hyperlink r:id="rId39" ref="D40"/>
   </hyperlinks>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId40"/>
 </worksheet>
 </file>
--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D58BCBF-C82E-44EB-9E65-E508AE89C78D}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF0373E-85F3-4531-80AF-6669E97B8F85}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="29">
   <si>
     <t>Opponent</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>Simsbury</t>
+  </si>
+  <si>
+    <t>Bristol Central</t>
+  </si>
+  <si>
+    <t>Angelo Maccarone</t>
+  </si>
+  <si>
+    <t>Ethan Shternfeld</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -406,6 +418,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -607,15 +623,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P987"/>
+  <dimension ref="A1:Q987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28:Q103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1">
+    <row r="17" spans="1:17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1057,7 +1073,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1099,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1">
+    <row r="19" spans="1:17" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1109,7 +1125,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1">
+    <row r="20" spans="1:17" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1151,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1">
+    <row r="21" spans="1:17" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1161,7 +1177,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1">
+    <row r="22" spans="1:17" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1187,7 +1203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1">
+    <row r="23" spans="1:17" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1213,7 +1229,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1239,7 +1255,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1265,7 +1281,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1">
+    <row r="26" spans="1:17" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1291,7 +1307,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1">
+    <row r="27" spans="1:17" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1333,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1342,8 +1358,15 @@
       <c r="H28" s="9">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -1368,8 +1391,15 @@
       <c r="H29" s="27">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1427,12 @@
       <c r="K30" s="29"/>
       <c r="L30" s="30"/>
       <c r="M30" s="31"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N30" s="38"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -1426,8 +1460,12 @@
       <c r="K31" s="29"/>
       <c r="L31" s="30"/>
       <c r="M31" s="31"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N31" s="38"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,8 +1493,12 @@
       <c r="K32" s="29"/>
       <c r="L32" s="30"/>
       <c r="M32" s="31"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
+      <c r="N32" s="38"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+    </row>
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -1484,8 +1526,12 @@
       <c r="K33" s="29"/>
       <c r="L33" s="30"/>
       <c r="M33" s="31"/>
-    </row>
-    <row r="34" spans="1:13" ht="13" thickBot="1">
+      <c r="N33" s="38"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+    </row>
+    <row r="34" spans="1:17" ht="13" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -1513,8 +1559,12 @@
       <c r="K34" s="29"/>
       <c r="L34" s="30"/>
       <c r="M34" s="31"/>
-    </row>
-    <row r="35" spans="1:13" ht="13" thickBot="1">
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+    </row>
+    <row r="35" spans="1:17" ht="13" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
@@ -1542,8 +1592,12 @@
       <c r="K35" s="29"/>
       <c r="L35" s="30"/>
       <c r="M35" s="31"/>
-    </row>
-    <row r="36" spans="1:13" ht="12.5">
+      <c r="N35" s="38"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+    </row>
+    <row r="36" spans="1:17" ht="13" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1568,11 +1622,15 @@
       <c r="H36" s="9">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="34"/>
-    </row>
-    <row r="37" spans="1:13" ht="17.5">
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17" ht="13" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,9 +1655,15 @@
       <c r="H37" s="9">
         <v>3</v>
       </c>
-      <c r="K37" s="35"/>
-    </row>
-    <row r="38" spans="1:13" ht="13.5" thickBot="1">
+      <c r="K37" s="29"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+    </row>
+    <row r="38" spans="1:17" ht="13" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -1624,11 +1688,15 @@
       <c r="H38" s="9">
         <v>3.25</v>
       </c>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="37"/>
-    </row>
-    <row r="39" spans="1:13" ht="13" thickBot="1">
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+    </row>
+    <row r="39" spans="1:17" ht="13" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -1656,8 +1724,12 @@
       <c r="K39" s="29"/>
       <c r="L39" s="30"/>
       <c r="M39" s="31"/>
-    </row>
-    <row r="40" spans="1:13" ht="13" thickBot="1">
+      <c r="N39" s="38"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+    </row>
+    <row r="40" spans="1:17" ht="13" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -1685,8 +1757,12 @@
       <c r="K40" s="29"/>
       <c r="L40" s="30"/>
       <c r="M40" s="31"/>
-    </row>
-    <row r="41" spans="1:13" ht="13" thickBot="1">
+      <c r="N40" s="31"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+    </row>
+    <row r="41" spans="1:17" ht="13" thickBot="1">
       <c r="A41" s="28" t="s">
         <v>24</v>
       </c>
@@ -1711,11 +1787,15 @@
       <c r="H41" s="31">
         <v>1.08</v>
       </c>
-      <c r="K41" s="29"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="31"/>
-    </row>
-    <row r="42" spans="1:13" ht="13" thickBot="1">
+      <c r="K41" s="32"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+    </row>
+    <row r="42" spans="1:17" ht="18" thickBot="1">
       <c r="A42" s="28" t="s">
         <v>24</v>
       </c>
@@ -1740,11 +1820,9 @@
       <c r="H42" s="31">
         <v>1.83</v>
       </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="31"/>
-    </row>
-    <row r="43" spans="1:13" ht="13" thickBot="1">
+      <c r="K42" s="35"/>
+    </row>
+    <row r="43" spans="1:17" ht="13.5" thickBot="1">
       <c r="A43" s="28" t="s">
         <v>24</v>
       </c>
@@ -1769,11 +1847,11 @@
       <c r="H43" s="31">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="31"/>
-    </row>
-    <row r="44" spans="1:13" ht="13" thickBot="1">
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="37"/>
+    </row>
+    <row r="44" spans="1:17" ht="13" thickBot="1">
       <c r="A44" s="28" t="s">
         <v>24</v>
       </c>
@@ -1802,7 +1880,7 @@
       <c r="L44" s="30"/>
       <c r="M44" s="31"/>
     </row>
-    <row r="45" spans="1:13" ht="13" thickBot="1">
+    <row r="45" spans="1:17" ht="13" thickBot="1">
       <c r="A45" s="28" t="s">
         <v>24</v>
       </c>
@@ -1827,11 +1905,11 @@
       <c r="H45" s="31">
         <v>1.56</v>
       </c>
-      <c r="K45" s="32"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="34"/>
-    </row>
-    <row r="46" spans="1:13" ht="18" thickBot="1">
+      <c r="K45" s="29"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="31"/>
+    </row>
+    <row r="46" spans="1:17" ht="13" thickBot="1">
       <c r="A46" s="28" t="s">
         <v>24</v>
       </c>
@@ -1856,9 +1934,11 @@
       <c r="H46" s="31">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K46" s="35"/>
-    </row>
-    <row r="47" spans="1:13" ht="13.5" thickBot="1">
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="31"/>
+    </row>
+    <row r="47" spans="1:17" ht="13" thickBot="1">
       <c r="A47" s="28" t="s">
         <v>24</v>
       </c>
@@ -1883,284 +1963,699 @@
       <c r="H47" s="34">
         <v>2</v>
       </c>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="37"/>
-    </row>
-    <row r="48" spans="1:13" ht="13" thickBot="1">
-      <c r="D48" s="1"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="31"/>
+    </row>
+    <row r="48" spans="1:17" ht="13" thickBot="1">
+      <c r="A48" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="28">
+        <v>7</v>
+      </c>
+      <c r="C48" s="29">
+        <v>10</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="F48" s="39">
+        <v>0</v>
+      </c>
+      <c r="G48" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="H48" s="31">
+        <v>1.36</v>
+      </c>
       <c r="K48" s="29"/>
       <c r="L48" s="30"/>
       <c r="M48" s="31"/>
     </row>
-    <row r="49" spans="4:13" ht="13" thickBot="1">
-      <c r="D49" s="1"/>
+    <row r="49" spans="1:13" ht="13" thickBot="1">
+      <c r="A49" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="28">
+        <v>7</v>
+      </c>
+      <c r="C49" s="29">
+        <v>1</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="38">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F49" s="39">
+        <v>0</v>
+      </c>
+      <c r="G49" s="31">
+        <v>0</v>
+      </c>
+      <c r="H49" s="31">
+        <v>1</v>
+      </c>
       <c r="K49" s="29"/>
       <c r="L49" s="30"/>
       <c r="M49" s="31"/>
     </row>
-    <row r="50" spans="4:13" ht="13" thickBot="1">
-      <c r="D50" s="1"/>
+    <row r="50" spans="1:13" ht="13" thickBot="1">
+      <c r="A50" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="28">
+        <v>7</v>
+      </c>
+      <c r="C50" s="29">
+        <v>13</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="38">
+        <v>1</v>
+      </c>
+      <c r="F50" s="39">
+        <v>0</v>
+      </c>
+      <c r="G50" s="31">
+        <v>0</v>
+      </c>
+      <c r="H50" s="31">
+        <v>2.5</v>
+      </c>
       <c r="K50" s="29"/>
       <c r="L50" s="30"/>
       <c r="M50" s="31"/>
     </row>
-    <row r="51" spans="4:13" ht="13" thickBot="1">
-      <c r="D51" s="1"/>
+    <row r="51" spans="1:13" ht="13" thickBot="1">
+      <c r="A51" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="28">
+        <v>7</v>
+      </c>
+      <c r="C51" s="29">
+        <v>11</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="F51" s="39">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="G51" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="H51" s="31">
+        <v>2.8</v>
+      </c>
       <c r="K51" s="29"/>
       <c r="L51" s="30"/>
       <c r="M51" s="31"/>
     </row>
-    <row r="52" spans="4:13" ht="13" thickBot="1">
-      <c r="D52" s="1"/>
+    <row r="52" spans="1:13" ht="13" thickBot="1">
+      <c r="A52" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="28">
+        <v>7</v>
+      </c>
+      <c r="C52" s="29">
+        <v>33</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="38">
+        <v>0</v>
+      </c>
+      <c r="F52" s="39">
+        <v>0</v>
+      </c>
+      <c r="G52" s="31">
+        <v>0</v>
+      </c>
+      <c r="H52" s="31">
+        <v>0</v>
+      </c>
       <c r="K52" s="29"/>
       <c r="L52" s="30"/>
       <c r="M52" s="31"/>
     </row>
-    <row r="53" spans="4:13" ht="13" thickBot="1">
-      <c r="D53" s="1"/>
+    <row r="53" spans="1:13" ht="13" thickBot="1">
+      <c r="A53" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="28">
+        <v>7</v>
+      </c>
+      <c r="C53" s="29">
+        <v>15</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="31">
+        <v>0</v>
+      </c>
+      <c r="H53" s="31">
+        <v>2</v>
+      </c>
       <c r="K53" s="29"/>
       <c r="L53" s="30"/>
       <c r="M53" s="31"/>
     </row>
-    <row r="54" spans="4:13" ht="12.5">
-      <c r="D54" s="1"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="34"/>
-    </row>
-    <row r="55" spans="4:13" ht="17.5">
-      <c r="D55" s="1"/>
-      <c r="K55" s="35"/>
-    </row>
-    <row r="56" spans="4:13" ht="13.5" thickBot="1">
-      <c r="D56" s="1"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="37"/>
-    </row>
-    <row r="57" spans="4:13" ht="13" thickBot="1">
-      <c r="D57" s="1"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="31"/>
-    </row>
-    <row r="58" spans="4:13" ht="13" thickBot="1">
-      <c r="D58" s="1"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="31"/>
-    </row>
-    <row r="59" spans="4:13" ht="13" thickBot="1">
-      <c r="D59" s="1"/>
+    <row r="54" spans="1:13" ht="13" thickBot="1">
+      <c r="A54" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="28">
+        <v>7</v>
+      </c>
+      <c r="C54" s="29">
+        <v>3</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="39">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G54" s="31">
+        <v>0.22</v>
+      </c>
+      <c r="H54" s="31">
+        <v>1.17</v>
+      </c>
+      <c r="K54" s="29"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="31"/>
+    </row>
+    <row r="55" spans="1:13" ht="13" thickBot="1">
+      <c r="A55" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="28">
+        <v>7</v>
+      </c>
+      <c r="C55" s="29">
+        <v>5</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="39">
+        <v>0.127</v>
+      </c>
+      <c r="G55" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="H55" s="31">
+        <v>1.55</v>
+      </c>
+      <c r="K55" s="29"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="31"/>
+    </row>
+    <row r="56" spans="1:13" ht="13" thickBot="1">
+      <c r="A56" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="28">
+        <v>7</v>
+      </c>
+      <c r="C56" s="29">
+        <v>12</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="38">
+        <v>0</v>
+      </c>
+      <c r="F56" s="39">
+        <v>0</v>
+      </c>
+      <c r="G56" s="31">
+        <v>0</v>
+      </c>
+      <c r="H56" s="31">
+        <v>0</v>
+      </c>
+      <c r="K56" s="32"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="34"/>
+    </row>
+    <row r="57" spans="1:13" ht="18" thickBot="1">
+      <c r="A57" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="28">
+        <v>7</v>
+      </c>
+      <c r="C57" s="29">
+        <v>14</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="F57" s="39">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G57" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H57" s="31">
+        <v>1.29</v>
+      </c>
+      <c r="K57" s="35"/>
+    </row>
+    <row r="58" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A58" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="28">
+        <v>7</v>
+      </c>
+      <c r="C58" s="29">
+        <v>2</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="38">
+        <v>0</v>
+      </c>
+      <c r="F58" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="31">
+        <v>0</v>
+      </c>
+      <c r="H58" s="31">
+        <v>0</v>
+      </c>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="37"/>
+    </row>
+    <row r="59" spans="1:13" ht="13" thickBot="1">
+      <c r="A59" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="28">
+        <v>7</v>
+      </c>
+      <c r="C59" s="29">
+        <v>0</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="39">
+        <v>1</v>
+      </c>
+      <c r="G59" s="31">
+        <v>0</v>
+      </c>
+      <c r="H59" s="31">
+        <v>0.33</v>
+      </c>
       <c r="K59" s="29"/>
       <c r="L59" s="30"/>
       <c r="M59" s="31"/>
     </row>
-    <row r="60" spans="4:13" ht="13" thickBot="1">
-      <c r="D60" s="1"/>
+    <row r="60" spans="1:13" ht="13" thickBot="1">
+      <c r="A60" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="28">
+        <v>7</v>
+      </c>
+      <c r="C60" s="32">
+        <v>4</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="34">
+        <v>0</v>
+      </c>
+      <c r="H60" s="34">
+        <v>0</v>
+      </c>
       <c r="K60" s="29"/>
       <c r="L60" s="30"/>
       <c r="M60" s="31"/>
     </row>
-    <row r="61" spans="4:13" ht="13" thickBot="1">
-      <c r="D61" s="1"/>
+    <row r="61" spans="1:13" ht="13" thickBot="1">
       <c r="K61" s="29"/>
       <c r="L61" s="30"/>
       <c r="M61" s="31"/>
     </row>
-    <row r="62" spans="4:13" ht="13" thickBot="1">
+    <row r="62" spans="1:13" ht="13" thickBot="1">
       <c r="D62" s="1"/>
       <c r="K62" s="29"/>
       <c r="L62" s="30"/>
       <c r="M62" s="31"/>
     </row>
-    <row r="63" spans="4:13" ht="12.5">
+    <row r="63" spans="1:13" ht="13" thickBot="1">
       <c r="D63" s="1"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="34"/>
-    </row>
-    <row r="64" spans="4:13" ht="17.5">
+      <c r="K63" s="29"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="31"/>
+    </row>
+    <row r="64" spans="1:13" ht="13" thickBot="1">
       <c r="D64" s="1"/>
-      <c r="K64" s="35"/>
-    </row>
-    <row r="65" spans="4:16" ht="13.5" thickBot="1">
+      <c r="K64" s="29"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="31"/>
+    </row>
+    <row r="65" spans="4:13" ht="13" thickBot="1">
       <c r="D65" s="1"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-    </row>
-    <row r="66" spans="4:16" ht="13" thickBot="1">
+      <c r="K65" s="29"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="31"/>
+    </row>
+    <row r="66" spans="4:13" ht="13" thickBot="1">
       <c r="D66" s="1"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="39"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="30"/>
       <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-    </row>
-    <row r="67" spans="4:16" ht="13" thickBot="1">
+    </row>
+    <row r="67" spans="4:13" ht="13" thickBot="1">
       <c r="D67" s="1"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="39"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="30"/>
       <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-    </row>
-    <row r="68" spans="4:16" ht="13" thickBot="1">
+    </row>
+    <row r="68" spans="4:13" ht="13" thickBot="1">
       <c r="D68" s="1"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="39"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="30"/>
       <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-    </row>
-    <row r="69" spans="4:16" ht="13" thickBot="1">
+    </row>
+    <row r="69" spans="4:13" ht="13" thickBot="1">
       <c r="D69" s="1"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="39"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="30"/>
       <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-    </row>
-    <row r="70" spans="4:16" ht="13" thickBot="1">
+    </row>
+    <row r="70" spans="4:13" ht="13" thickBot="1">
       <c r="D70" s="1"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="39"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="30"/>
       <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-    </row>
-    <row r="71" spans="4:16" ht="13" thickBot="1">
+    </row>
+    <row r="71" spans="4:13" ht="12.5">
       <c r="D71" s="1"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-    </row>
-    <row r="72" spans="4:16" ht="12.5">
+      <c r="K71" s="32"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="34"/>
+    </row>
+    <row r="72" spans="4:13" ht="17.5">
       <c r="D72" s="1"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-    </row>
-    <row r="73" spans="4:16" ht="12.5">
+      <c r="K72" s="35"/>
+    </row>
+    <row r="73" spans="4:13" ht="13.5" thickBot="1">
       <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="4:16" ht="12.5">
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="37"/>
+    </row>
+    <row r="74" spans="4:13" ht="13" thickBot="1">
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="4:16" ht="12.5">
+      <c r="K74" s="29"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="31"/>
+    </row>
+    <row r="75" spans="4:13" ht="13" thickBot="1">
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="4:16" ht="12.5">
+      <c r="K75" s="29"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="31"/>
+    </row>
+    <row r="76" spans="4:13" ht="13" thickBot="1">
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="4:16" ht="12.5">
+      <c r="K76" s="29"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="31"/>
+    </row>
+    <row r="77" spans="4:13" ht="13" thickBot="1">
       <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="4:16" ht="12.5">
+      <c r="K77" s="29"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="31"/>
+    </row>
+    <row r="78" spans="4:13" ht="13" thickBot="1">
       <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="4:16" ht="12.5">
+      <c r="K78" s="29"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="31"/>
+    </row>
+    <row r="79" spans="4:13" ht="13" thickBot="1">
       <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="4:16" ht="12.5">
+      <c r="K79" s="29"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="31"/>
+    </row>
+    <row r="80" spans="4:13" ht="13" thickBot="1">
       <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="4:4" ht="12.5">
+      <c r="K80" s="29"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="31"/>
+    </row>
+    <row r="81" spans="4:16" ht="13" thickBot="1">
       <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="4:4" ht="12.5">
+      <c r="K81" s="29"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="31"/>
+    </row>
+    <row r="82" spans="4:16" ht="13" thickBot="1">
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="4:4" ht="12.5">
+      <c r="K82" s="29"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="31"/>
+    </row>
+    <row r="83" spans="4:16" ht="13" thickBot="1">
       <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="4:4" ht="12.5">
+      <c r="K83" s="29"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="31"/>
+    </row>
+    <row r="84" spans="4:16" ht="13" thickBot="1">
       <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="4:4" ht="12.5">
+      <c r="K84" s="29"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="31"/>
+    </row>
+    <row r="85" spans="4:16" ht="13" thickBot="1">
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="4:4" ht="12.5">
+      <c r="K85" s="29"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="31"/>
+    </row>
+    <row r="86" spans="4:16" ht="12.5">
       <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="4:4" ht="12.5">
+      <c r="K86" s="32"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="34"/>
+    </row>
+    <row r="87" spans="4:16" ht="17.5">
       <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="4:4" ht="12.5">
+      <c r="K87" s="35"/>
+    </row>
+    <row r="88" spans="4:16" ht="13.5" thickBot="1">
       <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="4:4" ht="12.5">
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+    </row>
+    <row r="89" spans="4:16" ht="13" thickBot="1">
       <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="4:4" ht="12.5">
+      <c r="K89" s="38"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="31"/>
+    </row>
+    <row r="90" spans="4:16" ht="13" thickBot="1">
       <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="4:4" ht="12.5">
+      <c r="K90" s="38"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="31"/>
+      <c r="N90" s="31"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="31"/>
+    </row>
+    <row r="91" spans="4:16" ht="13" thickBot="1">
       <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="4:4" ht="12.5">
+      <c r="K91" s="38"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="31"/>
+    </row>
+    <row r="92" spans="4:16" ht="13" thickBot="1">
       <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="4:4" ht="12.5">
+      <c r="K92" s="38"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+    </row>
+    <row r="93" spans="4:16" ht="13" thickBot="1">
       <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="4:4" ht="12.5">
+      <c r="K93" s="38"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="31"/>
+      <c r="N93" s="31"/>
+      <c r="O93" s="31"/>
+      <c r="P93" s="31"/>
+    </row>
+    <row r="94" spans="4:16" ht="13" thickBot="1">
       <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="4:4" ht="12.5">
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="31"/>
+    </row>
+    <row r="95" spans="4:16" ht="13" thickBot="1">
       <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="4:4" ht="12.5">
+      <c r="K95" s="38"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="31"/>
+    </row>
+    <row r="96" spans="4:16" ht="13" thickBot="1">
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="4:4" ht="12.5">
+      <c r="K96" s="38"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="31"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
+    </row>
+    <row r="97" spans="4:16" ht="13" thickBot="1">
       <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="4:4" ht="12.5">
+      <c r="K97" s="38"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="31"/>
+      <c r="N97" s="31"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="31"/>
+    </row>
+    <row r="98" spans="4:16" ht="13" thickBot="1">
       <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="4:4" ht="12.5">
+      <c r="K98" s="38"/>
+      <c r="L98" s="39"/>
+      <c r="M98" s="31"/>
+      <c r="N98" s="31"/>
+      <c r="O98" s="31"/>
+      <c r="P98" s="31"/>
+    </row>
+    <row r="99" spans="4:16" ht="13" thickBot="1">
       <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="4:4" ht="12.5">
+      <c r="K99" s="38"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="31"/>
+      <c r="N99" s="31"/>
+      <c r="O99" s="31"/>
+      <c r="P99" s="31"/>
+    </row>
+    <row r="100" spans="4:16" ht="13" thickBot="1">
       <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="4:4" ht="12.5">
+      <c r="K100" s="31"/>
+      <c r="L100" s="39"/>
+      <c r="M100" s="31"/>
+      <c r="N100" s="31"/>
+      <c r="O100" s="31"/>
+      <c r="P100" s="31"/>
+    </row>
+    <row r="101" spans="4:16" ht="12.5">
       <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="4:4" ht="12.5">
+      <c r="K101" s="34"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="34"/>
+      <c r="N101" s="34"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
+    </row>
+    <row r="102" spans="4:16" ht="12.5">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" ht="12.5">
+    <row r="103" spans="4:16" ht="12.5">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" ht="12.5">
+    <row r="104" spans="4:16" ht="12.5">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" ht="12.5">
+    <row r="105" spans="4:16" ht="12.5">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" ht="12.5">
+    <row r="106" spans="4:16" ht="12.5">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" ht="12.5">
+    <row r="107" spans="4:16" ht="12.5">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" ht="12.5">
+    <row r="108" spans="4:16" ht="12.5">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" ht="12.5">
+    <row r="109" spans="4:16" ht="12.5">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" ht="12.5">
+    <row r="110" spans="4:16" ht="12.5">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" ht="12.5">
+    <row r="111" spans="4:16" ht="12.5">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" ht="12.5">
+    <row r="112" spans="4:16" ht="12.5">
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="4:4" ht="12.5">
@@ -4836,6 +5331,19 @@
     <hyperlink ref="D45" r:id="rId44" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20881993-d3d8&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{D68B14A3-44F3-4BCA-9CAC-FC761E074448}"/>
     <hyperlink ref="D46" r:id="rId45" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20881993-d3d8&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{322D2E9F-25E4-419F-A4B7-EE66EE5D7790}"/>
     <hyperlink ref="D47" r:id="rId46" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20881993-d3d8&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{2D723683-6283-487F-A52F-E8BD9C6ED0CA}"/>
+    <hyperlink ref="D48" r:id="rId47" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{45C0A3A8-E378-4350-B0E2-C7249DE0BCB8}"/>
+    <hyperlink ref="D49" r:id="rId48" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{DA4C30F8-D705-442E-8978-37D8745B9EC6}"/>
+    <hyperlink ref="D50" r:id="rId49" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{11A63914-4877-4172-958C-D15E7D2C4B6A}"/>
+    <hyperlink ref="D51" r:id="rId50" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{FED34435-0FF8-49A2-AAD7-210F12DD1AF2}"/>
+    <hyperlink ref="D52" r:id="rId51" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{193A0EDC-541B-4437-B728-CFE5691C322F}"/>
+    <hyperlink ref="D53" r:id="rId52" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{52B63E74-F9DD-4A77-AA6F-C83AD806F163}"/>
+    <hyperlink ref="D54" r:id="rId53" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{61E78794-B5D5-4BB0-B9BF-3C75ADDF779D}"/>
+    <hyperlink ref="D55" r:id="rId54" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{92EF9AFD-022B-4086-9ECB-43188E313033}"/>
+    <hyperlink ref="D56" r:id="rId55" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{56DE96C6-0DD2-41AC-875E-0D9268B8F4AF}"/>
+    <hyperlink ref="D57" r:id="rId56" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{1F2F3CA6-278F-446E-B418-C4F078286F48}"/>
+    <hyperlink ref="D58" r:id="rId57" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{38D46CB1-295D-4DA2-8C33-1D7A3DDDE82B}"/>
+    <hyperlink ref="D59" r:id="rId58" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{35666216-5777-443B-A09F-88AE793ACC35}"/>
+    <hyperlink ref="D60" r:id="rId59" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{A044E7BF-2B52-4C0D-8D06-9ED8893D46F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF0373E-85F3-4531-80AF-6669E97B8F85}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2D38D83-E3D0-45D4-95A5-FDBE01FD00F7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="30">
   <si>
     <t>Opponent</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>East Catholic</t>
   </si>
 </sst>
 </file>
@@ -625,8 +628,8 @@
   </sheetPr>
   <dimension ref="A1:Q987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:Q103"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61:S98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1996,7 +1999,7 @@
       <c r="L48" s="30"/>
       <c r="M48" s="31"/>
     </row>
-    <row r="49" spans="1:13" ht="13" thickBot="1">
+    <row r="49" spans="1:17" ht="13" thickBot="1">
       <c r="A49" s="28" t="s">
         <v>25</v>
       </c>
@@ -2025,7 +2028,7 @@
       <c r="L49" s="30"/>
       <c r="M49" s="31"/>
     </row>
-    <row r="50" spans="1:13" ht="13" thickBot="1">
+    <row r="50" spans="1:17" ht="13" thickBot="1">
       <c r="A50" s="28" t="s">
         <v>25</v>
       </c>
@@ -2054,7 +2057,7 @@
       <c r="L50" s="30"/>
       <c r="M50" s="31"/>
     </row>
-    <row r="51" spans="1:13" ht="13" thickBot="1">
+    <row r="51" spans="1:17" ht="13" thickBot="1">
       <c r="A51" s="28" t="s">
         <v>25</v>
       </c>
@@ -2083,7 +2086,7 @@
       <c r="L51" s="30"/>
       <c r="M51" s="31"/>
     </row>
-    <row r="52" spans="1:13" ht="13" thickBot="1">
+    <row r="52" spans="1:17" ht="13" thickBot="1">
       <c r="A52" s="28" t="s">
         <v>25</v>
       </c>
@@ -2112,7 +2115,7 @@
       <c r="L52" s="30"/>
       <c r="M52" s="31"/>
     </row>
-    <row r="53" spans="1:13" ht="13" thickBot="1">
+    <row r="53" spans="1:17" ht="13" thickBot="1">
       <c r="A53" s="28" t="s">
         <v>25</v>
       </c>
@@ -2141,7 +2144,7 @@
       <c r="L53" s="30"/>
       <c r="M53" s="31"/>
     </row>
-    <row r="54" spans="1:13" ht="13" thickBot="1">
+    <row r="54" spans="1:17" ht="13" thickBot="1">
       <c r="A54" s="28" t="s">
         <v>25</v>
       </c>
@@ -2170,7 +2173,7 @@
       <c r="L54" s="30"/>
       <c r="M54" s="31"/>
     </row>
-    <row r="55" spans="1:13" ht="13" thickBot="1">
+    <row r="55" spans="1:17" ht="13" thickBot="1">
       <c r="A55" s="28" t="s">
         <v>25</v>
       </c>
@@ -2199,7 +2202,7 @@
       <c r="L55" s="30"/>
       <c r="M55" s="31"/>
     </row>
-    <row r="56" spans="1:13" ht="13" thickBot="1">
+    <row r="56" spans="1:17" ht="13" thickBot="1">
       <c r="A56" s="28" t="s">
         <v>25</v>
       </c>
@@ -2228,7 +2231,7 @@
       <c r="L56" s="33"/>
       <c r="M56" s="34"/>
     </row>
-    <row r="57" spans="1:13" ht="18" thickBot="1">
+    <row r="57" spans="1:17" ht="18" thickBot="1">
       <c r="A57" s="28" t="s">
         <v>25</v>
       </c>
@@ -2255,7 +2258,7 @@
       </c>
       <c r="K57" s="35"/>
     </row>
-    <row r="58" spans="1:13" ht="13.5" thickBot="1">
+    <row r="58" spans="1:17" ht="13.5" thickBot="1">
       <c r="A58" s="28" t="s">
         <v>25</v>
       </c>
@@ -2284,7 +2287,7 @@
       <c r="L58" s="36"/>
       <c r="M58" s="37"/>
     </row>
-    <row r="59" spans="1:13" ht="13" thickBot="1">
+    <row r="59" spans="1:17" ht="13" thickBot="1">
       <c r="A59" s="28" t="s">
         <v>25</v>
       </c>
@@ -2313,7 +2316,7 @@
       <c r="L59" s="30"/>
       <c r="M59" s="31"/>
     </row>
-    <row r="60" spans="1:13" ht="13" thickBot="1">
+    <row r="60" spans="1:17" ht="13" thickBot="1">
       <c r="A60" s="28" t="s">
         <v>25</v>
       </c>
@@ -2342,234 +2345,363 @@
       <c r="L60" s="30"/>
       <c r="M60" s="31"/>
     </row>
-    <row r="61" spans="1:13" ht="13" thickBot="1">
+    <row r="61" spans="1:17" ht="13.5" thickBot="1">
+      <c r="A61" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="28">
+        <v>8</v>
+      </c>
+      <c r="C61" s="29">
+        <v>1</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="38">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F61" s="39">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G61" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="H61" s="31">
+        <v>0.62</v>
+      </c>
       <c r="K61" s="29"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="31"/>
-    </row>
-    <row r="62" spans="1:13" ht="13" thickBot="1">
-      <c r="D62" s="1"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+    </row>
+    <row r="62" spans="1:17" ht="13" thickBot="1">
+      <c r="A62" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="28">
+        <v>8</v>
+      </c>
+      <c r="C62" s="29">
+        <v>10</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="39">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G62" s="31">
+        <v>0</v>
+      </c>
+      <c r="H62" s="31">
+        <v>1.88</v>
+      </c>
       <c r="K62" s="29"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="31"/>
-    </row>
-    <row r="63" spans="1:13" ht="13" thickBot="1">
-      <c r="D63" s="1"/>
+    </row>
+    <row r="63" spans="1:17" ht="13" thickBot="1">
+      <c r="A63" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="28">
+        <v>8</v>
+      </c>
+      <c r="C63" s="29">
+        <v>11</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="38">
+        <v>0</v>
+      </c>
+      <c r="F63" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="31">
+        <v>0</v>
+      </c>
+      <c r="H63" s="31">
+        <v>1.25</v>
+      </c>
       <c r="K63" s="29"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="31"/>
-    </row>
-    <row r="64" spans="1:13" ht="13" thickBot="1">
-      <c r="D64" s="1"/>
+    </row>
+    <row r="64" spans="1:17" ht="13" thickBot="1">
+      <c r="A64" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="28">
+        <v>8</v>
+      </c>
+      <c r="C64" s="29">
+        <v>3</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="38">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="F64" s="39">
+        <v>0</v>
+      </c>
+      <c r="G64" s="31">
+        <v>0</v>
+      </c>
+      <c r="H64" s="31">
+        <v>0.3</v>
+      </c>
       <c r="K64" s="29"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="31"/>
-    </row>
-    <row r="65" spans="4:13" ht="13" thickBot="1">
-      <c r="D65" s="1"/>
+    </row>
+    <row r="65" spans="1:14" ht="13" thickBot="1">
+      <c r="A65" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="28">
+        <v>8</v>
+      </c>
+      <c r="C65" s="29">
+        <v>5</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="38">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F65" s="39">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="G65" s="31">
+        <v>0</v>
+      </c>
+      <c r="H65" s="31">
+        <v>1.5</v>
+      </c>
       <c r="K65" s="29"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="31"/>
-    </row>
-    <row r="66" spans="4:13" ht="13" thickBot="1">
-      <c r="D66" s="1"/>
+    </row>
+    <row r="66" spans="1:14" ht="13" thickBot="1">
+      <c r="A66" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="28">
+        <v>8</v>
+      </c>
+      <c r="C66" s="29">
+        <v>14</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="38">
+        <v>0.125</v>
+      </c>
+      <c r="F66" s="39">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="G66" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="H66" s="31">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="K66" s="29"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="31"/>
-    </row>
-    <row r="67" spans="4:13" ht="13" thickBot="1">
-      <c r="D67" s="1"/>
+    </row>
+    <row r="67" spans="1:14" ht="13" thickBot="1">
+      <c r="A67" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="28">
+        <v>8</v>
+      </c>
+      <c r="C67" s="32">
+        <v>13</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="F67" s="41">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G67" s="34">
+        <v>0</v>
+      </c>
+      <c r="H67" s="34">
+        <v>0.67</v>
+      </c>
       <c r="K67" s="29"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="31"/>
-    </row>
-    <row r="68" spans="4:13" ht="13" thickBot="1">
+    </row>
+    <row r="68" spans="1:14" ht="13" thickBot="1">
       <c r="D68" s="1"/>
       <c r="K68" s="29"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="31"/>
-    </row>
-    <row r="69" spans="4:13" ht="13" thickBot="1">
+    </row>
+    <row r="69" spans="1:14" ht="18" thickBot="1">
       <c r="D69" s="1"/>
       <c r="K69" s="29"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="31"/>
-    </row>
-    <row r="70" spans="4:13" ht="13" thickBot="1">
+      <c r="L69" s="35"/>
+    </row>
+    <row r="70" spans="1:14" ht="13.5" thickBot="1">
       <c r="D70" s="1"/>
       <c r="K70" s="29"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="31"/>
-    </row>
-    <row r="71" spans="4:13" ht="12.5">
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="37"/>
+    </row>
+    <row r="71" spans="1:14" ht="13" thickBot="1">
       <c r="D71" s="1"/>
       <c r="K71" s="32"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="34"/>
-    </row>
-    <row r="72" spans="4:13" ht="17.5">
+      <c r="L71" s="29"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="31"/>
+    </row>
+    <row r="72" spans="1:14" ht="18" thickBot="1">
       <c r="D72" s="1"/>
       <c r="K72" s="35"/>
-    </row>
-    <row r="73" spans="4:13" ht="13.5" thickBot="1">
+      <c r="L72" s="29"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="31"/>
+    </row>
+    <row r="73" spans="1:14" ht="13.5" thickBot="1">
       <c r="D73" s="1"/>
       <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="37"/>
-    </row>
-    <row r="74" spans="4:13" ht="13" thickBot="1">
+      <c r="L73" s="29"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="31"/>
+    </row>
+    <row r="74" spans="1:14" ht="13" thickBot="1">
       <c r="D74" s="1"/>
       <c r="K74" s="29"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="31"/>
-    </row>
-    <row r="75" spans="4:13" ht="13" thickBot="1">
+      <c r="L74" s="29"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="31"/>
+    </row>
+    <row r="75" spans="1:14" ht="13" thickBot="1">
       <c r="D75" s="1"/>
       <c r="K75" s="29"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="31"/>
-    </row>
-    <row r="76" spans="4:13" ht="13" thickBot="1">
+      <c r="L75" s="29"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="31"/>
+    </row>
+    <row r="76" spans="1:14" ht="13" thickBot="1">
       <c r="D76" s="1"/>
       <c r="K76" s="29"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="31"/>
-    </row>
-    <row r="77" spans="4:13" ht="13" thickBot="1">
+      <c r="L76" s="29"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="31"/>
+    </row>
+    <row r="77" spans="1:14" ht="13" thickBot="1">
       <c r="D77" s="1"/>
       <c r="K77" s="29"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="31"/>
-    </row>
-    <row r="78" spans="4:13" ht="13" thickBot="1">
+      <c r="L77" s="32"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="34"/>
+    </row>
+    <row r="78" spans="1:14" ht="18" thickBot="1">
       <c r="D78" s="1"/>
       <c r="K78" s="29"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="31"/>
-    </row>
-    <row r="79" spans="4:13" ht="13" thickBot="1">
+      <c r="L78" s="35"/>
+    </row>
+    <row r="79" spans="1:14" ht="13.5" thickBot="1">
       <c r="D79" s="1"/>
       <c r="K79" s="29"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="31"/>
-    </row>
-    <row r="80" spans="4:13" ht="13" thickBot="1">
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="37"/>
+    </row>
+    <row r="80" spans="1:14" ht="13" thickBot="1">
       <c r="D80" s="1"/>
       <c r="K80" s="29"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="31"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="31"/>
     </row>
     <row r="81" spans="4:16" ht="13" thickBot="1">
       <c r="D81" s="1"/>
       <c r="K81" s="29"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="31"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="31"/>
     </row>
     <row r="82" spans="4:16" ht="13" thickBot="1">
       <c r="D82" s="1"/>
       <c r="K82" s="29"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="31"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="31"/>
     </row>
     <row r="83" spans="4:16" ht="13" thickBot="1">
       <c r="D83" s="1"/>
       <c r="K83" s="29"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="31"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="31"/>
     </row>
     <row r="84" spans="4:16" ht="13" thickBot="1">
       <c r="D84" s="1"/>
       <c r="K84" s="29"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="31"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="31"/>
     </row>
     <row r="85" spans="4:16" ht="13" thickBot="1">
       <c r="D85" s="1"/>
       <c r="K85" s="29"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="31"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="31"/>
     </row>
     <row r="86" spans="4:16" ht="12.5">
       <c r="D86" s="1"/>
       <c r="K86" s="32"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="34"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="34"/>
     </row>
     <row r="87" spans="4:16" ht="17.5">
       <c r="D87" s="1"/>
       <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
     </row>
     <row r="88" spans="4:16" ht="13.5" thickBot="1">
       <c r="D88" s="1"/>
       <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
     </row>
     <row r="89" spans="4:16" ht="13" thickBot="1">
       <c r="D89" s="1"/>
       <c r="K89" s="38"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="31"/>
-      <c r="N89" s="31"/>
-      <c r="O89" s="31"/>
-      <c r="P89" s="31"/>
     </row>
     <row r="90" spans="4:16" ht="13" thickBot="1">
       <c r="D90" s="1"/>
       <c r="K90" s="38"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="31"/>
-      <c r="N90" s="31"/>
-      <c r="O90" s="31"/>
-      <c r="P90" s="31"/>
     </row>
     <row r="91" spans="4:16" ht="13" thickBot="1">
       <c r="D91" s="1"/>
       <c r="K91" s="38"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="31"/>
-      <c r="O91" s="31"/>
-      <c r="P91" s="31"/>
     </row>
     <row r="92" spans="4:16" ht="13" thickBot="1">
       <c r="D92" s="1"/>
       <c r="K92" s="38"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="31"/>
-      <c r="O92" s="31"/>
-      <c r="P92" s="31"/>
     </row>
     <row r="93" spans="4:16" ht="13" thickBot="1">
       <c r="D93" s="1"/>
       <c r="K93" s="38"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="31"/>
-      <c r="N93" s="31"/>
-      <c r="O93" s="31"/>
-      <c r="P93" s="31"/>
     </row>
     <row r="94" spans="4:16" ht="13" thickBot="1">
       <c r="D94" s="1"/>
       <c r="K94" s="31"/>
-      <c r="L94" s="31"/>
-      <c r="M94" s="31"/>
-      <c r="N94" s="31"/>
-      <c r="O94" s="31"/>
-      <c r="P94" s="31"/>
     </row>
     <row r="95" spans="4:16" ht="13" thickBot="1">
       <c r="D95" s="1"/>
       <c r="K95" s="38"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="31"/>
-      <c r="N95" s="31"/>
-      <c r="O95" s="31"/>
-      <c r="P95" s="31"/>
     </row>
     <row r="96" spans="4:16" ht="13" thickBot="1">
       <c r="D96" s="1"/>
@@ -5344,6 +5476,13 @@
     <hyperlink ref="D58" r:id="rId57" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{38D46CB1-295D-4DA2-8C33-1D7A3DDDE82B}"/>
     <hyperlink ref="D59" r:id="rId58" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{35666216-5777-443B-A09F-88AE793ACC35}"/>
     <hyperlink ref="D60" r:id="rId59" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882001-99d4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{A044E7BF-2B52-4C0D-8D06-9ED8893D46F8}"/>
+    <hyperlink ref="D61" r:id="rId60" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882008-cdcb&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{AA334C0A-620F-4F19-95DE-56D0AA6229BD}"/>
+    <hyperlink ref="D62" r:id="rId61" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882008-cdcb&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{8F78DD58-0DFF-4FDF-B426-B0A08A8E3416}"/>
+    <hyperlink ref="D63" r:id="rId62" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882008-cdcb&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{E6C369FB-31E3-40E9-ACC2-F50A1280057D}"/>
+    <hyperlink ref="D64" r:id="rId63" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882008-cdcb&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{AC940DF9-AE80-4F0E-BB32-0D57B1C25B85}"/>
+    <hyperlink ref="D65" r:id="rId64" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882008-cdcb&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{59474DB1-BA2F-4DC1-8F57-7AB0FA4E364E}"/>
+    <hyperlink ref="D66" r:id="rId65" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882008-cdcb&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{2BE129BC-EE33-4974-9E87-93288A68D58C}"/>
+    <hyperlink ref="D67" r:id="rId66" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882008-cdcb&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{DC975950-3E46-447D-AF99-9978060683C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2D38D83-E3D0-45D4-95A5-FDBE01FD00F7}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ACA8CD0-7CDE-41B0-B15C-C6A61157160B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="32">
   <si>
     <t>Opponent</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>East Catholic</t>
+  </si>
+  <si>
+    <t>Southington</t>
+  </si>
+  <si>
+    <t>Hugh Murphy</t>
   </si>
 </sst>
 </file>
@@ -628,8 +634,8 @@
   </sheetPr>
   <dimension ref="A1:Q987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61:S98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56:P150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1999,7 +2005,7 @@
       <c r="L48" s="30"/>
       <c r="M48" s="31"/>
     </row>
-    <row r="49" spans="1:17" ht="13" thickBot="1">
+    <row r="49" spans="1:16" ht="13" thickBot="1">
       <c r="A49" s="28" t="s">
         <v>25</v>
       </c>
@@ -2028,7 +2034,7 @@
       <c r="L49" s="30"/>
       <c r="M49" s="31"/>
     </row>
-    <row r="50" spans="1:17" ht="13" thickBot="1">
+    <row r="50" spans="1:16" ht="13" thickBot="1">
       <c r="A50" s="28" t="s">
         <v>25</v>
       </c>
@@ -2057,7 +2063,7 @@
       <c r="L50" s="30"/>
       <c r="M50" s="31"/>
     </row>
-    <row r="51" spans="1:17" ht="13" thickBot="1">
+    <row r="51" spans="1:16" ht="13" thickBot="1">
       <c r="A51" s="28" t="s">
         <v>25</v>
       </c>
@@ -2086,7 +2092,7 @@
       <c r="L51" s="30"/>
       <c r="M51" s="31"/>
     </row>
-    <row r="52" spans="1:17" ht="13" thickBot="1">
+    <row r="52" spans="1:16" ht="13" thickBot="1">
       <c r="A52" s="28" t="s">
         <v>25</v>
       </c>
@@ -2115,7 +2121,7 @@
       <c r="L52" s="30"/>
       <c r="M52" s="31"/>
     </row>
-    <row r="53" spans="1:17" ht="13" thickBot="1">
+    <row r="53" spans="1:16" ht="13" thickBot="1">
       <c r="A53" s="28" t="s">
         <v>25</v>
       </c>
@@ -2144,7 +2150,7 @@
       <c r="L53" s="30"/>
       <c r="M53" s="31"/>
     </row>
-    <row r="54" spans="1:17" ht="13" thickBot="1">
+    <row r="54" spans="1:16" ht="13" thickBot="1">
       <c r="A54" s="28" t="s">
         <v>25</v>
       </c>
@@ -2173,7 +2179,7 @@
       <c r="L54" s="30"/>
       <c r="M54" s="31"/>
     </row>
-    <row r="55" spans="1:17" ht="13" thickBot="1">
+    <row r="55" spans="1:16" ht="13" thickBot="1">
       <c r="A55" s="28" t="s">
         <v>25</v>
       </c>
@@ -2202,7 +2208,7 @@
       <c r="L55" s="30"/>
       <c r="M55" s="31"/>
     </row>
-    <row r="56" spans="1:17" ht="13" thickBot="1">
+    <row r="56" spans="1:16" ht="13.5" thickBot="1">
       <c r="A56" s="28" t="s">
         <v>25</v>
       </c>
@@ -2227,11 +2233,14 @@
       <c r="H56" s="31">
         <v>0</v>
       </c>
-      <c r="K56" s="32"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="34"/>
-    </row>
-    <row r="57" spans="1:17" ht="18" thickBot="1">
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+    </row>
+    <row r="57" spans="1:16" ht="14" customHeight="1" thickBot="1">
       <c r="A57" s="28" t="s">
         <v>25</v>
       </c>
@@ -2256,9 +2265,14 @@
       <c r="H57" s="31">
         <v>1.29</v>
       </c>
-      <c r="K57" s="35"/>
-    </row>
-    <row r="58" spans="1:17" ht="13.5" thickBot="1">
+      <c r="K57" s="29"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="31"/>
+    </row>
+    <row r="58" spans="1:16" ht="13" thickBot="1">
       <c r="A58" s="28" t="s">
         <v>25</v>
       </c>
@@ -2283,11 +2297,14 @@
       <c r="H58" s="31">
         <v>0</v>
       </c>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="37"/>
-    </row>
-    <row r="59" spans="1:17" ht="13" thickBot="1">
+      <c r="K58" s="29"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+    </row>
+    <row r="59" spans="1:16" ht="13" thickBot="1">
       <c r="A59" s="28" t="s">
         <v>25</v>
       </c>
@@ -2314,9 +2331,12 @@
       </c>
       <c r="K59" s="29"/>
       <c r="L59" s="30"/>
-      <c r="M59" s="31"/>
-    </row>
-    <row r="60" spans="1:17" ht="13" thickBot="1">
+      <c r="M59" s="38"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+    </row>
+    <row r="60" spans="1:16" ht="13" thickBot="1">
       <c r="A60" s="28" t="s">
         <v>25</v>
       </c>
@@ -2344,8 +2364,11 @@
       <c r="K60" s="29"/>
       <c r="L60" s="30"/>
       <c r="M60" s="31"/>
-    </row>
-    <row r="61" spans="1:17" ht="13.5" thickBot="1">
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+    </row>
+    <row r="61" spans="1:16" ht="13" thickBot="1">
       <c r="A61" s="28" t="s">
         <v>29</v>
       </c>
@@ -2371,14 +2394,13 @@
         <v>0.62</v>
       </c>
       <c r="K61" s="29"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-    </row>
-    <row r="62" spans="1:17" ht="13" thickBot="1">
+      <c r="L61" s="30"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+    </row>
+    <row r="62" spans="1:16" ht="13" thickBot="1">
       <c r="A62" s="28" t="s">
         <v>29</v>
       </c>
@@ -2404,8 +2426,13 @@
         <v>1.88</v>
       </c>
       <c r="K62" s="29"/>
-    </row>
-    <row r="63" spans="1:17" ht="13" thickBot="1">
+      <c r="L62" s="30"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+    </row>
+    <row r="63" spans="1:16" ht="13" thickBot="1">
       <c r="A63" s="28" t="s">
         <v>29</v>
       </c>
@@ -2431,8 +2458,13 @@
         <v>1.25</v>
       </c>
       <c r="K63" s="29"/>
-    </row>
-    <row r="64" spans="1:17" ht="13" thickBot="1">
+      <c r="L63" s="30"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+    </row>
+    <row r="64" spans="1:16" ht="13" thickBot="1">
       <c r="A64" s="28" t="s">
         <v>29</v>
       </c>
@@ -2458,8 +2490,13 @@
         <v>0.3</v>
       </c>
       <c r="K64" s="29"/>
-    </row>
-    <row r="65" spans="1:14" ht="13" thickBot="1">
+      <c r="L64" s="30"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+    </row>
+    <row r="65" spans="1:16" ht="13" thickBot="1">
       <c r="A65" s="28" t="s">
         <v>29</v>
       </c>
@@ -2485,8 +2522,13 @@
         <v>1.5</v>
       </c>
       <c r="K65" s="29"/>
-    </row>
-    <row r="66" spans="1:14" ht="13" thickBot="1">
+      <c r="L65" s="30"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+    </row>
+    <row r="66" spans="1:16" ht="13" thickBot="1">
       <c r="A66" s="28" t="s">
         <v>29</v>
       </c>
@@ -2512,8 +2554,13 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="K66" s="29"/>
-    </row>
-    <row r="67" spans="1:14" ht="13" thickBot="1">
+      <c r="L66" s="30"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+    </row>
+    <row r="67" spans="1:16" ht="13" thickBot="1">
       <c r="A67" s="28" t="s">
         <v>29</v>
       </c>
@@ -2539,303 +2586,634 @@
         <v>0.67</v>
       </c>
       <c r="K67" s="29"/>
-    </row>
-    <row r="68" spans="1:14" ht="13" thickBot="1">
-      <c r="D68" s="1"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+    </row>
+    <row r="68" spans="1:16" ht="13" thickBot="1">
+      <c r="A68" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="28">
+        <v>9</v>
+      </c>
+      <c r="C68" s="29">
+        <v>10</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F68" s="39">
+        <v>0</v>
+      </c>
+      <c r="G68" s="31">
+        <v>0</v>
+      </c>
+      <c r="H68" s="31">
+        <v>0.88</v>
+      </c>
       <c r="K68" s="29"/>
-    </row>
-    <row r="69" spans="1:14" ht="18" thickBot="1">
-      <c r="D69" s="1"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="35"/>
-    </row>
-    <row r="70" spans="1:14" ht="13.5" thickBot="1">
-      <c r="D70" s="1"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="36"/>
-      <c r="N70" s="37"/>
-    </row>
-    <row r="71" spans="1:14" ht="13" thickBot="1">
-      <c r="D71" s="1"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="31"/>
-    </row>
-    <row r="72" spans="1:14" ht="18" thickBot="1">
-      <c r="D72" s="1"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="31"/>
-    </row>
-    <row r="73" spans="1:14" ht="13.5" thickBot="1">
-      <c r="D73" s="1"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="31"/>
-    </row>
-    <row r="74" spans="1:14" ht="13" thickBot="1">
-      <c r="D74" s="1"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+    </row>
+    <row r="69" spans="1:16" ht="13" thickBot="1">
+      <c r="A69" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="28">
+        <v>9</v>
+      </c>
+      <c r="C69" s="29">
+        <v>1</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="38">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F69" s="39">
+        <v>0</v>
+      </c>
+      <c r="G69" s="31">
+        <v>0.67</v>
+      </c>
+      <c r="H69" s="31">
+        <v>1.9</v>
+      </c>
+      <c r="K69" s="32"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
+    </row>
+    <row r="70" spans="1:16" ht="18" thickBot="1">
+      <c r="A70" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="28">
+        <v>9</v>
+      </c>
+      <c r="C70" s="29">
+        <v>13</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="38">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F70" s="39">
+        <v>0</v>
+      </c>
+      <c r="G70" s="31">
+        <v>0.67</v>
+      </c>
+      <c r="H70" s="31">
+        <v>1</v>
+      </c>
+      <c r="K70" s="35"/>
+    </row>
+    <row r="71" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A71" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="28">
+        <v>9</v>
+      </c>
+      <c r="C71" s="29">
+        <v>22</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="31">
+        <v>0</v>
+      </c>
+      <c r="H71" s="31">
+        <v>2</v>
+      </c>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="37"/>
+    </row>
+    <row r="72" spans="1:16" ht="13" thickBot="1">
+      <c r="A72" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="28">
+        <v>9</v>
+      </c>
+      <c r="C72" s="29">
+        <v>11</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="38">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F72" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="G72" s="31">
+        <v>0</v>
+      </c>
+      <c r="H72" s="31">
+        <v>3.83</v>
+      </c>
+      <c r="K72" s="29"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="31"/>
+    </row>
+    <row r="73" spans="1:16" ht="13" thickBot="1">
+      <c r="A73" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="28">
+        <v>9</v>
+      </c>
+      <c r="C73" s="29">
+        <v>33</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="31">
+        <v>0</v>
+      </c>
+      <c r="H73" s="31">
+        <v>0</v>
+      </c>
+      <c r="K73" s="29"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="31"/>
+    </row>
+    <row r="74" spans="1:16" ht="13" thickBot="1">
+      <c r="A74" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="28">
+        <v>9</v>
+      </c>
+      <c r="C74" s="29">
+        <v>3</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="38">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F74" s="39">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G74" s="31">
+        <v>0.67</v>
+      </c>
+      <c r="H74" s="31">
+        <v>0.94</v>
+      </c>
       <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="31"/>
-    </row>
-    <row r="75" spans="1:14" ht="13" thickBot="1">
-      <c r="D75" s="1"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="31"/>
+    </row>
+    <row r="75" spans="1:16" ht="13" thickBot="1">
+      <c r="A75" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="28">
+        <v>9</v>
+      </c>
+      <c r="C75" s="29">
+        <v>5</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="38">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F75" s="39">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G75" s="31">
+        <v>0.63</v>
+      </c>
+      <c r="H75" s="31">
+        <v>2.16</v>
+      </c>
       <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="31"/>
-    </row>
-    <row r="76" spans="1:14" ht="13" thickBot="1">
-      <c r="D76" s="1"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="31"/>
+    </row>
+    <row r="76" spans="1:16" ht="13" thickBot="1">
+      <c r="A76" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="28">
+        <v>9</v>
+      </c>
+      <c r="C76" s="29">
+        <v>12</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="31">
+        <v>0</v>
+      </c>
+      <c r="H76" s="31">
+        <v>0</v>
+      </c>
       <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="31"/>
-    </row>
-    <row r="77" spans="1:14" ht="13" thickBot="1">
-      <c r="D77" s="1"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="31"/>
+    </row>
+    <row r="77" spans="1:16" ht="13" thickBot="1">
+      <c r="A77" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="28">
+        <v>9</v>
+      </c>
+      <c r="C77" s="29">
+        <v>14</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="G77" s="31">
+        <v>0</v>
+      </c>
+      <c r="H77" s="31">
+        <v>1.25</v>
+      </c>
       <c r="K77" s="29"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="34"/>
-    </row>
-    <row r="78" spans="1:14" ht="18" thickBot="1">
-      <c r="D78" s="1"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="31"/>
+    </row>
+    <row r="78" spans="1:16" ht="13" thickBot="1">
+      <c r="A78" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="28">
+        <v>9</v>
+      </c>
+      <c r="C78" s="29">
+        <v>2</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="38">
+        <v>0</v>
+      </c>
+      <c r="F78" s="39">
+        <v>0</v>
+      </c>
+      <c r="G78" s="31">
+        <v>0</v>
+      </c>
+      <c r="H78" s="31">
+        <v>0</v>
+      </c>
       <c r="K78" s="29"/>
-      <c r="L78" s="35"/>
-    </row>
-    <row r="79" spans="1:14" ht="13.5" thickBot="1">
-      <c r="D79" s="1"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="31"/>
+    </row>
+    <row r="79" spans="1:16" ht="13" thickBot="1">
+      <c r="A79" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="28">
+        <v>9</v>
+      </c>
+      <c r="C79" s="29">
+        <v>0</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" s="31">
+        <v>0</v>
+      </c>
+      <c r="H79" s="31">
+        <v>1</v>
+      </c>
       <c r="K79" s="29"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="37"/>
-    </row>
-    <row r="80" spans="1:14" ht="13" thickBot="1">
-      <c r="D80" s="1"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="31"/>
+    </row>
+    <row r="80" spans="1:16" ht="13" thickBot="1">
+      <c r="A80" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="28">
+        <v>9</v>
+      </c>
+      <c r="C80" s="32">
+        <v>4</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="40">
+        <v>0</v>
+      </c>
+      <c r="F80" s="41">
+        <v>0</v>
+      </c>
+      <c r="G80" s="34">
+        <v>0</v>
+      </c>
+      <c r="H80" s="34">
+        <v>0</v>
+      </c>
       <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="31"/>
-    </row>
-    <row r="81" spans="4:16" ht="13" thickBot="1">
+      <c r="L80" s="30"/>
+      <c r="M80" s="31"/>
+    </row>
+    <row r="81" spans="4:13" ht="13" thickBot="1">
       <c r="D81" s="1"/>
       <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="31"/>
-    </row>
-    <row r="82" spans="4:16" ht="13" thickBot="1">
+      <c r="L81" s="30"/>
+      <c r="M81" s="31"/>
+    </row>
+    <row r="82" spans="4:13" ht="13" thickBot="1">
       <c r="D82" s="1"/>
       <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="31"/>
-    </row>
-    <row r="83" spans="4:16" ht="13" thickBot="1">
+      <c r="L82" s="30"/>
+      <c r="M82" s="31"/>
+    </row>
+    <row r="83" spans="4:13" ht="13" thickBot="1">
       <c r="D83" s="1"/>
       <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="31"/>
-    </row>
-    <row r="84" spans="4:16" ht="13" thickBot="1">
+      <c r="L83" s="30"/>
+      <c r="M83" s="31"/>
+    </row>
+    <row r="84" spans="4:13" ht="12.5">
       <c r="D84" s="1"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="31"/>
-    </row>
-    <row r="85" spans="4:16" ht="13" thickBot="1">
+      <c r="K84" s="32"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="34"/>
+    </row>
+    <row r="85" spans="4:13" ht="17.5">
       <c r="D85" s="1"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="31"/>
-    </row>
-    <row r="86" spans="4:16" ht="12.5">
+      <c r="K85" s="35"/>
+    </row>
+    <row r="86" spans="4:13" ht="13.5" thickBot="1">
       <c r="D86" s="1"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="34"/>
-    </row>
-    <row r="87" spans="4:16" ht="17.5">
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="37"/>
+    </row>
+    <row r="87" spans="4:13" ht="13" thickBot="1">
       <c r="D87" s="1"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-    </row>
-    <row r="88" spans="4:16" ht="13.5" thickBot="1">
+      <c r="K87" s="29"/>
+      <c r="L87" s="30"/>
+      <c r="M87" s="31"/>
+    </row>
+    <row r="88" spans="4:13" ht="13" thickBot="1">
       <c r="D88" s="1"/>
-      <c r="K88" s="37"/>
-    </row>
-    <row r="89" spans="4:16" ht="13" thickBot="1">
+      <c r="K88" s="29"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="31"/>
+    </row>
+    <row r="89" spans="4:13" ht="13" thickBot="1">
       <c r="D89" s="1"/>
-      <c r="K89" s="38"/>
-    </row>
-    <row r="90" spans="4:16" ht="13" thickBot="1">
+      <c r="K89" s="29"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="31"/>
+    </row>
+    <row r="90" spans="4:13" ht="13" thickBot="1">
       <c r="D90" s="1"/>
-      <c r="K90" s="38"/>
-    </row>
-    <row r="91" spans="4:16" ht="13" thickBot="1">
+      <c r="K90" s="29"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="31"/>
+    </row>
+    <row r="91" spans="4:13" ht="13" thickBot="1">
       <c r="D91" s="1"/>
-      <c r="K91" s="38"/>
-    </row>
-    <row r="92" spans="4:16" ht="13" thickBot="1">
+      <c r="K91" s="29"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="31"/>
+    </row>
+    <row r="92" spans="4:13" ht="13" thickBot="1">
       <c r="D92" s="1"/>
-      <c r="K92" s="38"/>
-    </row>
-    <row r="93" spans="4:16" ht="13" thickBot="1">
+      <c r="K92" s="29"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="31"/>
+    </row>
+    <row r="93" spans="4:13" ht="13" thickBot="1">
       <c r="D93" s="1"/>
-      <c r="K93" s="38"/>
-    </row>
-    <row r="94" spans="4:16" ht="13" thickBot="1">
+      <c r="K93" s="29"/>
+      <c r="L93" s="30"/>
+      <c r="M93" s="31"/>
+    </row>
+    <row r="94" spans="4:13" ht="13" thickBot="1">
       <c r="D94" s="1"/>
-      <c r="K94" s="31"/>
-    </row>
-    <row r="95" spans="4:16" ht="13" thickBot="1">
+      <c r="K94" s="29"/>
+      <c r="L94" s="30"/>
+      <c r="M94" s="31"/>
+    </row>
+    <row r="95" spans="4:13" ht="13" thickBot="1">
       <c r="D95" s="1"/>
-      <c r="K95" s="38"/>
-    </row>
-    <row r="96" spans="4:16" ht="13" thickBot="1">
+      <c r="K95" s="29"/>
+      <c r="L95" s="30"/>
+      <c r="M95" s="31"/>
+    </row>
+    <row r="96" spans="4:13" ht="13" thickBot="1">
       <c r="D96" s="1"/>
-      <c r="K96" s="38"/>
-      <c r="L96" s="39"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="30"/>
       <c r="M96" s="31"/>
-      <c r="N96" s="31"/>
-      <c r="O96" s="31"/>
-      <c r="P96" s="31"/>
-    </row>
-    <row r="97" spans="4:16" ht="13" thickBot="1">
+    </row>
+    <row r="97" spans="4:13" ht="13" thickBot="1">
       <c r="D97" s="1"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="39"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="30"/>
       <c r="M97" s="31"/>
-      <c r="N97" s="31"/>
-      <c r="O97" s="31"/>
-      <c r="P97" s="31"/>
-    </row>
-    <row r="98" spans="4:16" ht="13" thickBot="1">
+    </row>
+    <row r="98" spans="4:13" ht="13" thickBot="1">
       <c r="D98" s="1"/>
-      <c r="K98" s="38"/>
-      <c r="L98" s="39"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="30"/>
       <c r="M98" s="31"/>
-      <c r="N98" s="31"/>
-      <c r="O98" s="31"/>
-      <c r="P98" s="31"/>
-    </row>
-    <row r="99" spans="4:16" ht="13" thickBot="1">
+    </row>
+    <row r="99" spans="4:13" ht="12.5">
       <c r="D99" s="1"/>
-      <c r="K99" s="38"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="31"/>
-      <c r="N99" s="31"/>
-      <c r="O99" s="31"/>
-      <c r="P99" s="31"/>
-    </row>
-    <row r="100" spans="4:16" ht="13" thickBot="1">
+      <c r="K99" s="32"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="34"/>
+    </row>
+    <row r="100" spans="4:13" ht="17.5">
       <c r="D100" s="1"/>
-      <c r="K100" s="31"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="31"/>
-      <c r="N100" s="31"/>
-      <c r="O100" s="31"/>
-      <c r="P100" s="31"/>
-    </row>
-    <row r="101" spans="4:16" ht="12.5">
+      <c r="K100" s="35"/>
+    </row>
+    <row r="101" spans="4:13" ht="13.5" thickBot="1">
       <c r="D101" s="1"/>
-      <c r="K101" s="34"/>
-      <c r="L101" s="34"/>
-      <c r="M101" s="34"/>
-      <c r="N101" s="34"/>
-      <c r="O101" s="34"/>
-      <c r="P101" s="34"/>
-    </row>
-    <row r="102" spans="4:16" ht="12.5">
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="37"/>
+    </row>
+    <row r="102" spans="4:13" ht="13" thickBot="1">
       <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="4:16" ht="12.5">
+      <c r="K102" s="29"/>
+      <c r="L102" s="30"/>
+      <c r="M102" s="31"/>
+    </row>
+    <row r="103" spans="4:13" ht="13" thickBot="1">
       <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="4:16" ht="12.5">
+      <c r="K103" s="29"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="31"/>
+    </row>
+    <row r="104" spans="4:13" ht="13" thickBot="1">
       <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="4:16" ht="12.5">
+      <c r="K104" s="29"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="31"/>
+    </row>
+    <row r="105" spans="4:13" ht="13" thickBot="1">
       <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="4:16" ht="12.5">
+      <c r="K105" s="29"/>
+      <c r="L105" s="30"/>
+      <c r="M105" s="31"/>
+    </row>
+    <row r="106" spans="4:13" ht="13" thickBot="1">
       <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="4:16" ht="12.5">
+      <c r="K106" s="29"/>
+      <c r="L106" s="30"/>
+      <c r="M106" s="31"/>
+    </row>
+    <row r="107" spans="4:13" ht="13" thickBot="1">
       <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="4:16" ht="12.5">
+      <c r="K107" s="29"/>
+      <c r="L107" s="30"/>
+      <c r="M107" s="31"/>
+    </row>
+    <row r="108" spans="4:13" ht="13" thickBot="1">
       <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="4:16" ht="12.5">
+      <c r="K108" s="29"/>
+      <c r="L108" s="30"/>
+      <c r="M108" s="31"/>
+    </row>
+    <row r="109" spans="4:13" ht="13" thickBot="1">
       <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="4:16" ht="12.5">
+      <c r="K109" s="29"/>
+      <c r="L109" s="30"/>
+      <c r="M109" s="31"/>
+    </row>
+    <row r="110" spans="4:13" ht="13" thickBot="1">
       <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="4:16" ht="12.5">
+      <c r="K110" s="29"/>
+      <c r="L110" s="30"/>
+      <c r="M110" s="31"/>
+    </row>
+    <row r="111" spans="4:13" ht="13" thickBot="1">
       <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="4:16" ht="12.5">
+      <c r="K111" s="29"/>
+      <c r="L111" s="30"/>
+      <c r="M111" s="31"/>
+    </row>
+    <row r="112" spans="4:13" ht="13" thickBot="1">
       <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="4:4" ht="12.5">
+      <c r="K112" s="29"/>
+      <c r="L112" s="30"/>
+      <c r="M112" s="31"/>
+    </row>
+    <row r="113" spans="4:13" ht="13" thickBot="1">
       <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="4:4" ht="12.5">
+      <c r="K113" s="29"/>
+      <c r="L113" s="30"/>
+      <c r="M113" s="31"/>
+    </row>
+    <row r="114" spans="4:13" ht="12.5">
       <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="4:4" ht="12.5">
+      <c r="K114" s="32"/>
+      <c r="L114" s="33"/>
+      <c r="M114" s="34"/>
+    </row>
+    <row r="115" spans="4:13" ht="17.5">
       <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="4:4" ht="12.5">
+      <c r="K115" s="35"/>
+    </row>
+    <row r="116" spans="4:13" ht="12.5">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" ht="12.5">
+    <row r="117" spans="4:13" ht="12.5">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" ht="12.5">
+    <row r="118" spans="4:13" ht="12.5">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" ht="12.5">
+    <row r="119" spans="4:13" ht="12.5">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" ht="12.5">
+    <row r="120" spans="4:13" ht="12.5">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:4" ht="12.5">
+    <row r="121" spans="4:13" ht="12.5">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" ht="12.5">
+    <row r="122" spans="4:13" ht="12.5">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" ht="12.5">
+    <row r="123" spans="4:13" ht="12.5">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" ht="12.5">
+    <row r="124" spans="4:13" ht="12.5">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" ht="12.5">
+    <row r="125" spans="4:13" ht="12.5">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" ht="12.5">
+    <row r="126" spans="4:13" ht="12.5">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:4" ht="12.5">
+    <row r="127" spans="4:13" ht="12.5">
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="4:4" ht="12.5">
+    <row r="128" spans="4:13" ht="12.5">
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="4:4" ht="12.5">
@@ -5483,6 +5861,19 @@
     <hyperlink ref="D65" r:id="rId64" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882008-cdcb&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{59474DB1-BA2F-4DC1-8F57-7AB0FA4E364E}"/>
     <hyperlink ref="D66" r:id="rId65" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882008-cdcb&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{2BE129BC-EE33-4974-9E87-93288A68D58C}"/>
     <hyperlink ref="D67" r:id="rId66" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882008-cdcb&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{DC975950-3E46-447D-AF99-9978060683C6}"/>
+    <hyperlink ref="D68" r:id="rId67" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{7BE35791-B7E5-4DDE-8D3A-A1926F9F1E26}"/>
+    <hyperlink ref="D69" r:id="rId68" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{F7AEADAC-69B9-460C-9D6F-2ADD130C963B}"/>
+    <hyperlink ref="D70" r:id="rId69" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{B3DFB6C9-3EF3-4AF7-98B7-2D0A301A2BCF}"/>
+    <hyperlink ref="D71" r:id="rId70" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{DA73A75F-ED91-4BED-9BA1-B2BE4C7CFFEB}"/>
+    <hyperlink ref="D72" r:id="rId71" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{F2044BDC-1B21-4AA4-A686-67CE6F376E5E}"/>
+    <hyperlink ref="D73" r:id="rId72" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{10DCA1E1-2593-4C97-9232-88094AA4C8AF}"/>
+    <hyperlink ref="D74" r:id="rId73" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{922DA58C-213C-4823-9C33-E5849DD34046}"/>
+    <hyperlink ref="D75" r:id="rId74" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{EFF92B54-4C11-4169-9C49-DA2A5E8064AB}"/>
+    <hyperlink ref="D76" r:id="rId75" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{4ED83453-C998-4D36-B389-865C4A53540E}"/>
+    <hyperlink ref="D77" r:id="rId76" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{D6FBA7B5-F7CA-46BF-B5A8-9D263DE09CD9}"/>
+    <hyperlink ref="D78" r:id="rId77" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{6C51A91B-0113-4D36-8273-5A11F727D432}"/>
+    <hyperlink ref="D79" r:id="rId78" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{EA23932D-3986-4C97-B822-3ED39C12BEB2}"/>
+    <hyperlink ref="D80" r:id="rId79" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{8C9DAA29-B2C3-4154-988A-2610D1E736DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ACA8CD0-7CDE-41B0-B15C-C6A61157160B}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72729F37-F11F-49A7-9C3E-9E4A91BD849B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="33">
   <si>
     <t>Opponent</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Hugh Murphy</t>
+  </si>
+  <si>
+    <t>Newington</t>
   </si>
 </sst>
 </file>
@@ -634,8 +637,8 @@
   </sheetPr>
   <dimension ref="A1:Q987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56:P150"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2973,127 +2976,270 @@
       <c r="L80" s="30"/>
       <c r="M80" s="31"/>
     </row>
-    <row r="81" spans="4:13" ht="13" thickBot="1">
-      <c r="D81" s="1"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="31"/>
-    </row>
-    <row r="82" spans="4:13" ht="13" thickBot="1">
-      <c r="D82" s="1"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="31"/>
-    </row>
-    <row r="83" spans="4:13" ht="13" thickBot="1">
-      <c r="D83" s="1"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="31"/>
-    </row>
-    <row r="84" spans="4:13" ht="12.5">
-      <c r="D84" s="1"/>
-      <c r="K84" s="32"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="34"/>
-    </row>
-    <row r="85" spans="4:13" ht="17.5">
-      <c r="D85" s="1"/>
-      <c r="K85" s="35"/>
-    </row>
-    <row r="86" spans="4:13" ht="13.5" thickBot="1">
-      <c r="D86" s="1"/>
-      <c r="K86" s="36"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="37"/>
-    </row>
-    <row r="87" spans="4:13" ht="13" thickBot="1">
-      <c r="D87" s="1"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="31"/>
-    </row>
-    <row r="88" spans="4:13" ht="13" thickBot="1">
+    <row r="81" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A81" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="28">
+        <v>10</v>
+      </c>
+      <c r="C81" s="29">
+        <v>1</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="38">
+        <v>0.45</v>
+      </c>
+      <c r="F81" s="39">
+        <v>0</v>
+      </c>
+      <c r="G81" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H81" s="31">
+        <v>1.27</v>
+      </c>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+    </row>
+    <row r="82" spans="1:16" ht="13" thickBot="1">
+      <c r="A82" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" s="28">
+        <v>10</v>
+      </c>
+      <c r="C82" s="29">
+        <v>10</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="F82" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="G82" s="31">
+        <v>0</v>
+      </c>
+      <c r="H82" s="31">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="13" thickBot="1">
+      <c r="A83" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="28">
+        <v>10</v>
+      </c>
+      <c r="C83" s="29">
+        <v>11</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="38">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="F83" s="39">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="G83" s="31">
+        <v>0.17</v>
+      </c>
+      <c r="H83" s="31">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="13" thickBot="1">
+      <c r="A84" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="28">
+        <v>10</v>
+      </c>
+      <c r="C84" s="29">
+        <v>3</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="38">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F84" s="39">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G84" s="31">
+        <v>1.33</v>
+      </c>
+      <c r="H84" s="31">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="13" thickBot="1">
+      <c r="A85" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="28">
+        <v>10</v>
+      </c>
+      <c r="C85" s="29">
+        <v>5</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="38">
+        <v>0.222</v>
+      </c>
+      <c r="F85" s="39">
+        <v>0</v>
+      </c>
+      <c r="G85" s="31">
+        <v>0.78</v>
+      </c>
+      <c r="H85" s="31">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="13" thickBot="1">
+      <c r="A86" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="28">
+        <v>10</v>
+      </c>
+      <c r="C86" s="29">
+        <v>14</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="38">
+        <v>0</v>
+      </c>
+      <c r="F86" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="G86" s="31">
+        <v>0</v>
+      </c>
+      <c r="H86" s="31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="12.5">
+      <c r="A87" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="28">
+        <v>10</v>
+      </c>
+      <c r="C87" s="32">
+        <v>13</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="F87" s="41">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G87" s="34">
+        <v>0</v>
+      </c>
+      <c r="H87" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="12.5">
       <c r="D88" s="1"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="31"/>
-    </row>
-    <row r="89" spans="4:13" ht="13" thickBot="1">
+    </row>
+    <row r="89" spans="1:16" ht="17.5">
       <c r="D89" s="1"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="31"/>
-    </row>
-    <row r="90" spans="4:13" ht="13" thickBot="1">
+      <c r="K89" s="35"/>
+    </row>
+    <row r="90" spans="1:16" ht="13.5" thickBot="1">
       <c r="D90" s="1"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="31"/>
-    </row>
-    <row r="91" spans="4:13" ht="13" thickBot="1">
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="37"/>
+    </row>
+    <row r="91" spans="1:16" ht="13" thickBot="1">
       <c r="D91" s="1"/>
       <c r="K91" s="29"/>
       <c r="L91" s="30"/>
       <c r="M91" s="31"/>
     </row>
-    <row r="92" spans="4:13" ht="13" thickBot="1">
+    <row r="92" spans="1:16" ht="13" thickBot="1">
       <c r="D92" s="1"/>
       <c r="K92" s="29"/>
       <c r="L92" s="30"/>
       <c r="M92" s="31"/>
     </row>
-    <row r="93" spans="4:13" ht="13" thickBot="1">
+    <row r="93" spans="1:16" ht="13" thickBot="1">
       <c r="D93" s="1"/>
       <c r="K93" s="29"/>
       <c r="L93" s="30"/>
       <c r="M93" s="31"/>
     </row>
-    <row r="94" spans="4:13" ht="13" thickBot="1">
+    <row r="94" spans="1:16" ht="13" thickBot="1">
       <c r="D94" s="1"/>
       <c r="K94" s="29"/>
       <c r="L94" s="30"/>
       <c r="M94" s="31"/>
     </row>
-    <row r="95" spans="4:13" ht="13" thickBot="1">
+    <row r="95" spans="1:16" ht="13" thickBot="1">
       <c r="D95" s="1"/>
       <c r="K95" s="29"/>
       <c r="L95" s="30"/>
       <c r="M95" s="31"/>
     </row>
-    <row r="96" spans="4:13" ht="13" thickBot="1">
+    <row r="96" spans="1:16" ht="13" thickBot="1">
       <c r="D96" s="1"/>
       <c r="K96" s="29"/>
       <c r="L96" s="30"/>
       <c r="M96" s="31"/>
     </row>
-    <row r="97" spans="4:13" ht="13" thickBot="1">
+    <row r="97" spans="4:13" ht="12.5">
       <c r="D97" s="1"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="30"/>
-      <c r="M97" s="31"/>
-    </row>
-    <row r="98" spans="4:13" ht="13" thickBot="1">
+      <c r="K97" s="32"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="34"/>
+    </row>
+    <row r="98" spans="4:13" ht="17.5">
       <c r="D98" s="1"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="31"/>
-    </row>
-    <row r="99" spans="4:13" ht="12.5">
+      <c r="K98" s="35"/>
+    </row>
+    <row r="99" spans="4:13" ht="13.5" thickBot="1">
       <c r="D99" s="1"/>
-      <c r="K99" s="32"/>
-      <c r="L99" s="33"/>
-      <c r="M99" s="34"/>
-    </row>
-    <row r="100" spans="4:13" ht="17.5">
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="37"/>
+    </row>
+    <row r="100" spans="4:13" ht="13" thickBot="1">
       <c r="D100" s="1"/>
-      <c r="K100" s="35"/>
-    </row>
-    <row r="101" spans="4:13" ht="13.5" thickBot="1">
+      <c r="K100" s="29"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="31"/>
+    </row>
+    <row r="101" spans="4:13" ht="13" thickBot="1">
       <c r="D101" s="1"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="37"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="31"/>
     </row>
     <row r="102" spans="4:13" ht="13" thickBot="1">
       <c r="D102" s="1"/>
@@ -3119,101 +3265,77 @@
       <c r="L105" s="30"/>
       <c r="M105" s="31"/>
     </row>
-    <row r="106" spans="4:13" ht="13" thickBot="1">
+    <row r="106" spans="4:13" ht="12.5">
       <c r="D106" s="1"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="30"/>
-      <c r="M106" s="31"/>
-    </row>
-    <row r="107" spans="4:13" ht="13" thickBot="1">
+      <c r="K106" s="32"/>
+      <c r="L106" s="33"/>
+      <c r="M106" s="34"/>
+    </row>
+    <row r="107" spans="4:13" ht="17.5">
       <c r="D107" s="1"/>
-      <c r="K107" s="29"/>
-      <c r="L107" s="30"/>
-      <c r="M107" s="31"/>
-    </row>
-    <row r="108" spans="4:13" ht="13" thickBot="1">
+      <c r="K107" s="35"/>
+    </row>
+    <row r="108" spans="4:13" ht="12.5">
       <c r="D108" s="1"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="30"/>
-      <c r="M108" s="31"/>
-    </row>
-    <row r="109" spans="4:13" ht="13" thickBot="1">
+    </row>
+    <row r="109" spans="4:13" ht="12.5">
       <c r="D109" s="1"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="30"/>
-      <c r="M109" s="31"/>
-    </row>
-    <row r="110" spans="4:13" ht="13" thickBot="1">
+    </row>
+    <row r="110" spans="4:13" ht="12.5">
       <c r="D110" s="1"/>
-      <c r="K110" s="29"/>
-      <c r="L110" s="30"/>
-      <c r="M110" s="31"/>
-    </row>
-    <row r="111" spans="4:13" ht="13" thickBot="1">
+    </row>
+    <row r="111" spans="4:13" ht="12.5">
       <c r="D111" s="1"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="30"/>
-      <c r="M111" s="31"/>
-    </row>
-    <row r="112" spans="4:13" ht="13" thickBot="1">
+    </row>
+    <row r="112" spans="4:13" ht="12.5">
       <c r="D112" s="1"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="30"/>
-      <c r="M112" s="31"/>
-    </row>
-    <row r="113" spans="4:13" ht="13" thickBot="1">
+    </row>
+    <row r="113" spans="4:4" ht="12.5">
       <c r="D113" s="1"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="30"/>
-      <c r="M113" s="31"/>
-    </row>
-    <row r="114" spans="4:13" ht="12.5">
+    </row>
+    <row r="114" spans="4:4" ht="12.5">
       <c r="D114" s="1"/>
-      <c r="K114" s="32"/>
-      <c r="L114" s="33"/>
-      <c r="M114" s="34"/>
-    </row>
-    <row r="115" spans="4:13" ht="17.5">
+    </row>
+    <row r="115" spans="4:4" ht="12.5">
       <c r="D115" s="1"/>
-      <c r="K115" s="35"/>
-    </row>
-    <row r="116" spans="4:13" ht="12.5">
+    </row>
+    <row r="116" spans="4:4" ht="12.5">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:13" ht="12.5">
+    <row r="117" spans="4:4" ht="12.5">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:13" ht="12.5">
+    <row r="118" spans="4:4" ht="12.5">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:13" ht="12.5">
+    <row r="119" spans="4:4" ht="12.5">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:13" ht="12.5">
+    <row r="120" spans="4:4" ht="12.5">
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="4:13" ht="12.5">
+    <row r="121" spans="4:4" ht="12.5">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:13" ht="12.5">
+    <row r="122" spans="4:4" ht="12.5">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:13" ht="12.5">
+    <row r="123" spans="4:4" ht="12.5">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:13" ht="12.5">
+    <row r="124" spans="4:4" ht="12.5">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:13" ht="12.5">
+    <row r="125" spans="4:4" ht="12.5">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:13" ht="12.5">
+    <row r="126" spans="4:4" ht="12.5">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:13" ht="12.5">
+    <row r="127" spans="4:4" ht="12.5">
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="4:13" ht="12.5">
+    <row r="128" spans="4:4" ht="12.5">
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="4:4" ht="12.5">
@@ -5874,6 +5996,13 @@
     <hyperlink ref="D78" r:id="rId77" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{6C51A91B-0113-4D36-8273-5A11F727D432}"/>
     <hyperlink ref="D79" r:id="rId78" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{EA23932D-3986-4C97-B822-3ED39C12BEB2}"/>
     <hyperlink ref="D80" r:id="rId79" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882017-bf2c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{8C9DAA29-B2C3-4154-988A-2610D1E736DF}"/>
+    <hyperlink ref="D81" r:id="rId80" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882035-b9b1&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{B0361F52-3C3C-4F10-BD61-6F30D0C4270A}"/>
+    <hyperlink ref="D82" r:id="rId81" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882035-b9b1&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{86B73045-0309-4FB0-8FFF-4D6349170C72}"/>
+    <hyperlink ref="D83" r:id="rId82" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882035-b9b1&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{3C5C6F70-689D-41EE-B39E-3C2C69F63BA3}"/>
+    <hyperlink ref="D84" r:id="rId83" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882035-b9b1&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{ED1A34E7-CD53-470F-891B-1146E637DC24}"/>
+    <hyperlink ref="D85" r:id="rId84" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882035-b9b1&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{45D6D310-DADC-4381-B2D2-A615EB03EC32}"/>
+    <hyperlink ref="D86" r:id="rId85" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882035-b9b1&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{544AFA65-65E9-4A27-8884-266EBDC55798}"/>
+    <hyperlink ref="D87" r:id="rId86" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882035-b9b1&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{55935CFD-4378-40EB-9635-8E1DFB085FAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72729F37-F11F-49A7-9C3E-9E4A91BD849B}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7157760A-5EE8-42F4-AB5B-965938722FA7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="34">
   <si>
     <t>Opponent</t>
   </si>
@@ -120,6 +120,9 @@
   <si>
     <t>Newington</t>
   </si>
+  <si>
+    <t>Wethersifield</t>
+  </si>
 </sst>
 </file>
 
@@ -136,6 +139,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,44 +147,52 @@
       <sz val="10"/>
       <color rgb="FF13293F"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC1329"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF009CE3"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006399"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF661329"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF009CE3"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -637,8 +649,8 @@
   </sheetPr>
   <dimension ref="A1:Q987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" topLeftCell="B74" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85:P85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3086,7 +3098,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="13" thickBot="1">
+    <row r="85" spans="1:16" ht="13.5" thickBot="1">
       <c r="A85" s="28" t="s">
         <v>32</v>
       </c>
@@ -3111,6 +3123,10 @@
       <c r="H85" s="31">
         <v>2.11</v>
       </c>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
     </row>
     <row r="86" spans="1:16" ht="13" thickBot="1">
       <c r="A86" s="28" t="s">
@@ -3138,7 +3154,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="12.5">
+    <row r="87" spans="1:16" ht="13" thickBot="1">
       <c r="A87" s="28" t="s">
         <v>32</v>
       </c>
@@ -3164,178 +3180,364 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="12.5">
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:16" ht="17.5">
-      <c r="D89" s="1"/>
-      <c r="K89" s="35"/>
-    </row>
-    <row r="90" spans="1:16" ht="13.5" thickBot="1">
-      <c r="D90" s="1"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="37"/>
+    <row r="88" spans="1:16" ht="13" thickBot="1">
+      <c r="A88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="1">
+        <v>11</v>
+      </c>
+      <c r="C88" s="32">
+        <v>1</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="40">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F88" s="41">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G88" s="34">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H88" s="34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="13" thickBot="1">
+      <c r="A89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="1">
+        <v>11</v>
+      </c>
+      <c r="C89" s="29">
+        <v>10</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="F89" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="G89" s="31">
+        <v>0</v>
+      </c>
+      <c r="H89" s="31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="13" thickBot="1">
+      <c r="A90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" s="1">
+        <v>11</v>
+      </c>
+      <c r="C90" s="29">
+        <v>11</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="F90" s="39">
+        <v>0.2</v>
+      </c>
+      <c r="G90" s="31">
+        <v>0</v>
+      </c>
+      <c r="H90" s="31">
+        <v>4.67</v>
+      </c>
     </row>
     <row r="91" spans="1:16" ht="13" thickBot="1">
-      <c r="D91" s="1"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="31"/>
+      <c r="A91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" s="1">
+        <v>11</v>
+      </c>
+      <c r="C91" s="29">
+        <v>13</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="38">
+        <v>0</v>
+      </c>
+      <c r="F91" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="G91" s="31">
+        <v>0</v>
+      </c>
+      <c r="H91" s="31">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="92" spans="1:16" ht="13" thickBot="1">
-      <c r="D92" s="1"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="30"/>
-      <c r="M92" s="31"/>
-    </row>
-    <row r="93" spans="1:16" ht="13" thickBot="1">
-      <c r="D93" s="1"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="30"/>
-      <c r="M93" s="31"/>
-    </row>
-    <row r="94" spans="1:16" ht="13" thickBot="1">
-      <c r="D94" s="1"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="30"/>
-      <c r="M94" s="31"/>
+      <c r="A92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="1">
+        <v>11</v>
+      </c>
+      <c r="C92" s="29">
+        <v>3</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="F92" s="39">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G92" s="31">
+        <v>0</v>
+      </c>
+      <c r="H92" s="31">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="18" thickBot="1">
+      <c r="A93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="1">
+        <v>11</v>
+      </c>
+      <c r="C93" s="29">
+        <v>5</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="38">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F93" s="39">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G93" s="31">
+        <v>0</v>
+      </c>
+      <c r="H93" s="31">
+        <v>1.72</v>
+      </c>
+      <c r="J93" s="35"/>
+    </row>
+    <row r="94" spans="1:16" ht="13.5" thickBot="1">
+      <c r="A94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" s="1">
+        <v>11</v>
+      </c>
+      <c r="C94" s="29">
+        <v>14</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="38">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F94" s="39">
+        <v>0</v>
+      </c>
+      <c r="G94" s="31">
+        <v>0</v>
+      </c>
+      <c r="H94" s="31">
+        <v>1.75</v>
+      </c>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="37"/>
     </row>
     <row r="95" spans="1:16" ht="13" thickBot="1">
       <c r="D95" s="1"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="30"/>
-      <c r="M95" s="31"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="34"/>
     </row>
     <row r="96" spans="1:16" ht="13" thickBot="1">
       <c r="D96" s="1"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="30"/>
-      <c r="M96" s="31"/>
-    </row>
-    <row r="97" spans="4:13" ht="12.5">
+      <c r="J96" s="29"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="31"/>
+    </row>
+    <row r="97" spans="4:12" ht="13" thickBot="1">
       <c r="D97" s="1"/>
-      <c r="K97" s="32"/>
-      <c r="L97" s="33"/>
-      <c r="M97" s="34"/>
-    </row>
-    <row r="98" spans="4:13" ht="17.5">
+      <c r="J97" s="29"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="31"/>
+    </row>
+    <row r="98" spans="4:12" ht="13" thickBot="1">
       <c r="D98" s="1"/>
-      <c r="K98" s="35"/>
-    </row>
-    <row r="99" spans="4:13" ht="13.5" thickBot="1">
+      <c r="J98" s="29"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="31"/>
+    </row>
+    <row r="99" spans="4:12" ht="13" thickBot="1">
       <c r="D99" s="1"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="37"/>
-    </row>
-    <row r="100" spans="4:13" ht="13" thickBot="1">
+      <c r="J99" s="29"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="31"/>
+    </row>
+    <row r="100" spans="4:12" ht="13" thickBot="1">
       <c r="D100" s="1"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="31"/>
-    </row>
-    <row r="101" spans="4:13" ht="13" thickBot="1">
+      <c r="J100" s="29"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="31"/>
+    </row>
+    <row r="101" spans="4:12" ht="12.5">
       <c r="D101" s="1"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="30"/>
-      <c r="M101" s="31"/>
-    </row>
-    <row r="102" spans="4:13" ht="13" thickBot="1">
+      <c r="J101" s="29"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="31"/>
+    </row>
+    <row r="102" spans="4:12" ht="17.5">
       <c r="D102" s="1"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="30"/>
-      <c r="M102" s="31"/>
-    </row>
-    <row r="103" spans="4:13" ht="13" thickBot="1">
+      <c r="J102" s="35"/>
+    </row>
+    <row r="103" spans="4:12" ht="13.5" thickBot="1">
       <c r="D103" s="1"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="31"/>
-    </row>
-    <row r="104" spans="4:13" ht="13" thickBot="1">
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="37"/>
+    </row>
+    <row r="104" spans="4:12" ht="13" thickBot="1">
       <c r="D104" s="1"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="30"/>
-      <c r="M104" s="31"/>
-    </row>
-    <row r="105" spans="4:13" ht="13" thickBot="1">
+      <c r="J104" s="32"/>
+      <c r="K104" s="33"/>
+      <c r="L104" s="34"/>
+    </row>
+    <row r="105" spans="4:12" ht="13" thickBot="1">
       <c r="D105" s="1"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="30"/>
-      <c r="M105" s="31"/>
-    </row>
-    <row r="106" spans="4:13" ht="12.5">
+      <c r="J105" s="29"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="31"/>
+    </row>
+    <row r="106" spans="4:12" ht="13" thickBot="1">
       <c r="D106" s="1"/>
-      <c r="K106" s="32"/>
-      <c r="L106" s="33"/>
-      <c r="M106" s="34"/>
-    </row>
-    <row r="107" spans="4:13" ht="17.5">
+      <c r="J106" s="29"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="31"/>
+    </row>
+    <row r="107" spans="4:12" ht="13" thickBot="1">
       <c r="D107" s="1"/>
-      <c r="K107" s="35"/>
-    </row>
-    <row r="108" spans="4:13" ht="12.5">
+      <c r="J107" s="29"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="31"/>
+    </row>
+    <row r="108" spans="4:12" ht="13" thickBot="1">
       <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="4:13" ht="12.5">
+      <c r="J108" s="29"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="31"/>
+    </row>
+    <row r="109" spans="4:12" ht="13" thickBot="1">
       <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="4:13" ht="12.5">
+      <c r="J109" s="29"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="31"/>
+    </row>
+    <row r="110" spans="4:12" ht="12.5">
       <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="4:13" ht="12.5">
+      <c r="J110" s="29"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="31"/>
+    </row>
+    <row r="111" spans="4:12" ht="17.5">
       <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="4:13" ht="12.5">
+      <c r="J111" s="35"/>
+    </row>
+    <row r="112" spans="4:12" ht="13.5" thickBot="1">
       <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="4:4" ht="12.5">
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
+      <c r="L112" s="37"/>
+    </row>
+    <row r="113" spans="4:12" ht="13" thickBot="1">
       <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="4:4" ht="12.5">
+      <c r="J113" s="32"/>
+      <c r="K113" s="33"/>
+      <c r="L113" s="34"/>
+    </row>
+    <row r="114" spans="4:12" ht="13" thickBot="1">
       <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="4:4" ht="12.5">
+      <c r="J114" s="29"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="31"/>
+    </row>
+    <row r="115" spans="4:12" ht="13" thickBot="1">
       <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="4:4" ht="12.5">
+      <c r="J115" s="29"/>
+      <c r="K115" s="30"/>
+      <c r="L115" s="31"/>
+    </row>
+    <row r="116" spans="4:12" ht="13" thickBot="1">
       <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="4:4" ht="12.5">
+      <c r="J116" s="29"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="31"/>
+    </row>
+    <row r="117" spans="4:12" ht="13" thickBot="1">
       <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="4:4" ht="12.5">
+      <c r="J117" s="29"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="31"/>
+    </row>
+    <row r="118" spans="4:12" ht="13" thickBot="1">
       <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="4:4" ht="12.5">
+      <c r="J118" s="29"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="31"/>
+    </row>
+    <row r="119" spans="4:12" ht="12.5">
       <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="4:4" ht="12.5">
+      <c r="J119" s="29"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="31"/>
+    </row>
+    <row r="120" spans="4:12" ht="17.5">
       <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="4:4" ht="12.5">
+      <c r="J120" s="35"/>
+    </row>
+    <row r="121" spans="4:12" ht="12.5">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:4" ht="12.5">
+    <row r="122" spans="4:12" ht="12.5">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:4" ht="12.5">
+    <row r="123" spans="4:12" ht="12.5">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:4" ht="12.5">
+    <row r="124" spans="4:12" ht="12.5">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:4" ht="12.5">
+    <row r="125" spans="4:12" ht="12.5">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:4" ht="12.5">
+    <row r="126" spans="4:12" ht="12.5">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:4" ht="12.5">
+    <row r="127" spans="4:12" ht="12.5">
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="4:4" ht="12.5">
+    <row r="128" spans="4:12" ht="12.5">
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="4:4" ht="12.5">
@@ -6003,6 +6205,13 @@
     <hyperlink ref="D85" r:id="rId84" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882035-b9b1&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{45D6D310-DADC-4381-B2D2-A615EB03EC32}"/>
     <hyperlink ref="D86" r:id="rId85" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882035-b9b1&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{544AFA65-65E9-4A27-8884-266EBDC55798}"/>
     <hyperlink ref="D87" r:id="rId86" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882035-b9b1&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{55935CFD-4378-40EB-9635-8E1DFB085FAF}"/>
+    <hyperlink ref="D88" r:id="rId87" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882041-380c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{FACA8E7A-B6CF-44AB-90B3-92AB04CEAE67}"/>
+    <hyperlink ref="D89" r:id="rId88" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882041-380c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{6E958071-45A0-4869-B24C-560A43DA4CFB}"/>
+    <hyperlink ref="D90" r:id="rId89" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882041-380c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{0F8D35ED-8646-45FE-835E-642020CD27A0}"/>
+    <hyperlink ref="D91" r:id="rId90" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882041-380c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{89793CAF-EC35-4149-893E-A1E20538A83C}"/>
+    <hyperlink ref="D92" r:id="rId91" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882041-380c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{4E1BD4F4-4D87-47BC-99AB-B238D24317CF}"/>
+    <hyperlink ref="D93" r:id="rId92" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882041-380c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{B8B76359-6325-4FE5-A166-1B59EA820D80}"/>
+    <hyperlink ref="D94" r:id="rId93" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882041-380c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{83C659F4-D47C-42E8-BE9D-B6991A0A7230}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7157760A-5EE8-42F4-AB5B-965938722FA7}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3C80410-0F55-43CA-8AB3-81435332DD72}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="35">
   <si>
     <t>Opponent</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Wethersifield</t>
+  </si>
+  <si>
+    <t>Hall</t>
   </si>
 </sst>
 </file>
@@ -649,8 +652,8 @@
   </sheetPr>
   <dimension ref="A1:Q987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B74" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85:P85"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="K91" sqref="K91:Q160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3258,7 +3261,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="13" thickBot="1">
+    <row r="91" spans="1:16" ht="13.5" thickBot="1">
       <c r="A91" s="1" t="s">
         <v>33</v>
       </c>
@@ -3283,6 +3286,12 @@
       <c r="H91" s="31">
         <v>0.33</v>
       </c>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
     </row>
     <row r="92" spans="1:16" ht="13" thickBot="1">
       <c r="A92" s="1" t="s">
@@ -3363,181 +3372,345 @@
         <v>1.75</v>
       </c>
       <c r="J94" s="36"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="37"/>
     </row>
     <row r="95" spans="1:16" ht="13" thickBot="1">
-      <c r="D95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="1">
+        <v>12</v>
+      </c>
+      <c r="C95" s="29">
+        <v>1</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="38">
+        <v>0.182</v>
+      </c>
+      <c r="F95" s="39">
+        <v>0.154</v>
+      </c>
+      <c r="G95" s="31">
+        <v>0</v>
+      </c>
+      <c r="H95" s="31">
+        <v>0.21</v>
+      </c>
       <c r="J95" s="32"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="34"/>
     </row>
     <row r="96" spans="1:16" ht="13" thickBot="1">
-      <c r="D96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="1">
+        <v>12</v>
+      </c>
+      <c r="C96" s="29">
+        <v>10</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="F96" s="39">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G96" s="31">
+        <v>1</v>
+      </c>
+      <c r="H96" s="31">
+        <v>0.79</v>
+      </c>
       <c r="J96" s="29"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="31"/>
-    </row>
-    <row r="97" spans="4:12" ht="13" thickBot="1">
-      <c r="D97" s="1"/>
+    </row>
+    <row r="97" spans="1:13" ht="13" thickBot="1">
+      <c r="A97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" s="1">
+        <v>12</v>
+      </c>
+      <c r="C97" s="29">
+        <v>11</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="38">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F97" s="39">
+        <v>0.223</v>
+      </c>
+      <c r="G97" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="H97" s="31">
+        <v>1.63</v>
+      </c>
       <c r="J97" s="29"/>
-      <c r="K97" s="30"/>
-      <c r="L97" s="31"/>
-    </row>
-    <row r="98" spans="4:12" ht="13" thickBot="1">
-      <c r="D98" s="1"/>
+    </row>
+    <row r="98" spans="1:13" ht="13" thickBot="1">
+      <c r="A98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="1">
+        <v>12</v>
+      </c>
+      <c r="C98" s="29">
+        <v>3</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F98" s="39">
+        <v>0.253</v>
+      </c>
+      <c r="G98" s="31">
+        <v>1</v>
+      </c>
+      <c r="H98" s="31">
+        <v>2.56</v>
+      </c>
       <c r="J98" s="29"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="31"/>
-    </row>
-    <row r="99" spans="4:12" ht="13" thickBot="1">
-      <c r="D99" s="1"/>
+    </row>
+    <row r="99" spans="1:13" ht="18" thickBot="1">
+      <c r="A99" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="1">
+        <v>12</v>
+      </c>
+      <c r="C99" s="29">
+        <v>5</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="38">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F99" s="39">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="G99" s="31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H99" s="31">
+        <v>0.69</v>
+      </c>
       <c r="J99" s="29"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="31"/>
-    </row>
-    <row r="100" spans="4:12" ht="13" thickBot="1">
-      <c r="D100" s="1"/>
+      <c r="K99" s="35"/>
+    </row>
+    <row r="100" spans="1:13" ht="13.5" thickBot="1">
+      <c r="A100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" s="1">
+        <v>12</v>
+      </c>
+      <c r="C100" s="29">
+        <v>14</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="38">
+        <v>0</v>
+      </c>
+      <c r="F100" s="39">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="G100" s="31">
+        <v>2</v>
+      </c>
+      <c r="H100" s="31">
+        <v>0.27</v>
+      </c>
       <c r="J100" s="29"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="31"/>
-    </row>
-    <row r="101" spans="4:12" ht="12.5">
-      <c r="D101" s="1"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="37"/>
+    </row>
+    <row r="101" spans="1:13" ht="13" thickBot="1">
+      <c r="A101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="1">
+        <v>12</v>
+      </c>
+      <c r="C101" s="32">
+        <v>13</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="40">
+        <v>1</v>
+      </c>
+      <c r="F101" s="41">
+        <v>0</v>
+      </c>
+      <c r="G101" s="34">
+        <v>0</v>
+      </c>
+      <c r="H101" s="34">
+        <v>1.5</v>
+      </c>
       <c r="J101" s="29"/>
-      <c r="K101" s="30"/>
-      <c r="L101" s="31"/>
-    </row>
-    <row r="102" spans="4:12" ht="17.5">
+      <c r="K101" s="29"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="31"/>
+    </row>
+    <row r="102" spans="1:13" ht="18" thickBot="1">
       <c r="D102" s="1"/>
       <c r="J102" s="35"/>
-    </row>
-    <row r="103" spans="4:12" ht="13.5" thickBot="1">
+      <c r="K102" s="29"/>
+      <c r="L102" s="30"/>
+      <c r="M102" s="31"/>
+    </row>
+    <row r="103" spans="1:13" ht="13.5" thickBot="1">
       <c r="D103" s="1"/>
       <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="37"/>
-    </row>
-    <row r="104" spans="4:12" ht="13" thickBot="1">
+      <c r="K103" s="29"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="31"/>
+    </row>
+    <row r="104" spans="1:13" ht="13" thickBot="1">
       <c r="D104" s="1"/>
       <c r="J104" s="32"/>
-      <c r="K104" s="33"/>
-      <c r="L104" s="34"/>
-    </row>
-    <row r="105" spans="4:12" ht="13" thickBot="1">
+      <c r="K104" s="29"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="31"/>
+    </row>
+    <row r="105" spans="1:13" ht="13" thickBot="1">
       <c r="D105" s="1"/>
       <c r="J105" s="29"/>
-      <c r="K105" s="30"/>
-      <c r="L105" s="31"/>
-    </row>
-    <row r="106" spans="4:12" ht="13" thickBot="1">
+      <c r="K105" s="29"/>
+      <c r="L105" s="30"/>
+      <c r="M105" s="31"/>
+    </row>
+    <row r="106" spans="1:13" ht="13" thickBot="1">
       <c r="D106" s="1"/>
       <c r="J106" s="29"/>
-      <c r="K106" s="30"/>
-      <c r="L106" s="31"/>
-    </row>
-    <row r="107" spans="4:12" ht="13" thickBot="1">
+      <c r="K106" s="29"/>
+      <c r="L106" s="30"/>
+      <c r="M106" s="31"/>
+    </row>
+    <row r="107" spans="1:13" ht="13" thickBot="1">
       <c r="D107" s="1"/>
       <c r="J107" s="29"/>
-      <c r="K107" s="30"/>
-      <c r="L107" s="31"/>
-    </row>
-    <row r="108" spans="4:12" ht="13" thickBot="1">
+      <c r="K107" s="32"/>
+      <c r="L107" s="33"/>
+      <c r="M107" s="34"/>
+    </row>
+    <row r="108" spans="1:13" ht="18" thickBot="1">
       <c r="D108" s="1"/>
       <c r="J108" s="29"/>
-      <c r="K108" s="30"/>
-      <c r="L108" s="31"/>
-    </row>
-    <row r="109" spans="4:12" ht="13" thickBot="1">
+      <c r="K108" s="35"/>
+    </row>
+    <row r="109" spans="1:13" ht="13.5" thickBot="1">
       <c r="D109" s="1"/>
       <c r="J109" s="29"/>
-      <c r="K109" s="30"/>
-      <c r="L109" s="31"/>
-    </row>
-    <row r="110" spans="4:12" ht="12.5">
+      <c r="K109" s="36"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="37"/>
+    </row>
+    <row r="110" spans="1:13" ht="13" thickBot="1">
       <c r="D110" s="1"/>
       <c r="J110" s="29"/>
-      <c r="K110" s="30"/>
-      <c r="L110" s="31"/>
-    </row>
-    <row r="111" spans="4:12" ht="17.5">
+      <c r="K110" s="29"/>
+      <c r="L110" s="30"/>
+      <c r="M110" s="31"/>
+    </row>
+    <row r="111" spans="1:13" ht="18" thickBot="1">
       <c r="D111" s="1"/>
       <c r="J111" s="35"/>
-    </row>
-    <row r="112" spans="4:12" ht="13.5" thickBot="1">
+      <c r="K111" s="29"/>
+      <c r="L111" s="30"/>
+      <c r="M111" s="31"/>
+    </row>
+    <row r="112" spans="1:13" ht="13.5" thickBot="1">
       <c r="D112" s="1"/>
       <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
-      <c r="L112" s="37"/>
-    </row>
-    <row r="113" spans="4:12" ht="13" thickBot="1">
+      <c r="K112" s="29"/>
+      <c r="L112" s="30"/>
+      <c r="M112" s="31"/>
+    </row>
+    <row r="113" spans="4:13" ht="13" thickBot="1">
       <c r="D113" s="1"/>
       <c r="J113" s="32"/>
-      <c r="K113" s="33"/>
-      <c r="L113" s="34"/>
-    </row>
-    <row r="114" spans="4:12" ht="13" thickBot="1">
+      <c r="K113" s="29"/>
+      <c r="L113" s="30"/>
+      <c r="M113" s="31"/>
+    </row>
+    <row r="114" spans="4:13" ht="13" thickBot="1">
       <c r="D114" s="1"/>
       <c r="J114" s="29"/>
-      <c r="K114" s="30"/>
-      <c r="L114" s="31"/>
-    </row>
-    <row r="115" spans="4:12" ht="13" thickBot="1">
+      <c r="K114" s="29"/>
+      <c r="L114" s="30"/>
+      <c r="M114" s="31"/>
+    </row>
+    <row r="115" spans="4:13" ht="13" thickBot="1">
       <c r="D115" s="1"/>
       <c r="J115" s="29"/>
-      <c r="K115" s="30"/>
-      <c r="L115" s="31"/>
-    </row>
-    <row r="116" spans="4:12" ht="13" thickBot="1">
+      <c r="K115" s="29"/>
+      <c r="L115" s="30"/>
+      <c r="M115" s="31"/>
+    </row>
+    <row r="116" spans="4:13" ht="13" thickBot="1">
       <c r="D116" s="1"/>
       <c r="J116" s="29"/>
-      <c r="K116" s="30"/>
-      <c r="L116" s="31"/>
-    </row>
-    <row r="117" spans="4:12" ht="13" thickBot="1">
+      <c r="K116" s="32"/>
+      <c r="L116" s="33"/>
+      <c r="M116" s="34"/>
+    </row>
+    <row r="117" spans="4:13" ht="18" thickBot="1">
       <c r="D117" s="1"/>
       <c r="J117" s="29"/>
-      <c r="K117" s="30"/>
-      <c r="L117" s="31"/>
-    </row>
-    <row r="118" spans="4:12" ht="13" thickBot="1">
+      <c r="K117" s="35"/>
+    </row>
+    <row r="118" spans="4:13" ht="13" thickBot="1">
       <c r="D118" s="1"/>
       <c r="J118" s="29"/>
-      <c r="K118" s="30"/>
-      <c r="L118" s="31"/>
-    </row>
-    <row r="119" spans="4:12" ht="12.5">
+    </row>
+    <row r="119" spans="4:13" ht="12.5">
       <c r="D119" s="1"/>
       <c r="J119" s="29"/>
-      <c r="K119" s="30"/>
-      <c r="L119" s="31"/>
-    </row>
-    <row r="120" spans="4:12" ht="17.5">
+    </row>
+    <row r="120" spans="4:13" ht="17.5">
       <c r="D120" s="1"/>
       <c r="J120" s="35"/>
     </row>
-    <row r="121" spans="4:12" ht="12.5">
+    <row r="121" spans="4:13" ht="12.5">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:12" ht="12.5">
+    <row r="122" spans="4:13" ht="12.5">
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="4:12" ht="12.5">
+    <row r="123" spans="4:13" ht="12.5">
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="4:12" ht="12.5">
+    <row r="124" spans="4:13" ht="12.5">
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="4:12" ht="12.5">
+    <row r="125" spans="4:13" ht="12.5">
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="4:12" ht="12.5">
+    <row r="126" spans="4:13" ht="12.5">
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="4:12" ht="12.5">
+    <row r="127" spans="4:13" ht="12.5">
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="4:12" ht="12.5">
+    <row r="128" spans="4:13" ht="12.5">
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="4:4" ht="12.5">
@@ -6212,6 +6385,13 @@
     <hyperlink ref="D92" r:id="rId91" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882041-380c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{4E1BD4F4-4D87-47BC-99AB-B238D24317CF}"/>
     <hyperlink ref="D93" r:id="rId92" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882041-380c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{B8B76359-6325-4FE5-A166-1B59EA820D80}"/>
     <hyperlink ref="D94" r:id="rId93" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882041-380c&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{83C659F4-D47C-42E8-BE9D-B6991A0A7230}"/>
+    <hyperlink ref="D95" r:id="rId94" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882057-d75d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{290419BA-6E4A-420D-A444-9E8328730350}"/>
+    <hyperlink ref="D96" r:id="rId95" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882057-d75d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{AA6EAA50-23AA-4CC7-85DE-4121BB9DD8E7}"/>
+    <hyperlink ref="D97" r:id="rId96" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882057-d75d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{BF1082C5-8B70-4336-997B-9589CEB051B3}"/>
+    <hyperlink ref="D98" r:id="rId97" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882057-d75d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{C42380F4-083E-483E-9D31-133D4E2CCBC2}"/>
+    <hyperlink ref="D99" r:id="rId98" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882057-d75d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{06C520D1-78A0-4279-9FED-CAB00B75F277}"/>
+    <hyperlink ref="D100" r:id="rId99" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882057-d75d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{8F7B8EC5-C18E-45EC-A951-D410FF8ED863}"/>
+    <hyperlink ref="D101" r:id="rId100" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882057-d75d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{05C4C79F-420B-49B9-B46A-2203E7D7840E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3C80410-0F55-43CA-8AB3-81435332DD72}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F23FFFD3-BABF-4311-9C55-1452D9A4E1B6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="39">
   <si>
     <t>Opponent</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>Hall</t>
+  </si>
+  <si>
+    <t>Windsor</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Four Factors</t>
   </si>
 </sst>
 </file>
@@ -326,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -425,6 +437,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,8 +667,8 @@
   </sheetPr>
   <dimension ref="A1:Q987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="K91" sqref="K91:Q160"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B102" sqref="A102:B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3427,7 +3442,7 @@
       </c>
       <c r="J96" s="29"/>
     </row>
-    <row r="97" spans="1:13" ht="13" thickBot="1">
+    <row r="97" spans="1:15" ht="13" thickBot="1">
       <c r="A97" s="1" t="s">
         <v>34</v>
       </c>
@@ -3454,7 +3469,7 @@
       </c>
       <c r="J97" s="29"/>
     </row>
-    <row r="98" spans="1:13" ht="13" thickBot="1">
+    <row r="98" spans="1:15" ht="13" thickBot="1">
       <c r="A98" s="1" t="s">
         <v>34</v>
       </c>
@@ -3481,7 +3496,7 @@
       </c>
       <c r="J98" s="29"/>
     </row>
-    <row r="99" spans="1:13" ht="18" thickBot="1">
+    <row r="99" spans="1:15" ht="18" thickBot="1">
       <c r="A99" s="1" t="s">
         <v>34</v>
       </c>
@@ -3509,7 +3524,7 @@
       <c r="J99" s="29"/>
       <c r="K99" s="35"/>
     </row>
-    <row r="100" spans="1:13" ht="13.5" thickBot="1">
+    <row r="100" spans="1:15" ht="13.5" thickBot="1">
       <c r="A100" s="1" t="s">
         <v>34</v>
       </c>
@@ -3539,7 +3554,7 @@
       <c r="L100" s="36"/>
       <c r="M100" s="37"/>
     </row>
-    <row r="101" spans="1:13" ht="13" thickBot="1">
+    <row r="101" spans="1:15" ht="13" thickBot="1">
       <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
@@ -3569,149 +3584,418 @@
       <c r="L101" s="30"/>
       <c r="M101" s="31"/>
     </row>
-    <row r="102" spans="1:13" ht="18" thickBot="1">
-      <c r="D102" s="1"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="30"/>
-      <c r="M102" s="31"/>
-    </row>
-    <row r="103" spans="1:13" ht="13.5" thickBot="1">
-      <c r="D103" s="1"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="31"/>
-    </row>
-    <row r="104" spans="1:13" ht="13" thickBot="1">
-      <c r="D104" s="1"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="30"/>
-      <c r="M104" s="31"/>
-    </row>
-    <row r="105" spans="1:13" ht="13" thickBot="1">
-      <c r="D105" s="1"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="30"/>
-      <c r="M105" s="31"/>
-    </row>
-    <row r="106" spans="1:13" ht="13" thickBot="1">
-      <c r="D106" s="1"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="30"/>
-      <c r="M106" s="31"/>
-    </row>
-    <row r="107" spans="1:13" ht="13" thickBot="1">
-      <c r="D107" s="1"/>
-      <c r="J107" s="29"/>
-      <c r="K107" s="32"/>
-      <c r="L107" s="33"/>
-      <c r="M107" s="34"/>
-    </row>
-    <row r="108" spans="1:13" ht="18" thickBot="1">
-      <c r="D108" s="1"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="35"/>
-    </row>
-    <row r="109" spans="1:13" ht="13.5" thickBot="1">
+    <row r="102" spans="1:15" ht="13.5" thickBot="1">
+      <c r="A102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" s="1">
+        <v>13</v>
+      </c>
+      <c r="C102" s="29">
+        <v>11</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="38">
+        <v>1</v>
+      </c>
+      <c r="F102" s="39">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="G102" s="31">
+        <v>2</v>
+      </c>
+      <c r="H102" s="34">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J102" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K102" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="O102" s="42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="13" thickBot="1">
+      <c r="A103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B103" s="1">
+        <v>13</v>
+      </c>
+      <c r="C103" s="29">
+        <v>5</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="38">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F103" s="39">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G103" s="31">
+        <v>1.57</v>
+      </c>
+      <c r="H103" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="13" thickBot="1">
+      <c r="A104" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" s="1">
+        <v>13</v>
+      </c>
+      <c r="C104" s="29">
+        <v>14</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="38">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F104" s="39">
+        <v>0</v>
+      </c>
+      <c r="G104" s="31">
+        <v>0.43</v>
+      </c>
+      <c r="H104" s="34">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="13" thickBot="1">
+      <c r="A105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" s="1">
+        <v>13</v>
+      </c>
+      <c r="C105" s="29">
+        <v>10</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="38">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F105" s="39">
+        <v>0</v>
+      </c>
+      <c r="G105" s="31">
+        <v>0.17</v>
+      </c>
+      <c r="H105" s="34">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="13" thickBot="1">
+      <c r="A106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" s="1">
+        <v>13</v>
+      </c>
+      <c r="C106" s="29">
+        <v>1</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="F106" s="39">
+        <v>0</v>
+      </c>
+      <c r="G106" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="H106" s="34">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="13" thickBot="1">
+      <c r="A107" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" s="1">
+        <v>13</v>
+      </c>
+      <c r="C107" s="29">
+        <v>3</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="38">
+        <v>0.188</v>
+      </c>
+      <c r="F107" s="39">
+        <v>0.217</v>
+      </c>
+      <c r="G107" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="H107" s="34">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="12.5">
+      <c r="A108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" s="1">
+        <v>13</v>
+      </c>
+      <c r="C108" s="32">
+        <v>13</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="40">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F108" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="G108" s="34">
+        <v>0</v>
+      </c>
+      <c r="H108" s="34">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="12.5">
       <c r="D109" s="1"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="36"/>
-      <c r="L109" s="36"/>
-      <c r="M109" s="37"/>
-    </row>
-    <row r="110" spans="1:13" ht="13" thickBot="1">
+    </row>
+    <row r="110" spans="1:15" ht="17.5">
       <c r="D110" s="1"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29"/>
-      <c r="L110" s="30"/>
-      <c r="M110" s="31"/>
-    </row>
-    <row r="111" spans="1:13" ht="18" thickBot="1">
+      <c r="J110" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="13.5" thickBot="1">
       <c r="D111" s="1"/>
-      <c r="J111" s="35"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="30"/>
-      <c r="M111" s="31"/>
-    </row>
-    <row r="112" spans="1:13" ht="13.5" thickBot="1">
+      <c r="J111" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K111" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L111" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="13" thickBot="1">
       <c r="D112" s="1"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="30"/>
-      <c r="M112" s="31"/>
-    </row>
-    <row r="113" spans="4:13" ht="13" thickBot="1">
+      <c r="J112" s="29">
+        <v>11</v>
+      </c>
+      <c r="K112" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L112" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="4:12" ht="13" thickBot="1">
       <c r="D113" s="1"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="29"/>
-      <c r="L113" s="30"/>
-      <c r="M113" s="31"/>
-    </row>
-    <row r="114" spans="4:13" ht="13" thickBot="1">
+      <c r="J113" s="29">
+        <v>5</v>
+      </c>
+      <c r="K113" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L113" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="4:12" ht="13" thickBot="1">
       <c r="D114" s="1"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="30"/>
-      <c r="M114" s="31"/>
-    </row>
-    <row r="115" spans="4:13" ht="13" thickBot="1">
+      <c r="J114" s="29">
+        <v>14</v>
+      </c>
+      <c r="K114" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="4:12" ht="13" thickBot="1">
       <c r="D115" s="1"/>
-      <c r="J115" s="29"/>
-      <c r="K115" s="29"/>
-      <c r="L115" s="30"/>
-      <c r="M115" s="31"/>
-    </row>
-    <row r="116" spans="4:13" ht="13" thickBot="1">
+      <c r="J115" s="29">
+        <v>10</v>
+      </c>
+      <c r="K115" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="4:12" ht="13" thickBot="1">
       <c r="D116" s="1"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="32"/>
-      <c r="L116" s="33"/>
-      <c r="M116" s="34"/>
-    </row>
-    <row r="117" spans="4:13" ht="18" thickBot="1">
+      <c r="J116" s="29">
+        <v>1</v>
+      </c>
+      <c r="K116" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L116" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="4:12" ht="13" thickBot="1">
       <c r="D117" s="1"/>
-      <c r="J117" s="29"/>
-      <c r="K117" s="35"/>
-    </row>
-    <row r="118" spans="4:13" ht="13" thickBot="1">
+      <c r="J117" s="29">
+        <v>3</v>
+      </c>
+      <c r="K117" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L117" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="4:12" ht="12.5">
       <c r="D118" s="1"/>
-      <c r="J118" s="29"/>
-    </row>
-    <row r="119" spans="4:13" ht="12.5">
+      <c r="J118" s="32">
+        <v>13</v>
+      </c>
+      <c r="K118" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L118" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="4:12" ht="17.5">
       <c r="D119" s="1"/>
-      <c r="J119" s="29"/>
-    </row>
-    <row r="120" spans="4:13" ht="17.5">
+      <c r="J119" s="35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="4:12" ht="13.5" thickBot="1">
       <c r="D120" s="1"/>
-      <c r="J120" s="35"/>
-    </row>
-    <row r="121" spans="4:13" ht="12.5">
+      <c r="J120" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K120" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L120" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="4:12" ht="13" thickBot="1">
       <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="4:13" ht="12.5">
+      <c r="J121" s="29">
+        <v>11</v>
+      </c>
+      <c r="K121" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L121" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="4:12" ht="13" thickBot="1">
       <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="4:13" ht="12.5">
+      <c r="J122" s="29">
+        <v>5</v>
+      </c>
+      <c r="K122" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L122" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="4:12" ht="13" thickBot="1">
       <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="4:13" ht="12.5">
+      <c r="J123" s="29">
+        <v>14</v>
+      </c>
+      <c r="K123" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L123" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="4:12" ht="13" thickBot="1">
       <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="4:13" ht="12.5">
+      <c r="J124" s="29">
+        <v>10</v>
+      </c>
+      <c r="K124" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L124" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="4:12" ht="13" thickBot="1">
       <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="4:13" ht="12.5">
+      <c r="J125" s="29">
+        <v>1</v>
+      </c>
+      <c r="K125" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L125" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="4:12" ht="13" thickBot="1">
       <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="4:13" ht="12.5">
+      <c r="J126" s="29">
+        <v>3</v>
+      </c>
+      <c r="K126" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L126" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="4:12" ht="12.5">
       <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="4:13" ht="12.5">
+      <c r="J127" s="32">
+        <v>13</v>
+      </c>
+      <c r="K127" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L127" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="4:12" ht="17.5">
       <c r="D128" s="1"/>
+      <c r="J128" s="35" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="129" spans="4:4" ht="12.5">
       <c r="D129" s="1"/>
@@ -6392,6 +6676,27 @@
     <hyperlink ref="D99" r:id="rId98" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882057-d75d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{06C520D1-78A0-4279-9FED-CAB00B75F277}"/>
     <hyperlink ref="D100" r:id="rId99" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882057-d75d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{8F7B8EC5-C18E-45EC-A951-D410FF8ED863}"/>
     <hyperlink ref="D101" r:id="rId100" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882057-d75d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{05C4C79F-420B-49B9-B46A-2203E7D7840E}"/>
+    <hyperlink ref="D102" r:id="rId101" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{965AC522-41B2-4081-A189-5FE5FD41EC61}"/>
+    <hyperlink ref="D103" r:id="rId102" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{8E1CEE89-609A-4EFB-8014-12258576796F}"/>
+    <hyperlink ref="D104" r:id="rId103" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{34B410C1-222A-4F16-9560-D2D6DF1A68F6}"/>
+    <hyperlink ref="D105" r:id="rId104" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{F388DF5B-EC62-49E1-970D-88ABE1205504}"/>
+    <hyperlink ref="D106" r:id="rId105" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{E4BB4ABE-5F2F-4C00-90E4-7DE23DD73A16}"/>
+    <hyperlink ref="D107" r:id="rId106" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{AD1EAB75-7459-470B-8493-DBFA3A5B4008}"/>
+    <hyperlink ref="D108" r:id="rId107" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{AA9E6038-84DD-4E84-881F-DFAEFF643BB2}"/>
+    <hyperlink ref="K112" r:id="rId108" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{2F7A5877-3ABC-4E76-A51E-B80B4C503199}"/>
+    <hyperlink ref="K113" r:id="rId109" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{19E3F458-EEEA-453D-BBE3-839092F7E4F1}"/>
+    <hyperlink ref="K114" r:id="rId110" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{4E30A203-2DFB-46DF-A6A5-B11F8E183FA4}"/>
+    <hyperlink ref="K115" r:id="rId111" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{3D32BD00-1A94-4FE5-AE95-180EFCF43192}"/>
+    <hyperlink ref="K116" r:id="rId112" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{FCC6AC8A-61E3-485E-BA34-C0BD2E4C70A0}"/>
+    <hyperlink ref="K117" r:id="rId113" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{8E1F679D-0A25-43B2-BC1F-8A9560DD2F16}"/>
+    <hyperlink ref="K118" r:id="rId114" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{AB9568F7-1511-434C-B75A-28DE7C159950}"/>
+    <hyperlink ref="K121" r:id="rId115" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{D52FFF7E-54EC-4D03-831B-06D24322A0FE}"/>
+    <hyperlink ref="K122" r:id="rId116" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{D5187415-CF15-4F31-BFA6-A546E9431B5D}"/>
+    <hyperlink ref="K123" r:id="rId117" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{757AA134-C95C-4982-B9DB-FD4526581C1C}"/>
+    <hyperlink ref="K124" r:id="rId118" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{F410B21F-ABBD-4F78-BA4A-D707FD040A67}"/>
+    <hyperlink ref="K125" r:id="rId119" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{E4B2EEFB-7399-4EFE-9719-3EF78D7BA6C2}"/>
+    <hyperlink ref="K126" r:id="rId120" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{B0A45AB4-6881-46FF-9850-3DAE43E19A2F}"/>
+    <hyperlink ref="K127" r:id="rId121" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{2CE8FD5D-7AE0-418C-AD8A-26C44E14F782}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F23FFFD3-BABF-4311-9C55-1452D9A4E1B6}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C489959-DFF1-4AC4-B60A-65C268AF5C88}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="38">
   <si>
     <t>Opponent</t>
   </si>
@@ -130,13 +130,10 @@
     <t>Windsor</t>
   </si>
   <si>
-    <t>#</t>
+    <t>Tobin Grande</t>
   </si>
   <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>Four Factors</t>
+    <t>Avon</t>
   </si>
 </sst>
 </file>
@@ -338,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -437,9 +434,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,10 +659,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q987"/>
+  <dimension ref="A1:Q986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B102" sqref="A102:B108"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3442,7 +3436,7 @@
       </c>
       <c r="J96" s="29"/>
     </row>
-    <row r="97" spans="1:15" ht="13" thickBot="1">
+    <row r="97" spans="1:13" ht="13" thickBot="1">
       <c r="A97" s="1" t="s">
         <v>34</v>
       </c>
@@ -3469,7 +3463,7 @@
       </c>
       <c r="J97" s="29"/>
     </row>
-    <row r="98" spans="1:15" ht="13" thickBot="1">
+    <row r="98" spans="1:13" ht="13" thickBot="1">
       <c r="A98" s="1" t="s">
         <v>34</v>
       </c>
@@ -3496,7 +3490,7 @@
       </c>
       <c r="J98" s="29"/>
     </row>
-    <row r="99" spans="1:15" ht="18" thickBot="1">
+    <row r="99" spans="1:13" ht="18" thickBot="1">
       <c r="A99" s="1" t="s">
         <v>34</v>
       </c>
@@ -3524,7 +3518,7 @@
       <c r="J99" s="29"/>
       <c r="K99" s="35"/>
     </row>
-    <row r="100" spans="1:15" ht="13.5" thickBot="1">
+    <row r="100" spans="1:13" ht="13.5" thickBot="1">
       <c r="A100" s="1" t="s">
         <v>34</v>
       </c>
@@ -3554,7 +3548,7 @@
       <c r="L100" s="36"/>
       <c r="M100" s="37"/>
     </row>
-    <row r="101" spans="1:15" ht="13" thickBot="1">
+    <row r="101" spans="1:13" ht="13" thickBot="1">
       <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
@@ -3584,7 +3578,7 @@
       <c r="L101" s="30"/>
       <c r="M101" s="31"/>
     </row>
-    <row r="102" spans="1:15" ht="13.5" thickBot="1">
+    <row r="102" spans="1:13" ht="13" thickBot="1">
       <c r="A102" s="1" t="s">
         <v>35</v>
       </c>
@@ -3609,26 +3603,8 @@
       <c r="H102" s="34">
         <v>2.2200000000000002</v>
       </c>
-      <c r="J102" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K102" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="O102" s="42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="13" thickBot="1">
+    </row>
+    <row r="103" spans="1:13" ht="13" thickBot="1">
       <c r="A103" s="1" t="s">
         <v>35</v>
       </c>
@@ -3654,7 +3630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="13" thickBot="1">
+    <row r="104" spans="1:13" ht="13" thickBot="1">
       <c r="A104" s="1" t="s">
         <v>35</v>
       </c>
@@ -3680,7 +3656,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="13" thickBot="1">
+    <row r="105" spans="1:13" ht="13" thickBot="1">
       <c r="A105" s="1" t="s">
         <v>35</v>
       </c>
@@ -3706,7 +3682,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="13" thickBot="1">
+    <row r="106" spans="1:13" ht="13" thickBot="1">
       <c r="A106" s="1" t="s">
         <v>35</v>
       </c>
@@ -3732,7 +3708,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="13" thickBot="1">
+    <row r="107" spans="1:13" ht="13" thickBot="1">
       <c r="A107" s="1" t="s">
         <v>35</v>
       </c>
@@ -3758,7 +3734,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="12.5">
+    <row r="108" spans="1:13" ht="13" thickBot="1">
       <c r="A108" s="1" t="s">
         <v>35</v>
       </c>
@@ -3784,313 +3760,509 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="12.5">
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:15" ht="17.5">
-      <c r="D110" s="1"/>
-      <c r="J110" s="35" t="s">
+    <row r="109" spans="1:13" ht="13" thickBot="1">
+      <c r="A109" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="1">
+        <v>14</v>
+      </c>
+      <c r="C109" s="29">
+        <v>10</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="38">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F109" s="39">
+        <v>0</v>
+      </c>
+      <c r="G109" s="31">
+        <v>0.27</v>
+      </c>
+      <c r="H109" s="31">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="13" thickBot="1">
+      <c r="A110" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" s="1">
+        <v>14</v>
+      </c>
+      <c r="C110" s="29">
+        <v>1</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="38">
+        <v>0</v>
+      </c>
+      <c r="F110" s="39">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G110" s="31">
+        <v>0</v>
+      </c>
+      <c r="H110" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="13" thickBot="1">
+      <c r="A111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" s="1">
+        <v>14</v>
+      </c>
+      <c r="C111" s="29">
+        <v>13</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G111" s="31">
+        <v>0</v>
+      </c>
+      <c r="H111" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="13" thickBot="1">
+      <c r="A112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="1">
+        <v>14</v>
+      </c>
+      <c r="C112" s="29">
+        <v>11</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="38">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F112" s="39">
+        <v>0</v>
+      </c>
+      <c r="G112" s="31">
+        <v>0.22</v>
+      </c>
+      <c r="H112" s="31">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="13" thickBot="1">
+      <c r="A113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="1">
+        <v>14</v>
+      </c>
+      <c r="C113" s="29">
+        <v>33</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="38">
+        <v>1</v>
+      </c>
+      <c r="F113" s="39">
+        <v>0</v>
+      </c>
+      <c r="G113" s="31">
+        <v>0</v>
+      </c>
+      <c r="H113" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="18" thickBot="1">
+      <c r="A114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="1">
+        <v>14</v>
+      </c>
+      <c r="C114" s="29">
+        <v>24</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F114" s="39">
+        <v>1</v>
+      </c>
+      <c r="G114" s="31">
+        <v>0</v>
+      </c>
+      <c r="H114" s="31">
+        <v>0</v>
+      </c>
+      <c r="J114" s="35"/>
+    </row>
+    <row r="115" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="1">
+        <v>14</v>
+      </c>
+      <c r="C115" s="29">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" ht="13.5" thickBot="1">
-      <c r="D111" s="1"/>
-      <c r="J111" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K111" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L111" s="37" t="s">
+      <c r="D115" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="38">
+        <v>0.111</v>
+      </c>
+      <c r="F115" s="39">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G115" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="H115" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+      <c r="L115" s="37"/>
+    </row>
+    <row r="116" spans="1:12" ht="13" thickBot="1">
+      <c r="A116" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" ht="13" thickBot="1">
-      <c r="D112" s="1"/>
-      <c r="J112" s="29">
-        <v>11</v>
-      </c>
-      <c r="K112" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L112" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="4:12" ht="13" thickBot="1">
-      <c r="D113" s="1"/>
-      <c r="J113" s="29">
+      <c r="B116" s="1">
+        <v>14</v>
+      </c>
+      <c r="C116" s="29">
         <v>5</v>
       </c>
-      <c r="K113" s="30" t="s">
+      <c r="D116" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L113" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="4:12" ht="13" thickBot="1">
-      <c r="D114" s="1"/>
-      <c r="J114" s="29">
+      <c r="E116" s="38">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F116" s="39">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G116" s="31">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H116" s="31">
+        <v>2.93</v>
+      </c>
+      <c r="J116" s="29"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="31"/>
+    </row>
+    <row r="117" spans="1:12" ht="13" thickBot="1">
+      <c r="A117" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B117" s="1">
         <v>14</v>
       </c>
-      <c r="K114" s="30" t="s">
+      <c r="C117" s="29">
         <v>14</v>
       </c>
-      <c r="L114" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="4:12" ht="13" thickBot="1">
-      <c r="D115" s="1"/>
-      <c r="J115" s="29">
-        <v>10</v>
-      </c>
-      <c r="K115" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="L115" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="4:12" ht="13" thickBot="1">
-      <c r="D116" s="1"/>
-      <c r="J116" s="29">
-        <v>1</v>
-      </c>
-      <c r="K116" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L116" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="4:12" ht="13" thickBot="1">
-      <c r="D117" s="1"/>
-      <c r="J117" s="29">
-        <v>3</v>
-      </c>
-      <c r="K117" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L117" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="4:12" ht="12.5">
-      <c r="D118" s="1"/>
-      <c r="J118" s="32">
-        <v>13</v>
-      </c>
-      <c r="K118" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L118" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="4:12" ht="17.5">
-      <c r="D119" s="1"/>
-      <c r="J119" s="35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="4:12" ht="13.5" thickBot="1">
-      <c r="D120" s="1"/>
-      <c r="J120" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K120" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="L120" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="4:12" ht="13" thickBot="1">
+      <c r="D117" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="38">
+        <v>0.875</v>
+      </c>
+      <c r="F117" s="39">
+        <v>0</v>
+      </c>
+      <c r="G117" s="31">
+        <v>1.25</v>
+      </c>
+      <c r="H117" s="31">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J117" s="29"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="31"/>
+    </row>
+    <row r="118" spans="1:12" ht="13" thickBot="1">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="31"/>
+    </row>
+    <row r="119" spans="1:12" ht="13" thickBot="1">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="31"/>
+    </row>
+    <row r="120" spans="1:12" ht="13" thickBot="1">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="30"/>
+      <c r="L120" s="31"/>
+    </row>
+    <row r="121" spans="1:12" ht="13" thickBot="1">
       <c r="D121" s="1"/>
-      <c r="J121" s="29">
-        <v>11</v>
-      </c>
-      <c r="K121" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L121" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="4:12" ht="13" thickBot="1">
+      <c r="J121" s="29"/>
+      <c r="K121" s="30"/>
+      <c r="L121" s="31"/>
+    </row>
+    <row r="122" spans="1:12" ht="13" thickBot="1">
       <c r="D122" s="1"/>
-      <c r="J122" s="29">
-        <v>5</v>
-      </c>
-      <c r="K122" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="L122" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="4:12" ht="13" thickBot="1">
+      <c r="J122" s="29"/>
+      <c r="K122" s="30"/>
+      <c r="L122" s="31"/>
+    </row>
+    <row r="123" spans="1:12" ht="13" thickBot="1">
       <c r="D123" s="1"/>
-      <c r="J123" s="29">
-        <v>14</v>
-      </c>
-      <c r="K123" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="L123" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="4:12" ht="13" thickBot="1">
+      <c r="J123" s="29"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="31"/>
+    </row>
+    <row r="124" spans="1:12" ht="13" thickBot="1">
       <c r="D124" s="1"/>
-      <c r="J124" s="29">
-        <v>10</v>
-      </c>
-      <c r="K124" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="L124" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="4:12" ht="13" thickBot="1">
+      <c r="J124" s="29"/>
+      <c r="K124" s="30"/>
+      <c r="L124" s="31"/>
+    </row>
+    <row r="125" spans="1:12" ht="13" thickBot="1">
       <c r="D125" s="1"/>
-      <c r="J125" s="29">
-        <v>1</v>
-      </c>
-      <c r="K125" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="L125" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="4:12" ht="13" thickBot="1">
+      <c r="J125" s="29"/>
+      <c r="K125" s="30"/>
+      <c r="L125" s="31"/>
+    </row>
+    <row r="126" spans="1:12" ht="13" thickBot="1">
       <c r="D126" s="1"/>
-      <c r="J126" s="29">
-        <v>3</v>
-      </c>
-      <c r="K126" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L126" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="4:12" ht="12.5">
+      <c r="J126" s="29"/>
+      <c r="K126" s="30"/>
+      <c r="L126" s="31"/>
+    </row>
+    <row r="127" spans="1:12" ht="12.5">
       <c r="D127" s="1"/>
-      <c r="J127" s="32">
-        <v>13</v>
-      </c>
-      <c r="K127" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L127" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="4:12" ht="17.5">
+      <c r="J127" s="32"/>
+      <c r="K127" s="33"/>
+      <c r="L127" s="34"/>
+    </row>
+    <row r="128" spans="1:12" ht="17.5">
       <c r="D128" s="1"/>
-      <c r="J128" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="129" spans="4:4" ht="12.5">
+      <c r="J128" s="35"/>
+    </row>
+    <row r="129" spans="4:12" ht="13.5" thickBot="1">
       <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="4:4" ht="12.5">
+      <c r="J129" s="36"/>
+      <c r="K129" s="36"/>
+      <c r="L129" s="37"/>
+    </row>
+    <row r="130" spans="4:12" ht="13" thickBot="1">
       <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="4:4" ht="12.5">
+      <c r="J130" s="29"/>
+      <c r="K130" s="30"/>
+      <c r="L130" s="31"/>
+    </row>
+    <row r="131" spans="4:12" ht="13" thickBot="1">
       <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="4:4" ht="12.5">
+      <c r="J131" s="29"/>
+      <c r="K131" s="30"/>
+      <c r="L131" s="31"/>
+    </row>
+    <row r="132" spans="4:12" ht="13" thickBot="1">
       <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="4:4" ht="12.5">
+      <c r="J132" s="29"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="31"/>
+    </row>
+    <row r="133" spans="4:12" ht="13" thickBot="1">
       <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="4:4" ht="12.5">
+      <c r="J133" s="29"/>
+      <c r="K133" s="30"/>
+      <c r="L133" s="31"/>
+    </row>
+    <row r="134" spans="4:12" ht="13" thickBot="1">
       <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="4:4" ht="12.5">
+      <c r="J134" s="29"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="31"/>
+    </row>
+    <row r="135" spans="4:12" ht="13" thickBot="1">
       <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="4:4" ht="12.5">
+      <c r="J135" s="29"/>
+      <c r="K135" s="30"/>
+      <c r="L135" s="31"/>
+    </row>
+    <row r="136" spans="4:12" ht="13" thickBot="1">
       <c r="D136" s="1"/>
-    </row>
-    <row r="137" spans="4:4" ht="12.5">
+      <c r="J136" s="29"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="31"/>
+    </row>
+    <row r="137" spans="4:12" ht="13" thickBot="1">
       <c r="D137" s="1"/>
-    </row>
-    <row r="138" spans="4:4" ht="12.5">
+      <c r="J137" s="29"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="31"/>
+    </row>
+    <row r="138" spans="4:12" ht="13" thickBot="1">
       <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="4:4" ht="12.5">
+      <c r="J138" s="29"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="31"/>
+    </row>
+    <row r="139" spans="4:12" ht="13" thickBot="1">
       <c r="D139" s="1"/>
-    </row>
-    <row r="140" spans="4:4" ht="12.5">
+      <c r="J139" s="29"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="31"/>
+    </row>
+    <row r="140" spans="4:12" ht="13" thickBot="1">
       <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="4:4" ht="12.5">
+      <c r="J140" s="29"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="31"/>
+    </row>
+    <row r="141" spans="4:12" ht="12.5">
       <c r="D141" s="1"/>
-    </row>
-    <row r="142" spans="4:4" ht="12.5">
+      <c r="J141" s="32"/>
+      <c r="K141" s="33"/>
+      <c r="L141" s="34"/>
+    </row>
+    <row r="142" spans="4:12" ht="17.5">
       <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="4:4" ht="12.5">
+      <c r="J142" s="35"/>
+    </row>
+    <row r="143" spans="4:12" ht="13.5" thickBot="1">
       <c r="D143" s="1"/>
-    </row>
-    <row r="144" spans="4:4" ht="12.5">
+      <c r="J143" s="36"/>
+      <c r="K143" s="36"/>
+      <c r="L143" s="37"/>
+    </row>
+    <row r="144" spans="4:12" ht="13" thickBot="1">
       <c r="D144" s="1"/>
-    </row>
-    <row r="145" spans="4:4" ht="12.5">
+      <c r="J144" s="29"/>
+      <c r="K144" s="30"/>
+      <c r="L144" s="31"/>
+    </row>
+    <row r="145" spans="4:12" ht="13" thickBot="1">
       <c r="D145" s="1"/>
-    </row>
-    <row r="146" spans="4:4" ht="12.5">
+      <c r="J145" s="29"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="31"/>
+    </row>
+    <row r="146" spans="4:12" ht="13" thickBot="1">
       <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="4:4" ht="12.5">
+      <c r="J146" s="29"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="31"/>
+    </row>
+    <row r="147" spans="4:12" ht="13" thickBot="1">
       <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="4:4" ht="12.5">
+      <c r="J147" s="29"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="31"/>
+    </row>
+    <row r="148" spans="4:12" ht="13" thickBot="1">
       <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="4:4" ht="12.5">
+      <c r="J148" s="29"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="31"/>
+    </row>
+    <row r="149" spans="4:12" ht="13" thickBot="1">
       <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="4:4" ht="12.5">
+      <c r="J149" s="29"/>
+      <c r="K149" s="30"/>
+      <c r="L149" s="31"/>
+    </row>
+    <row r="150" spans="4:12" ht="13" thickBot="1">
       <c r="D150" s="1"/>
-    </row>
-    <row r="151" spans="4:4" ht="12.5">
+      <c r="J150" s="29"/>
+      <c r="K150" s="30"/>
+      <c r="L150" s="31"/>
+    </row>
+    <row r="151" spans="4:12" ht="13" thickBot="1">
       <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="4:4" ht="12.5">
+      <c r="J151" s="29"/>
+      <c r="K151" s="30"/>
+      <c r="L151" s="31"/>
+    </row>
+    <row r="152" spans="4:12" ht="13" thickBot="1">
       <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="4:4" ht="12.5">
+      <c r="J152" s="29"/>
+      <c r="K152" s="30"/>
+      <c r="L152" s="31"/>
+    </row>
+    <row r="153" spans="4:12" ht="13" thickBot="1">
       <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="4:4" ht="12.5">
+      <c r="J153" s="29"/>
+      <c r="K153" s="30"/>
+      <c r="L153" s="31"/>
+    </row>
+    <row r="154" spans="4:12" ht="13" thickBot="1">
       <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="4:4" ht="12.5">
+      <c r="J154" s="29"/>
+      <c r="K154" s="30"/>
+      <c r="L154" s="31"/>
+    </row>
+    <row r="155" spans="4:12" ht="12.5">
       <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="4:4" ht="12.5">
+      <c r="J155" s="32"/>
+      <c r="K155" s="33"/>
+      <c r="L155" s="34"/>
+    </row>
+    <row r="156" spans="4:12" ht="17.5">
       <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="4:4" ht="12.5">
+      <c r="J156" s="35"/>
+    </row>
+    <row r="157" spans="4:12" ht="12.5">
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="4:4" ht="12.5">
+    <row r="158" spans="4:12" ht="12.5">
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="4:4" ht="12.5">
+    <row r="159" spans="4:12" ht="12.5">
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="4:4" ht="12.5">
+    <row r="160" spans="4:12" ht="12.5">
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="4:4" ht="12.5">
@@ -6570,9 +6742,6 @@
     </row>
     <row r="986" spans="4:4" ht="12.5">
       <c r="D986" s="1"/>
-    </row>
-    <row r="987" spans="4:4" ht="12.5">
-      <c r="D987" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6683,20 +6852,15 @@
     <hyperlink ref="D106" r:id="rId105" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{E4BB4ABE-5F2F-4C00-90E4-7DE23DD73A16}"/>
     <hyperlink ref="D107" r:id="rId106" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{AD1EAB75-7459-470B-8493-DBFA3A5B4008}"/>
     <hyperlink ref="D108" r:id="rId107" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{AA9E6038-84DD-4E84-881F-DFAEFF643BB2}"/>
-    <hyperlink ref="K112" r:id="rId108" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{2F7A5877-3ABC-4E76-A51E-B80B4C503199}"/>
-    <hyperlink ref="K113" r:id="rId109" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{19E3F458-EEEA-453D-BBE3-839092F7E4F1}"/>
-    <hyperlink ref="K114" r:id="rId110" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{4E30A203-2DFB-46DF-A6A5-B11F8E183FA4}"/>
-    <hyperlink ref="K115" r:id="rId111" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{3D32BD00-1A94-4FE5-AE95-180EFCF43192}"/>
-    <hyperlink ref="K116" r:id="rId112" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{FCC6AC8A-61E3-485E-BA34-C0BD2E4C70A0}"/>
-    <hyperlink ref="K117" r:id="rId113" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{8E1F679D-0A25-43B2-BC1F-8A9560DD2F16}"/>
-    <hyperlink ref="K118" r:id="rId114" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{AB9568F7-1511-434C-B75A-28DE7C159950}"/>
-    <hyperlink ref="K121" r:id="rId115" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{D52FFF7E-54EC-4D03-831B-06D24322A0FE}"/>
-    <hyperlink ref="K122" r:id="rId116" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{D5187415-CF15-4F31-BFA6-A546E9431B5D}"/>
-    <hyperlink ref="K123" r:id="rId117" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{757AA134-C95C-4982-B9DB-FD4526581C1C}"/>
-    <hyperlink ref="K124" r:id="rId118" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{F410B21F-ABBD-4F78-BA4A-D707FD040A67}"/>
-    <hyperlink ref="K125" r:id="rId119" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{E4B2EEFB-7399-4EFE-9719-3EF78D7BA6C2}"/>
-    <hyperlink ref="K126" r:id="rId120" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{B0A45AB4-6881-46FF-9850-3DAE43E19A2F}"/>
-    <hyperlink ref="K127" r:id="rId121" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882063-5c9e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{2CE8FD5D-7AE0-418C-AD8A-26C44E14F782}"/>
+    <hyperlink ref="D109" r:id="rId108" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{9F70D082-070E-4B07-8FCA-921FB1460E01}"/>
+    <hyperlink ref="D110" r:id="rId109" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{72FA3A04-ECE2-4502-8532-CC589A5ED5DE}"/>
+    <hyperlink ref="D111" r:id="rId110" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{E467809C-A13F-4405-9A4D-162C00F96E2A}"/>
+    <hyperlink ref="D112" r:id="rId111" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{17500E53-9DC3-48C4-AB98-FEAF132676D2}"/>
+    <hyperlink ref="D113" r:id="rId112" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{82787189-7405-480F-B70B-73E027078815}"/>
+    <hyperlink ref="D114" r:id="rId113" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{34967A56-88B8-443F-9656-A4E51C1E626F}"/>
+    <hyperlink ref="D115" r:id="rId114" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{D2984ECA-3FA4-472A-B4DB-B1D921D38860}"/>
+    <hyperlink ref="D116" r:id="rId115" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{91888365-8AC3-4FAA-98D4-A86BCB76F858}"/>
+    <hyperlink ref="D117" r:id="rId116" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{4FD4F88C-F36F-4D00-B12B-5534033A5D1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C489959-DFF1-4AC4-B60A-65C268AF5C88}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD547CAD-D7B3-4A76-8938-922D6D542C8E}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="39">
   <si>
     <t>Opponent</t>
   </si>
@@ -130,10 +130,13 @@
     <t>Windsor</t>
   </si>
   <si>
-    <t>Tobin Grande</t>
+    <t>Avon</t>
   </si>
   <si>
-    <t>Avon</t>
+    <t>Conard</t>
+  </si>
+  <si>
+    <t>Tobin Grande</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q986"/>
+  <dimension ref="A1:Q985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:H120"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3436,7 +3439,7 @@
       </c>
       <c r="J96" s="29"/>
     </row>
-    <row r="97" spans="1:13" ht="13" thickBot="1">
+    <row r="97" spans="1:16" ht="13" thickBot="1">
       <c r="A97" s="1" t="s">
         <v>34</v>
       </c>
@@ -3463,7 +3466,7 @@
       </c>
       <c r="J97" s="29"/>
     </row>
-    <row r="98" spans="1:13" ht="13" thickBot="1">
+    <row r="98" spans="1:16" ht="13" thickBot="1">
       <c r="A98" s="1" t="s">
         <v>34</v>
       </c>
@@ -3490,7 +3493,7 @@
       </c>
       <c r="J98" s="29"/>
     </row>
-    <row r="99" spans="1:13" ht="18" thickBot="1">
+    <row r="99" spans="1:16" ht="18" thickBot="1">
       <c r="A99" s="1" t="s">
         <v>34</v>
       </c>
@@ -3518,7 +3521,7 @@
       <c r="J99" s="29"/>
       <c r="K99" s="35"/>
     </row>
-    <row r="100" spans="1:13" ht="13.5" thickBot="1">
+    <row r="100" spans="1:16" ht="13.5" thickBot="1">
       <c r="A100" s="1" t="s">
         <v>34</v>
       </c>
@@ -3548,7 +3551,7 @@
       <c r="L100" s="36"/>
       <c r="M100" s="37"/>
     </row>
-    <row r="101" spans="1:13" ht="13" thickBot="1">
+    <row r="101" spans="1:16" ht="13" thickBot="1">
       <c r="A101" s="1" t="s">
         <v>34</v>
       </c>
@@ -3578,7 +3581,7 @@
       <c r="L101" s="30"/>
       <c r="M101" s="31"/>
     </row>
-    <row r="102" spans="1:13" ht="13" thickBot="1">
+    <row r="102" spans="1:16" ht="13" thickBot="1">
       <c r="A102" s="1" t="s">
         <v>35</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="13" thickBot="1">
+    <row r="103" spans="1:16" ht="13" thickBot="1">
       <c r="A103" s="1" t="s">
         <v>35</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="13" thickBot="1">
+    <row r="104" spans="1:16" ht="13" thickBot="1">
       <c r="A104" s="1" t="s">
         <v>35</v>
       </c>
@@ -3656,7 +3659,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="13" thickBot="1">
+    <row r="105" spans="1:16" ht="13" thickBot="1">
       <c r="A105" s="1" t="s">
         <v>35</v>
       </c>
@@ -3682,7 +3685,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="13" thickBot="1">
+    <row r="106" spans="1:16" ht="13" thickBot="1">
       <c r="A106" s="1" t="s">
         <v>35</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="13" thickBot="1">
+    <row r="107" spans="1:16" ht="13" thickBot="1">
       <c r="A107" s="1" t="s">
         <v>35</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="13" thickBot="1">
+    <row r="108" spans="1:16" ht="13.5" thickBot="1">
       <c r="A108" s="1" t="s">
         <v>35</v>
       </c>
@@ -3759,10 +3762,14 @@
       <c r="H108" s="34">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="13" thickBot="1">
+      <c r="M108" s="37"/>
+      <c r="N108" s="37"/>
+      <c r="O108" s="37"/>
+      <c r="P108" s="37"/>
+    </row>
+    <row r="109" spans="1:16" ht="13" thickBot="1">
       <c r="A109" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B109" s="1">
         <v>14</v>
@@ -3786,9 +3793,9 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="13" thickBot="1">
+    <row r="110" spans="1:16" ht="13" thickBot="1">
       <c r="A110" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B110" s="1">
         <v>14</v>
@@ -3812,9 +3819,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="13" thickBot="1">
+    <row r="111" spans="1:16" ht="13" thickBot="1">
       <c r="A111" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B111" s="1">
         <v>14</v>
@@ -3838,9 +3845,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="13" thickBot="1">
+    <row r="112" spans="1:16" ht="13" thickBot="1">
       <c r="A112" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B112" s="1">
         <v>14</v>
@@ -3864,9 +3871,9 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="13" thickBot="1">
+    <row r="113" spans="1:15" ht="13" thickBot="1">
       <c r="A113" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B113" s="1">
         <v>14</v>
@@ -3890,294 +3897,635 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="18" thickBot="1">
+    <row r="114" spans="1:15" ht="13.5" thickBot="1">
       <c r="A114" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B114" s="1">
         <v>14</v>
       </c>
       <c r="C114" s="29">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D114" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="38">
+        <v>0.111</v>
+      </c>
+      <c r="F114" s="39">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G114" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="H114" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="J114" s="36"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="37"/>
+      <c r="O114" s="37"/>
+    </row>
+    <row r="115" spans="1:15" ht="13" thickBot="1">
+      <c r="A115" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E114" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F114" s="39">
-        <v>1</v>
-      </c>
-      <c r="G114" s="31">
-        <v>0</v>
-      </c>
-      <c r="H114" s="31">
-        <v>0</v>
-      </c>
-      <c r="J114" s="35"/>
-    </row>
-    <row r="115" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A115" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="B115" s="1">
         <v>14</v>
       </c>
       <c r="C115" s="29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E115" s="38">
-        <v>0.111</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F115" s="39">
-        <v>8.7999999999999995E-2</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="G115" s="31">
-        <v>0.33</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H115" s="31">
-        <v>0.75</v>
-      </c>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
-      <c r="L115" s="37"/>
-    </row>
-    <row r="116" spans="1:12" ht="13" thickBot="1">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="13" thickBot="1">
       <c r="A116" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B116" s="1">
         <v>14</v>
       </c>
       <c r="C116" s="29">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E116" s="38">
-        <v>0.66700000000000004</v>
+        <v>0.875</v>
       </c>
       <c r="F116" s="39">
-        <v>0.20899999999999999</v>
+        <v>0</v>
       </c>
       <c r="G116" s="31">
-        <v>0.56000000000000005</v>
+        <v>1.25</v>
       </c>
       <c r="H116" s="31">
-        <v>2.93</v>
-      </c>
-      <c r="J116" s="29"/>
-      <c r="K116" s="30"/>
-      <c r="L116" s="31"/>
-    </row>
-    <row r="117" spans="1:12" ht="13" thickBot="1">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="13" thickBot="1">
       <c r="A117" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B117" s="1">
+        <v>15</v>
+      </c>
+      <c r="C117" s="29">
+        <v>1</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="38">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F117" s="39">
+        <v>0</v>
+      </c>
+      <c r="G117" s="31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H117" s="31">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="13" thickBot="1">
+      <c r="A118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118" s="1">
+        <v>15</v>
+      </c>
+      <c r="C118" s="29">
+        <v>10</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="F118" s="39">
+        <v>0.252</v>
+      </c>
+      <c r="G118" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H118" s="31">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="13" thickBot="1">
+      <c r="A119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" s="1">
+        <v>15</v>
+      </c>
+      <c r="C119" s="29">
+        <v>11</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="38">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F119" s="39">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G119" s="31">
+        <v>1.22</v>
+      </c>
+      <c r="H119" s="31">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="13" thickBot="1">
+      <c r="A120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B120" s="1">
+        <v>15</v>
+      </c>
+      <c r="C120" s="29">
+        <v>3</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="F120" s="39">
+        <v>0</v>
+      </c>
+      <c r="G120" s="31">
+        <v>1</v>
+      </c>
+      <c r="H120" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="13" thickBot="1">
+      <c r="A121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" s="1">
+        <v>15</v>
+      </c>
+      <c r="C121" s="29">
+        <v>5</v>
+      </c>
+      <c r="D121" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="38">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="F121" s="39">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G121" s="31">
+        <v>0.78</v>
+      </c>
+      <c r="H121" s="31">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="13" thickBot="1">
+      <c r="A122" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" s="1">
+        <v>15</v>
+      </c>
+      <c r="C122" s="29">
         <v>14</v>
       </c>
-      <c r="C117" s="29">
+      <c r="D122" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D117" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117" s="38">
-        <v>0.875</v>
-      </c>
-      <c r="F117" s="39">
-        <v>0</v>
-      </c>
-      <c r="G117" s="31">
-        <v>1.25</v>
-      </c>
-      <c r="H117" s="31">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="J117" s="29"/>
-      <c r="K117" s="30"/>
-      <c r="L117" s="31"/>
-    </row>
-    <row r="118" spans="1:12" ht="13" thickBot="1">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="38"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="J118" s="29"/>
-      <c r="K118" s="30"/>
-      <c r="L118" s="31"/>
-    </row>
-    <row r="119" spans="1:12" ht="13" thickBot="1">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="30"/>
-      <c r="L119" s="31"/>
-    </row>
-    <row r="120" spans="1:12" ht="13" thickBot="1">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="34"/>
-      <c r="H120" s="34"/>
-      <c r="J120" s="29"/>
-      <c r="K120" s="30"/>
-      <c r="L120" s="31"/>
-    </row>
-    <row r="121" spans="1:12" ht="13" thickBot="1">
-      <c r="D121" s="1"/>
-      <c r="J121" s="29"/>
-      <c r="K121" s="30"/>
-      <c r="L121" s="31"/>
-    </row>
-    <row r="122" spans="1:12" ht="13" thickBot="1">
-      <c r="D122" s="1"/>
-      <c r="J122" s="29"/>
-      <c r="K122" s="30"/>
-      <c r="L122" s="31"/>
-    </row>
-    <row r="123" spans="1:12" ht="13" thickBot="1">
-      <c r="D123" s="1"/>
-      <c r="J123" s="29"/>
-      <c r="K123" s="30"/>
-      <c r="L123" s="31"/>
-    </row>
-    <row r="124" spans="1:12" ht="13" thickBot="1">
-      <c r="D124" s="1"/>
-      <c r="J124" s="29"/>
-      <c r="K124" s="30"/>
-      <c r="L124" s="31"/>
-    </row>
-    <row r="125" spans="1:12" ht="13" thickBot="1">
-      <c r="D125" s="1"/>
-      <c r="J125" s="29"/>
-      <c r="K125" s="30"/>
-      <c r="L125" s="31"/>
-    </row>
-    <row r="126" spans="1:12" ht="13" thickBot="1">
-      <c r="D126" s="1"/>
-      <c r="J126" s="29"/>
-      <c r="K126" s="30"/>
-      <c r="L126" s="31"/>
-    </row>
-    <row r="127" spans="1:12" ht="12.5">
-      <c r="D127" s="1"/>
-      <c r="J127" s="32"/>
-      <c r="K127" s="33"/>
-      <c r="L127" s="34"/>
-    </row>
-    <row r="128" spans="1:12" ht="17.5">
-      <c r="D128" s="1"/>
-      <c r="J128" s="35"/>
-    </row>
-    <row r="129" spans="4:12" ht="13.5" thickBot="1">
-      <c r="D129" s="1"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="36"/>
-      <c r="L129" s="37"/>
-    </row>
-    <row r="130" spans="4:12" ht="13" thickBot="1">
-      <c r="D130" s="1"/>
+      <c r="E122" s="38">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F122" s="39">
+        <v>0</v>
+      </c>
+      <c r="G122" s="31">
+        <v>0.67</v>
+      </c>
+      <c r="H122" s="31">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="13" thickBot="1">
+      <c r="A123" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" s="1">
+        <v>15</v>
+      </c>
+      <c r="C123" s="32">
+        <v>13</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="40">
+        <v>1</v>
+      </c>
+      <c r="F123" s="41">
+        <v>0</v>
+      </c>
+      <c r="G123" s="34">
+        <v>0</v>
+      </c>
+      <c r="H123" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="13" thickBot="1">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="1">
+        <v>16</v>
+      </c>
+      <c r="C124" s="29">
+        <v>10</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="F124" s="39">
+        <v>0</v>
+      </c>
+      <c r="G124" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H124" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="13" thickBot="1">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="1">
+        <v>16</v>
+      </c>
+      <c r="C125" s="29">
+        <v>1</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="38">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F125" s="39">
+        <v>0.154</v>
+      </c>
+      <c r="G125" s="31">
+        <v>0</v>
+      </c>
+      <c r="H125" s="31">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="18" thickBot="1">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="1">
+        <v>16</v>
+      </c>
+      <c r="C126" s="29">
+        <v>13</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F126" s="39">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="G126" s="31">
+        <v>1</v>
+      </c>
+      <c r="H126" s="31">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J126" s="35"/>
+    </row>
+    <row r="127" spans="1:15" ht="13.5" thickBot="1">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="1">
+        <v>16</v>
+      </c>
+      <c r="C127" s="29">
+        <v>11</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F127" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="G127" s="31">
+        <v>0</v>
+      </c>
+      <c r="H127" s="31">
+        <v>1.29</v>
+      </c>
+      <c r="J127" s="36"/>
+      <c r="K127" s="36"/>
+      <c r="L127" s="37"/>
+    </row>
+    <row r="128" spans="1:15" ht="13" thickBot="1">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <v>16</v>
+      </c>
+      <c r="C128" s="29">
+        <v>24</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G128" s="31">
+        <v>0</v>
+      </c>
+      <c r="H128" s="31">
+        <v>0</v>
+      </c>
+      <c r="J128" s="29"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="31"/>
+    </row>
+    <row r="129" spans="1:12" ht="13" thickBot="1">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1">
+        <v>16</v>
+      </c>
+      <c r="C129" s="29">
+        <v>3</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F129" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="G129" s="31">
+        <v>0</v>
+      </c>
+      <c r="H129" s="31">
+        <v>0.93</v>
+      </c>
+      <c r="J129" s="29"/>
+      <c r="K129" s="30"/>
+      <c r="L129" s="31"/>
+    </row>
+    <row r="130" spans="1:12" ht="13" thickBot="1">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="1">
+        <v>16</v>
+      </c>
+      <c r="C130" s="29">
+        <v>5</v>
+      </c>
+      <c r="D130" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="38">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="F130" s="39">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G130" s="31">
+        <v>0.31</v>
+      </c>
+      <c r="H130" s="31">
+        <v>1.53</v>
+      </c>
       <c r="J130" s="29"/>
       <c r="K130" s="30"/>
       <c r="L130" s="31"/>
     </row>
-    <row r="131" spans="4:12" ht="13" thickBot="1">
-      <c r="D131" s="1"/>
+    <row r="131" spans="1:12" ht="13" thickBot="1">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="1">
+        <v>16</v>
+      </c>
+      <c r="C131" s="29">
+        <v>14</v>
+      </c>
+      <c r="D131" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="38">
+        <v>0</v>
+      </c>
+      <c r="F131" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="G131" s="31">
+        <v>0</v>
+      </c>
+      <c r="H131" s="31">
+        <v>0.08</v>
+      </c>
       <c r="J131" s="29"/>
       <c r="K131" s="30"/>
       <c r="L131" s="31"/>
     </row>
-    <row r="132" spans="4:12" ht="13" thickBot="1">
-      <c r="D132" s="1"/>
+    <row r="132" spans="1:12" ht="13" thickBot="1">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="1">
+        <v>16</v>
+      </c>
+      <c r="C132" s="29">
+        <v>2</v>
+      </c>
+      <c r="D132" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="38">
+        <v>0</v>
+      </c>
+      <c r="F132" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="G132" s="31">
+        <v>0</v>
+      </c>
+      <c r="H132" s="31">
+        <v>0</v>
+      </c>
       <c r="J132" s="29"/>
       <c r="K132" s="30"/>
       <c r="L132" s="31"/>
     </row>
-    <row r="133" spans="4:12" ht="13" thickBot="1">
-      <c r="D133" s="1"/>
+    <row r="133" spans="1:12" ht="13" thickBot="1">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="1">
+        <v>16</v>
+      </c>
+      <c r="C133" s="29">
+        <v>0</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="38">
+        <v>0</v>
+      </c>
+      <c r="F133" s="39">
+        <v>0</v>
+      </c>
+      <c r="G133" s="31">
+        <v>0</v>
+      </c>
+      <c r="H133" s="31">
+        <v>0</v>
+      </c>
       <c r="J133" s="29"/>
       <c r="K133" s="30"/>
       <c r="L133" s="31"/>
     </row>
-    <row r="134" spans="4:12" ht="13" thickBot="1">
-      <c r="D134" s="1"/>
+    <row r="134" spans="1:12" ht="13" thickBot="1">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="1">
+        <v>16</v>
+      </c>
+      <c r="C134" s="29">
+        <v>4</v>
+      </c>
+      <c r="D134" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" s="38">
+        <v>0</v>
+      </c>
+      <c r="F134" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="G134" s="31">
+        <v>0</v>
+      </c>
+      <c r="H134" s="31">
+        <v>0.5</v>
+      </c>
       <c r="J134" s="29"/>
       <c r="K134" s="30"/>
       <c r="L134" s="31"/>
     </row>
-    <row r="135" spans="4:12" ht="13" thickBot="1">
+    <row r="135" spans="1:12" ht="13" thickBot="1">
       <c r="D135" s="1"/>
       <c r="J135" s="29"/>
       <c r="K135" s="30"/>
       <c r="L135" s="31"/>
     </row>
-    <row r="136" spans="4:12" ht="13" thickBot="1">
+    <row r="136" spans="1:12" ht="13" thickBot="1">
       <c r="D136" s="1"/>
       <c r="J136" s="29"/>
       <c r="K136" s="30"/>
       <c r="L136" s="31"/>
     </row>
-    <row r="137" spans="4:12" ht="13" thickBot="1">
+    <row r="137" spans="1:12" ht="13" thickBot="1">
       <c r="D137" s="1"/>
       <c r="J137" s="29"/>
       <c r="K137" s="30"/>
       <c r="L137" s="31"/>
     </row>
-    <row r="138" spans="4:12" ht="13" thickBot="1">
+    <row r="138" spans="1:12" ht="12.5">
       <c r="D138" s="1"/>
       <c r="J138" s="29"/>
       <c r="K138" s="30"/>
       <c r="L138" s="31"/>
     </row>
-    <row r="139" spans="4:12" ht="13" thickBot="1">
+    <row r="139" spans="1:12" ht="17.5">
       <c r="D139" s="1"/>
-      <c r="J139" s="29"/>
-      <c r="K139" s="30"/>
-      <c r="L139" s="31"/>
-    </row>
-    <row r="140" spans="4:12" ht="13" thickBot="1">
+      <c r="J139" s="35"/>
+    </row>
+    <row r="140" spans="1:12" ht="13.5" thickBot="1">
       <c r="D140" s="1"/>
-      <c r="J140" s="29"/>
-      <c r="K140" s="30"/>
-      <c r="L140" s="31"/>
-    </row>
-    <row r="141" spans="4:12" ht="12.5">
+      <c r="J140" s="36"/>
+      <c r="K140" s="36"/>
+      <c r="L140" s="37"/>
+    </row>
+    <row r="141" spans="1:12" ht="13" thickBot="1">
       <c r="D141" s="1"/>
-      <c r="J141" s="32"/>
-      <c r="K141" s="33"/>
-      <c r="L141" s="34"/>
-    </row>
-    <row r="142" spans="4:12" ht="17.5">
+      <c r="J141" s="29"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="31"/>
+    </row>
+    <row r="142" spans="1:12" ht="13" thickBot="1">
       <c r="D142" s="1"/>
-      <c r="J142" s="35"/>
-    </row>
-    <row r="143" spans="4:12" ht="13.5" thickBot="1">
+      <c r="J142" s="29"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="31"/>
+    </row>
+    <row r="143" spans="1:12" ht="13" thickBot="1">
       <c r="D143" s="1"/>
-      <c r="J143" s="36"/>
-      <c r="K143" s="36"/>
-      <c r="L143" s="37"/>
-    </row>
-    <row r="144" spans="4:12" ht="13" thickBot="1">
+      <c r="J143" s="29"/>
+      <c r="K143" s="30"/>
+      <c r="L143" s="31"/>
+    </row>
+    <row r="144" spans="1:12" ht="13" thickBot="1">
       <c r="D144" s="1"/>
       <c r="J144" s="29"/>
       <c r="K144" s="30"/>
@@ -4219,23 +4567,21 @@
       <c r="K150" s="30"/>
       <c r="L150" s="31"/>
     </row>
-    <row r="151" spans="4:12" ht="13" thickBot="1">
+    <row r="151" spans="4:12" ht="12.5">
       <c r="D151" s="1"/>
       <c r="J151" s="29"/>
       <c r="K151" s="30"/>
       <c r="L151" s="31"/>
     </row>
-    <row r="152" spans="4:12" ht="13" thickBot="1">
+    <row r="152" spans="4:12" ht="17.5">
       <c r="D152" s="1"/>
-      <c r="J152" s="29"/>
-      <c r="K152" s="30"/>
-      <c r="L152" s="31"/>
-    </row>
-    <row r="153" spans="4:12" ht="13" thickBot="1">
+      <c r="J152" s="35"/>
+    </row>
+    <row r="153" spans="4:12" ht="13.5" thickBot="1">
       <c r="D153" s="1"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="30"/>
-      <c r="L153" s="31"/>
+      <c r="J153" s="36"/>
+      <c r="K153" s="36"/>
+      <c r="L153" s="37"/>
     </row>
     <row r="154" spans="4:12" ht="13" thickBot="1">
       <c r="D154" s="1"/>
@@ -4243,74 +4589,101 @@
       <c r="K154" s="30"/>
       <c r="L154" s="31"/>
     </row>
-    <row r="155" spans="4:12" ht="12.5">
+    <row r="155" spans="4:12" ht="13" thickBot="1">
       <c r="D155" s="1"/>
-      <c r="J155" s="32"/>
-      <c r="K155" s="33"/>
-      <c r="L155" s="34"/>
-    </row>
-    <row r="156" spans="4:12" ht="17.5">
+      <c r="J155" s="29"/>
+      <c r="K155" s="30"/>
+      <c r="L155" s="31"/>
+    </row>
+    <row r="156" spans="4:12" ht="13" thickBot="1">
       <c r="D156" s="1"/>
-      <c r="J156" s="35"/>
-    </row>
-    <row r="157" spans="4:12" ht="12.5">
+      <c r="J156" s="29"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="31"/>
+    </row>
+    <row r="157" spans="4:12" ht="13" thickBot="1">
       <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="4:12" ht="12.5">
+      <c r="J157" s="29"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="31"/>
+    </row>
+    <row r="158" spans="4:12" ht="13" thickBot="1">
       <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="4:12" ht="12.5">
+      <c r="J158" s="29"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="31"/>
+    </row>
+    <row r="159" spans="4:12" ht="13" thickBot="1">
       <c r="D159" s="1"/>
-    </row>
-    <row r="160" spans="4:12" ht="12.5">
+      <c r="J159" s="29"/>
+      <c r="K159" s="30"/>
+      <c r="L159" s="31"/>
+    </row>
+    <row r="160" spans="4:12" ht="13" thickBot="1">
       <c r="D160" s="1"/>
-    </row>
-    <row r="161" spans="4:4" ht="12.5">
+      <c r="J160" s="29"/>
+      <c r="K160" s="30"/>
+      <c r="L160" s="31"/>
+    </row>
+    <row r="161" spans="4:12" ht="13" thickBot="1">
       <c r="D161" s="1"/>
-    </row>
-    <row r="162" spans="4:4" ht="12.5">
+      <c r="J161" s="29"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="31"/>
+    </row>
+    <row r="162" spans="4:12" ht="13" thickBot="1">
       <c r="D162" s="1"/>
-    </row>
-    <row r="163" spans="4:4" ht="12.5">
+      <c r="J162" s="29"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="31"/>
+    </row>
+    <row r="163" spans="4:12" ht="13" thickBot="1">
       <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="4:4" ht="12.5">
+      <c r="J163" s="29"/>
+      <c r="K163" s="30"/>
+      <c r="L163" s="31"/>
+    </row>
+    <row r="164" spans="4:12" ht="12.5">
       <c r="D164" s="1"/>
-    </row>
-    <row r="165" spans="4:4" ht="12.5">
+      <c r="J164" s="29"/>
+      <c r="K164" s="30"/>
+      <c r="L164" s="31"/>
+    </row>
+    <row r="165" spans="4:12" ht="17.5">
       <c r="D165" s="1"/>
-    </row>
-    <row r="166" spans="4:4" ht="12.5">
+      <c r="J165" s="35"/>
+    </row>
+    <row r="166" spans="4:12" ht="12.5">
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="4:4" ht="12.5">
+    <row r="167" spans="4:12" ht="12.5">
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="4:4" ht="12.5">
+    <row r="168" spans="4:12" ht="12.5">
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="4:4" ht="12.5">
+    <row r="169" spans="4:12" ht="12.5">
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="4:4" ht="12.5">
+    <row r="170" spans="4:12" ht="12.5">
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="4:4" ht="12.5">
+    <row r="171" spans="4:12" ht="12.5">
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="4:4" ht="12.5">
+    <row r="172" spans="4:12" ht="12.5">
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="4:4" ht="12.5">
+    <row r="173" spans="4:12" ht="12.5">
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="4:4" ht="12.5">
+    <row r="174" spans="4:12" ht="12.5">
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="4:4" ht="12.5">
+    <row r="175" spans="4:12" ht="12.5">
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="4:4" ht="12.5">
+    <row r="176" spans="4:12" ht="12.5">
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="4:4" ht="12.5">
@@ -6739,9 +7112,6 @@
     </row>
     <row r="985" spans="4:4" ht="12.5">
       <c r="D985" s="1"/>
-    </row>
-    <row r="986" spans="4:4" ht="12.5">
-      <c r="D986" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6857,10 +7227,27 @@
     <hyperlink ref="D111" r:id="rId110" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{E467809C-A13F-4405-9A4D-162C00F96E2A}"/>
     <hyperlink ref="D112" r:id="rId111" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{17500E53-9DC3-48C4-AB98-FEAF132676D2}"/>
     <hyperlink ref="D113" r:id="rId112" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{82787189-7405-480F-B70B-73E027078815}"/>
-    <hyperlink ref="D114" r:id="rId113" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{34967A56-88B8-443F-9656-A4E51C1E626F}"/>
-    <hyperlink ref="D115" r:id="rId114" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{D2984ECA-3FA4-472A-B4DB-B1D921D38860}"/>
-    <hyperlink ref="D116" r:id="rId115" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{91888365-8AC3-4FAA-98D4-A86BCB76F858}"/>
-    <hyperlink ref="D117" r:id="rId116" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{4FD4F88C-F36F-4D00-B12B-5534033A5D1E}"/>
+    <hyperlink ref="D114" r:id="rId113" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{D2984ECA-3FA4-472A-B4DB-B1D921D38860}"/>
+    <hyperlink ref="D115" r:id="rId114" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{91888365-8AC3-4FAA-98D4-A86BCB76F858}"/>
+    <hyperlink ref="D116" r:id="rId115" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882080-1110&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{4FD4F88C-F36F-4D00-B12B-5534033A5D1E}"/>
+    <hyperlink ref="D117" r:id="rId116" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882092-5a2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{9D0311DF-5441-43F1-9D84-8DD230A57B5E}"/>
+    <hyperlink ref="D118" r:id="rId117" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882092-5a2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{3E97DE67-1903-4BC3-84A8-95EEA6178B7A}"/>
+    <hyperlink ref="D119" r:id="rId118" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882092-5a2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{70C6EC96-3966-4759-B0A1-F0D633387580}"/>
+    <hyperlink ref="D120" r:id="rId119" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882092-5a2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{9004953C-5CF9-41C4-A60A-62EB4302CE78}"/>
+    <hyperlink ref="D121" r:id="rId120" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882092-5a2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{310CC893-8C32-4BE1-AFF3-3D4827F1729C}"/>
+    <hyperlink ref="D122" r:id="rId121" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882092-5a2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{A74DF92D-4338-4DB2-9543-CA58CFEB1E10}"/>
+    <hyperlink ref="D123" r:id="rId122" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882092-5a2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{4AEF1A8D-A797-4F07-A4F7-841BFC1787D0}"/>
+    <hyperlink ref="D124" r:id="rId123" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{9F144C53-25BC-471A-99CF-C3BC309EB98D}"/>
+    <hyperlink ref="D125" r:id="rId124" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{D1ECB15E-47BC-427A-BDC5-F822B4C294BB}"/>
+    <hyperlink ref="D126" r:id="rId125" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{7F01C2D9-19EB-4FBD-946E-F26B6DE7B34C}"/>
+    <hyperlink ref="D127" r:id="rId126" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{AC6F707D-92CE-44ED-AB56-D46BF3415314}"/>
+    <hyperlink ref="D128" r:id="rId127" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{691A2942-805A-4732-BEFC-2FBCC8BD7923}"/>
+    <hyperlink ref="D129" r:id="rId128" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{B64589F5-0F5E-42C6-8C82-823901F3B937}"/>
+    <hyperlink ref="D130" r:id="rId129" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{56B1DDFD-FB5F-469E-94CF-DD6DF52CC30C}"/>
+    <hyperlink ref="D131" r:id="rId130" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{4CA275FF-ADEC-41BB-80BF-7E3BB201CF4D}"/>
+    <hyperlink ref="D132" r:id="rId131" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{106D409D-0034-47BA-861A-95A5682C7B92}"/>
+    <hyperlink ref="D133" r:id="rId132" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{09C3FA40-A5A5-47D3-98FC-960FA7A88D64}"/>
+    <hyperlink ref="D134" r:id="rId133" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{08B05A99-F8E0-49C1-9190-048C421CAD6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD547CAD-D7B3-4A76-8938-922D6D542C8E}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8BAC64-27B5-4B8D-BD07-DD7BA6292529}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="41">
   <si>
     <t>Opponent</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Tobin Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester </t>
+  </si>
+  <si>
+    <t>Middletown</t>
   </si>
 </sst>
 </file>
@@ -664,8 +670,8 @@
   </sheetPr>
   <dimension ref="A1:Q985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4270,7 +4276,7 @@
       <c r="K127" s="36"/>
       <c r="L127" s="37"/>
     </row>
-    <row r="128" spans="1:15" ht="13" thickBot="1">
+    <row r="128" spans="1:15" ht="13.5" thickBot="1">
       <c r="A128" s="1" t="s">
         <v>8</v>
       </c>
@@ -4297,7 +4303,10 @@
       </c>
       <c r="J128" s="29"/>
       <c r="K128" s="30"/>
-      <c r="L128" s="31"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="37"/>
+      <c r="O128" s="37"/>
     </row>
     <row r="129" spans="1:12" ht="13" thickBot="1">
       <c r="A129" s="1" t="s">
@@ -4324,9 +4333,6 @@
       <c r="H129" s="31">
         <v>0.93</v>
       </c>
-      <c r="J129" s="29"/>
-      <c r="K129" s="30"/>
-      <c r="L129" s="31"/>
     </row>
     <row r="130" spans="1:12" ht="13" thickBot="1">
       <c r="A130" s="1" t="s">
@@ -4353,9 +4359,6 @@
       <c r="H130" s="31">
         <v>1.53</v>
       </c>
-      <c r="J130" s="29"/>
-      <c r="K130" s="30"/>
-      <c r="L130" s="31"/>
     </row>
     <row r="131" spans="1:12" ht="13" thickBot="1">
       <c r="A131" s="1" t="s">
@@ -4382,9 +4385,6 @@
       <c r="H131" s="31">
         <v>0.08</v>
       </c>
-      <c r="J131" s="29"/>
-      <c r="K131" s="30"/>
-      <c r="L131" s="31"/>
     </row>
     <row r="132" spans="1:12" ht="13" thickBot="1">
       <c r="A132" s="1" t="s">
@@ -4411,9 +4411,6 @@
       <c r="H132" s="31">
         <v>0</v>
       </c>
-      <c r="J132" s="29"/>
-      <c r="K132" s="30"/>
-      <c r="L132" s="31"/>
     </row>
     <row r="133" spans="1:12" ht="13" thickBot="1">
       <c r="A133" s="1" t="s">
@@ -4440,9 +4437,6 @@
       <c r="H133" s="31">
         <v>0</v>
       </c>
-      <c r="J133" s="29"/>
-      <c r="K133" s="30"/>
-      <c r="L133" s="31"/>
     </row>
     <row r="134" spans="1:12" ht="13" thickBot="1">
       <c r="A134" s="1" t="s">
@@ -4469,157 +4463,409 @@
       <c r="H134" s="31">
         <v>0.5</v>
       </c>
-      <c r="J134" s="29"/>
-      <c r="K134" s="30"/>
-      <c r="L134" s="31"/>
     </row>
     <row r="135" spans="1:12" ht="13" thickBot="1">
-      <c r="D135" s="1"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="30"/>
-      <c r="L135" s="31"/>
+      <c r="A135" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" s="1">
+        <v>17</v>
+      </c>
+      <c r="C135" s="29">
+        <v>1</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="38">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F135" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="G135" s="31">
+        <v>0</v>
+      </c>
+      <c r="H135" s="31">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="136" spans="1:12" ht="13" thickBot="1">
-      <c r="D136" s="1"/>
-      <c r="J136" s="29"/>
-      <c r="K136" s="30"/>
-      <c r="L136" s="31"/>
+      <c r="A136" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" s="1">
+        <v>17</v>
+      </c>
+      <c r="C136" s="29">
+        <v>10</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" s="38">
+        <v>1</v>
+      </c>
+      <c r="F136" s="39">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G136" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="H136" s="31">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="137" spans="1:12" ht="13" thickBot="1">
-      <c r="D137" s="1"/>
-      <c r="J137" s="29"/>
-      <c r="K137" s="30"/>
-      <c r="L137" s="31"/>
-    </row>
-    <row r="138" spans="1:12" ht="12.5">
-      <c r="D138" s="1"/>
-      <c r="J138" s="29"/>
-      <c r="K138" s="30"/>
-      <c r="L138" s="31"/>
-    </row>
-    <row r="139" spans="1:12" ht="17.5">
-      <c r="D139" s="1"/>
-      <c r="J139" s="35"/>
-    </row>
-    <row r="140" spans="1:12" ht="13.5" thickBot="1">
-      <c r="D140" s="1"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="36"/>
-      <c r="L140" s="37"/>
-    </row>
-    <row r="141" spans="1:12" ht="13" thickBot="1">
-      <c r="D141" s="1"/>
-      <c r="J141" s="29"/>
-      <c r="K141" s="30"/>
-      <c r="L141" s="31"/>
-    </row>
-    <row r="142" spans="1:12" ht="13" thickBot="1">
-      <c r="D142" s="1"/>
-      <c r="J142" s="29"/>
-      <c r="K142" s="30"/>
-      <c r="L142" s="31"/>
+      <c r="A137" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" s="1">
+        <v>17</v>
+      </c>
+      <c r="C137" s="29">
+        <v>11</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F137" s="39">
+        <v>0</v>
+      </c>
+      <c r="G137" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="H137" s="31">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="13" thickBot="1">
+      <c r="A138" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" s="1">
+        <v>17</v>
+      </c>
+      <c r="C138" s="29">
+        <v>3</v>
+      </c>
+      <c r="D138" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F138" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="G138" s="31">
+        <v>0</v>
+      </c>
+      <c r="H138" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="13" thickBot="1">
+      <c r="A139" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" s="1">
+        <v>17</v>
+      </c>
+      <c r="C139" s="29">
+        <v>5</v>
+      </c>
+      <c r="D139" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="38">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F139" s="39">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G139" s="31">
+        <v>0.73</v>
+      </c>
+      <c r="H139" s="31">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="13" thickBot="1">
+      <c r="A140" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B140" s="1">
+        <v>17</v>
+      </c>
+      <c r="C140" s="32">
+        <v>13</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" s="40">
+        <v>1</v>
+      </c>
+      <c r="F140" s="41">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="G140" s="34">
+        <v>4</v>
+      </c>
+      <c r="H140" s="34">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="18" thickBot="1">
+      <c r="A141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B141" s="1">
+        <v>18</v>
+      </c>
+      <c r="C141" s="29">
+        <v>1</v>
+      </c>
+      <c r="D141" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="38">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="F141" s="39">
+        <v>0.214</v>
+      </c>
+      <c r="G141" s="31">
+        <v>0.47</v>
+      </c>
+      <c r="H141" s="31">
+        <v>0.77</v>
+      </c>
+      <c r="J141" s="35"/>
+    </row>
+    <row r="142" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B142" s="1">
+        <v>18</v>
+      </c>
+      <c r="C142" s="29">
+        <v>10</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="38">
+        <v>0.214</v>
+      </c>
+      <c r="F142" s="39">
+        <v>0</v>
+      </c>
+      <c r="G142" s="31">
+        <v>0</v>
+      </c>
+      <c r="H142" s="31">
+        <v>0.41</v>
+      </c>
+      <c r="J142" s="36"/>
+      <c r="K142" s="36"/>
+      <c r="L142" s="37"/>
     </row>
     <row r="143" spans="1:12" ht="13" thickBot="1">
-      <c r="D143" s="1"/>
+      <c r="A143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B143" s="1">
+        <v>18</v>
+      </c>
+      <c r="C143" s="29">
+        <v>11</v>
+      </c>
+      <c r="D143" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="F143" s="39">
+        <v>0</v>
+      </c>
+      <c r="G143" s="31">
+        <v>0</v>
+      </c>
+      <c r="H143" s="31">
+        <v>2.17</v>
+      </c>
       <c r="J143" s="29"/>
       <c r="K143" s="30"/>
       <c r="L143" s="31"/>
     </row>
     <row r="144" spans="1:12" ht="13" thickBot="1">
-      <c r="D144" s="1"/>
+      <c r="A144" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B144" s="1">
+        <v>18</v>
+      </c>
+      <c r="C144" s="29">
+        <v>3</v>
+      </c>
+      <c r="D144" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="38">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F144" s="39">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G144" s="31">
+        <v>0.22</v>
+      </c>
+      <c r="H144" s="31">
+        <v>1.06</v>
+      </c>
       <c r="J144" s="29"/>
       <c r="K144" s="30"/>
       <c r="L144" s="31"/>
     </row>
-    <row r="145" spans="4:12" ht="13" thickBot="1">
-      <c r="D145" s="1"/>
+    <row r="145" spans="1:12" ht="13" thickBot="1">
+      <c r="A145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B145" s="1">
+        <v>18</v>
+      </c>
+      <c r="C145" s="29">
+        <v>5</v>
+      </c>
+      <c r="D145" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="38">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F145" s="39">
+        <v>0.217</v>
+      </c>
+      <c r="G145" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="H145" s="31">
+        <v>0.94</v>
+      </c>
       <c r="J145" s="29"/>
       <c r="K145" s="30"/>
       <c r="L145" s="31"/>
     </row>
-    <row r="146" spans="4:12" ht="13" thickBot="1">
-      <c r="D146" s="1"/>
+    <row r="146" spans="1:12" ht="13" thickBot="1">
+      <c r="A146" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B146" s="1">
+        <v>18</v>
+      </c>
+      <c r="C146" s="32">
+        <v>13</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="F146" s="41">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G146" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="H146" s="34">
+        <v>1</v>
+      </c>
       <c r="J146" s="29"/>
       <c r="K146" s="30"/>
       <c r="L146" s="31"/>
     </row>
-    <row r="147" spans="4:12" ht="13" thickBot="1">
-      <c r="D147" s="1"/>
+    <row r="147" spans="1:12" ht="13" thickBot="1">
       <c r="J147" s="29"/>
       <c r="K147" s="30"/>
       <c r="L147" s="31"/>
     </row>
-    <row r="148" spans="4:12" ht="13" thickBot="1">
+    <row r="148" spans="1:12" ht="12.5">
       <c r="D148" s="1"/>
-      <c r="J148" s="29"/>
-      <c r="K148" s="30"/>
-      <c r="L148" s="31"/>
-    </row>
-    <row r="149" spans="4:12" ht="13" thickBot="1">
+      <c r="J148" s="32"/>
+      <c r="K148" s="33"/>
+      <c r="L148" s="34"/>
+    </row>
+    <row r="149" spans="1:12" ht="17.5">
       <c r="D149" s="1"/>
-      <c r="J149" s="29"/>
-      <c r="K149" s="30"/>
-      <c r="L149" s="31"/>
-    </row>
-    <row r="150" spans="4:12" ht="13" thickBot="1">
+      <c r="J149" s="35"/>
+    </row>
+    <row r="150" spans="1:12" ht="13.5" thickBot="1">
       <c r="D150" s="1"/>
-      <c r="J150" s="29"/>
-      <c r="K150" s="30"/>
-      <c r="L150" s="31"/>
-    </row>
-    <row r="151" spans="4:12" ht="12.5">
+      <c r="J150" s="36"/>
+      <c r="K150" s="36"/>
+      <c r="L150" s="37"/>
+    </row>
+    <row r="151" spans="1:12" ht="13" thickBot="1">
       <c r="D151" s="1"/>
       <c r="J151" s="29"/>
       <c r="K151" s="30"/>
       <c r="L151" s="31"/>
     </row>
-    <row r="152" spans="4:12" ht="17.5">
+    <row r="152" spans="1:12" ht="13" thickBot="1">
       <c r="D152" s="1"/>
-      <c r="J152" s="35"/>
-    </row>
-    <row r="153" spans="4:12" ht="13.5" thickBot="1">
+      <c r="J152" s="29"/>
+      <c r="K152" s="30"/>
+      <c r="L152" s="31"/>
+    </row>
+    <row r="153" spans="1:12" ht="13" thickBot="1">
       <c r="D153" s="1"/>
-      <c r="J153" s="36"/>
-      <c r="K153" s="36"/>
-      <c r="L153" s="37"/>
-    </row>
-    <row r="154" spans="4:12" ht="13" thickBot="1">
+      <c r="J153" s="29"/>
+      <c r="K153" s="30"/>
+      <c r="L153" s="31"/>
+    </row>
+    <row r="154" spans="1:12" ht="13" thickBot="1">
       <c r="D154" s="1"/>
       <c r="J154" s="29"/>
       <c r="K154" s="30"/>
       <c r="L154" s="31"/>
     </row>
-    <row r="155" spans="4:12" ht="13" thickBot="1">
+    <row r="155" spans="1:12" ht="13" thickBot="1">
       <c r="D155" s="1"/>
       <c r="J155" s="29"/>
       <c r="K155" s="30"/>
       <c r="L155" s="31"/>
     </row>
-    <row r="156" spans="4:12" ht="13" thickBot="1">
+    <row r="156" spans="1:12" ht="12.5">
       <c r="D156" s="1"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="30"/>
-      <c r="L156" s="31"/>
-    </row>
-    <row r="157" spans="4:12" ht="13" thickBot="1">
+      <c r="J156" s="32"/>
+      <c r="K156" s="33"/>
+      <c r="L156" s="34"/>
+    </row>
+    <row r="157" spans="1:12" ht="17.5">
       <c r="D157" s="1"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="30"/>
-      <c r="L157" s="31"/>
-    </row>
-    <row r="158" spans="4:12" ht="13" thickBot="1">
+      <c r="J157" s="35"/>
+    </row>
+    <row r="158" spans="1:12" ht="13.5" thickBot="1">
       <c r="D158" s="1"/>
-      <c r="J158" s="29"/>
-      <c r="K158" s="30"/>
-      <c r="L158" s="31"/>
-    </row>
-    <row r="159" spans="4:12" ht="13" thickBot="1">
+      <c r="J158" s="36"/>
+      <c r="K158" s="36"/>
+      <c r="L158" s="37"/>
+    </row>
+    <row r="159" spans="1:12" ht="13" thickBot="1">
       <c r="D159" s="1"/>
       <c r="J159" s="29"/>
       <c r="K159" s="30"/>
       <c r="L159" s="31"/>
     </row>
-    <row r="160" spans="4:12" ht="13" thickBot="1">
+    <row r="160" spans="1:12" ht="13" thickBot="1">
       <c r="D160" s="1"/>
       <c r="J160" s="29"/>
       <c r="K160" s="30"/>
@@ -4645,9 +4891,9 @@
     </row>
     <row r="164" spans="4:12" ht="12.5">
       <c r="D164" s="1"/>
-      <c r="J164" s="29"/>
-      <c r="K164" s="30"/>
-      <c r="L164" s="31"/>
+      <c r="J164" s="32"/>
+      <c r="K164" s="33"/>
+      <c r="L164" s="34"/>
     </row>
     <row r="165" spans="4:12" ht="17.5">
       <c r="D165" s="1"/>
@@ -7248,6 +7494,18 @@
     <hyperlink ref="D132" r:id="rId131" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{106D409D-0034-47BA-861A-95A5682C7B92}"/>
     <hyperlink ref="D133" r:id="rId132" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{09C3FA40-A5A5-47D3-98FC-960FA7A88D64}"/>
     <hyperlink ref="D134" r:id="rId133" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882100-cdb4&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{08B05A99-F8E0-49C1-9190-048C421CAD6F}"/>
+    <hyperlink ref="D135" r:id="rId134" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882046-0a9d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{534DFFCF-6D26-4014-A26D-349F07949E1E}"/>
+    <hyperlink ref="D136" r:id="rId135" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882046-0a9d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{8CD86725-11B2-4F61-87E0-D564B853C5FD}"/>
+    <hyperlink ref="D137" r:id="rId136" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882046-0a9d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{28BD0E89-E77D-4784-BCE6-22D34721DE20}"/>
+    <hyperlink ref="D138" r:id="rId137" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882046-0a9d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{C19A712C-3161-4364-8FA7-DC105F363A7E}"/>
+    <hyperlink ref="D139" r:id="rId138" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882046-0a9d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{08DEF7C0-2597-4907-AE9C-D60705BAB9FA}"/>
+    <hyperlink ref="D140" r:id="rId139" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882046-0a9d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{6E5356F4-5A37-4D60-970C-D727903DDE3A}"/>
+    <hyperlink ref="D141" r:id="rId140" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882107-0d2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{CD5CE816-0147-4A6F-8933-F6581C123900}"/>
+    <hyperlink ref="D142" r:id="rId141" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882107-0d2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{0F9EA892-72C9-4B13-A596-F069A7860EAB}"/>
+    <hyperlink ref="D143" r:id="rId142" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882107-0d2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{3271FF6F-0212-4FC9-930D-4AD414D64984}"/>
+    <hyperlink ref="D144" r:id="rId143" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882107-0d2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{383D0871-7CAC-4E61-BC5F-C7FBFCCDEC84}"/>
+    <hyperlink ref="D145" r:id="rId144" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882107-0d2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{9E06EA7B-0E0A-4243-BB33-A029C2D045EE}"/>
+    <hyperlink ref="D146" r:id="rId145" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882107-0d2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{59431CFF-402C-4944-9B29-462B68D24D08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F8BAC64-27B5-4B8D-BD07-DD7BA6292529}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D72AC7-2261-418B-81B1-6E20F8CE39CF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="41">
   <si>
     <t>Opponent</t>
   </si>
@@ -671,7 +671,7 @@
   <dimension ref="A1:Q985"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+      <selection activeCell="A147" sqref="A147:B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4275,8 +4275,11 @@
       <c r="J127" s="36"/>
       <c r="K127" s="36"/>
       <c r="L127" s="37"/>
-    </row>
-    <row r="128" spans="1:15" ht="13.5" thickBot="1">
+      <c r="M127" s="37"/>
+      <c r="N127" s="37"/>
+      <c r="O127" s="37"/>
+    </row>
+    <row r="128" spans="1:15" ht="13" thickBot="1">
       <c r="A128" s="1" t="s">
         <v>8</v>
       </c>
@@ -4301,12 +4304,6 @@
       <c r="H128" s="31">
         <v>0</v>
       </c>
-      <c r="J128" s="29"/>
-      <c r="K128" s="30"/>
-      <c r="L128" s="37"/>
-      <c r="M128" s="37"/>
-      <c r="N128" s="37"/>
-      <c r="O128" s="37"/>
     </row>
     <row r="129" spans="1:12" ht="13" thickBot="1">
       <c r="A129" s="1" t="s">
@@ -4438,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="13" thickBot="1">
+    <row r="134" spans="1:12" ht="18" thickBot="1">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
@@ -4463,8 +4460,9 @@
       <c r="H134" s="31">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" ht="13" thickBot="1">
+      <c r="J134" s="35"/>
+    </row>
+    <row r="135" spans="1:12" ht="13.5" thickBot="1">
       <c r="A135" s="1" t="s">
         <v>39</v>
       </c>
@@ -4489,6 +4487,9 @@
       <c r="H135" s="31">
         <v>1.17</v>
       </c>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
+      <c r="L135" s="37"/>
     </row>
     <row r="136" spans="1:12" ht="13" thickBot="1">
       <c r="A136" s="1" t="s">
@@ -4515,6 +4516,9 @@
       <c r="H136" s="31">
         <v>1.07</v>
       </c>
+      <c r="J136" s="29"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="31"/>
     </row>
     <row r="137" spans="1:12" ht="13" thickBot="1">
       <c r="A137" s="1" t="s">
@@ -4541,6 +4545,9 @@
       <c r="H137" s="31">
         <v>3.09</v>
       </c>
+      <c r="J137" s="29"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="31"/>
     </row>
     <row r="138" spans="1:12" ht="13" thickBot="1">
       <c r="A138" s="1" t="s">
@@ -4567,6 +4574,9 @@
       <c r="H138" s="31">
         <v>1</v>
       </c>
+      <c r="J138" s="29"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="31"/>
     </row>
     <row r="139" spans="1:12" ht="13" thickBot="1">
       <c r="A139" s="1" t="s">
@@ -4593,6 +4603,9 @@
       <c r="H139" s="31">
         <v>1.47</v>
       </c>
+      <c r="J139" s="29"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="31"/>
     </row>
     <row r="140" spans="1:12" ht="13" thickBot="1">
       <c r="A140" s="1" t="s">
@@ -4619,8 +4632,11 @@
       <c r="H140" s="34">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" ht="18" thickBot="1">
+      <c r="J140" s="29"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="31"/>
+    </row>
+    <row r="141" spans="1:12" ht="13" thickBot="1">
       <c r="A141" s="1" t="s">
         <v>40</v>
       </c>
@@ -4645,9 +4661,11 @@
       <c r="H141" s="31">
         <v>0.77</v>
       </c>
-      <c r="J141" s="35"/>
-    </row>
-    <row r="142" spans="1:12" ht="13.5" thickBot="1">
+      <c r="J141" s="32"/>
+      <c r="K141" s="33"/>
+      <c r="L141" s="34"/>
+    </row>
+    <row r="142" spans="1:12" ht="18" thickBot="1">
       <c r="A142" s="1" t="s">
         <v>40</v>
       </c>
@@ -4672,11 +4690,9 @@
       <c r="H142" s="31">
         <v>0.41</v>
       </c>
-      <c r="J142" s="36"/>
-      <c r="K142" s="36"/>
-      <c r="L142" s="37"/>
-    </row>
-    <row r="143" spans="1:12" ht="13" thickBot="1">
+      <c r="J142" s="35"/>
+    </row>
+    <row r="143" spans="1:12" ht="13.5" thickBot="1">
       <c r="A143" s="1" t="s">
         <v>40</v>
       </c>
@@ -4701,9 +4717,9 @@
       <c r="H143" s="31">
         <v>2.17</v>
       </c>
-      <c r="J143" s="29"/>
-      <c r="K143" s="30"/>
-      <c r="L143" s="31"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="36"/>
+      <c r="L143" s="37"/>
     </row>
     <row r="144" spans="1:12" ht="13" thickBot="1">
       <c r="A144" s="1" t="s">
@@ -4793,65 +4809,185 @@
       <c r="L146" s="31"/>
     </row>
     <row r="147" spans="1:12" ht="13" thickBot="1">
+      <c r="A147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147" s="1">
+        <v>19</v>
+      </c>
+      <c r="C147" s="29">
+        <v>1</v>
+      </c>
+      <c r="D147" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="38">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="F147" s="39">
+        <v>0.222</v>
+      </c>
+      <c r="G147" s="31">
+        <v>0</v>
+      </c>
+      <c r="H147" s="31">
+        <v>0.72</v>
+      </c>
       <c r="J147" s="29"/>
       <c r="K147" s="30"/>
       <c r="L147" s="31"/>
     </row>
-    <row r="148" spans="1:12" ht="12.5">
-      <c r="D148" s="1"/>
-      <c r="J148" s="32"/>
-      <c r="K148" s="33"/>
-      <c r="L148" s="34"/>
-    </row>
-    <row r="149" spans="1:12" ht="17.5">
-      <c r="D149" s="1"/>
-      <c r="J149" s="35"/>
-    </row>
-    <row r="150" spans="1:12" ht="13.5" thickBot="1">
-      <c r="D150" s="1"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="36"/>
-      <c r="L150" s="37"/>
+    <row r="148" spans="1:12" ht="13" thickBot="1">
+      <c r="A148" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="1">
+        <v>19</v>
+      </c>
+      <c r="C148" s="29">
+        <v>3</v>
+      </c>
+      <c r="D148" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="38">
+        <v>0.222</v>
+      </c>
+      <c r="F148" s="39">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G148" s="31">
+        <v>0.22</v>
+      </c>
+      <c r="H148" s="31">
+        <v>0.64</v>
+      </c>
+      <c r="J148" s="29"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="31"/>
+    </row>
+    <row r="149" spans="1:12" ht="13" thickBot="1">
+      <c r="A149" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B149" s="1">
+        <v>19</v>
+      </c>
+      <c r="C149" s="29">
+        <v>5</v>
+      </c>
+      <c r="D149" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="F149" s="39">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G149" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H149" s="31">
+        <v>0.67</v>
+      </c>
+      <c r="J149" s="32"/>
+      <c r="K149" s="33"/>
+      <c r="L149" s="34"/>
+    </row>
+    <row r="150" spans="1:12" ht="18" thickBot="1">
+      <c r="A150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B150" s="1">
+        <v>19</v>
+      </c>
+      <c r="C150" s="29">
+        <v>11</v>
+      </c>
+      <c r="D150" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="38">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="F150" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="G150" s="31">
+        <v>0</v>
+      </c>
+      <c r="H150" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="J150" s="35"/>
     </row>
     <row r="151" spans="1:12" ht="13" thickBot="1">
-      <c r="D151" s="1"/>
-      <c r="J151" s="29"/>
-      <c r="K151" s="30"/>
-      <c r="L151" s="31"/>
-    </row>
-    <row r="152" spans="1:12" ht="13" thickBot="1">
-      <c r="D152" s="1"/>
-      <c r="J152" s="29"/>
-      <c r="K152" s="30"/>
-      <c r="L152" s="31"/>
-    </row>
-    <row r="153" spans="1:12" ht="13" thickBot="1">
+      <c r="A151" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" s="1">
+        <v>19</v>
+      </c>
+      <c r="C151" s="29">
+        <v>10</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E151" s="38">
+        <v>0.313</v>
+      </c>
+      <c r="F151" s="39">
+        <v>0.106</v>
+      </c>
+      <c r="G151" s="31">
+        <v>0.13</v>
+      </c>
+      <c r="H151" s="31">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="12.5">
+      <c r="A152" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B152" s="1">
+        <v>19</v>
+      </c>
+      <c r="C152" s="32">
+        <v>13</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="40">
+        <v>1</v>
+      </c>
+      <c r="F152" s="41">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="G152" s="34">
+        <v>2</v>
+      </c>
+      <c r="H152" s="34">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="12.5">
       <c r="D153" s="1"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="30"/>
-      <c r="L153" s="31"/>
-    </row>
-    <row r="154" spans="1:12" ht="13" thickBot="1">
+    </row>
+    <row r="154" spans="1:12" ht="12.5">
       <c r="D154" s="1"/>
-      <c r="J154" s="29"/>
-      <c r="K154" s="30"/>
-      <c r="L154" s="31"/>
-    </row>
-    <row r="155" spans="1:12" ht="13" thickBot="1">
+    </row>
+    <row r="155" spans="1:12" ht="12.5">
       <c r="D155" s="1"/>
-      <c r="J155" s="29"/>
-      <c r="K155" s="30"/>
-      <c r="L155" s="31"/>
     </row>
     <row r="156" spans="1:12" ht="12.5">
       <c r="D156" s="1"/>
-      <c r="J156" s="32"/>
-      <c r="K156" s="33"/>
-      <c r="L156" s="34"/>
-    </row>
-    <row r="157" spans="1:12" ht="17.5">
+    </row>
+    <row r="157" spans="1:12" ht="12.5">
       <c r="D157" s="1"/>
-      <c r="J157" s="35"/>
     </row>
     <row r="158" spans="1:12" ht="13.5" thickBot="1">
       <c r="D158" s="1"/>
@@ -7506,6 +7642,12 @@
     <hyperlink ref="D144" r:id="rId143" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882107-0d2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{383D0871-7CAC-4E61-BC5F-C7FBFCCDEC84}"/>
     <hyperlink ref="D145" r:id="rId144" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882107-0d2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{9E06EA7B-0E0A-4243-BB33-A029C2D045EE}"/>
     <hyperlink ref="D146" r:id="rId145" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882107-0d2e&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{59431CFF-402C-4944-9B29-462B68D24D08}"/>
+    <hyperlink ref="D147" r:id="rId146" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882139-424d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{B73673B0-B86F-43A0-B141-D48DE3C5AEFC}"/>
+    <hyperlink ref="D148" r:id="rId147" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882139-424d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{868C44D8-2599-48C8-AD96-9BDE00ADD998}"/>
+    <hyperlink ref="D149" r:id="rId148" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882139-424d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{BBA715DE-A371-4CE9-8C93-8AC5E714F053}"/>
+    <hyperlink ref="D150" r:id="rId149" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882139-424d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{FB4E72B4-1546-49DB-A9D9-1FEA6938351E}"/>
+    <hyperlink ref="D151" r:id="rId150" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882139-424d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{64B3DB5C-297D-4EC7-81D0-C3EDCE96278F}"/>
+    <hyperlink ref="D152" r:id="rId151" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882139-424d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{D8AB9E92-F2E0-4A20-9204-C713219B34F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D72AC7-2261-418B-81B1-6E20F8CE39CF}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E70140A7-4A88-4596-B1FF-62A3C5B65252}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="41">
   <si>
     <t>Opponent</t>
   </si>
@@ -670,8 +670,8 @@
   </sheetPr>
   <dimension ref="A1:Q985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147:B152"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A164" sqref="A153:B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="13" thickBot="1">
+    <row r="129" spans="1:15" ht="13" thickBot="1">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="13" thickBot="1">
+    <row r="130" spans="1:15" ht="13" thickBot="1">
       <c r="A130" s="1" t="s">
         <v>8</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="13" thickBot="1">
+    <row r="131" spans="1:15" ht="13" thickBot="1">
       <c r="A131" s="1" t="s">
         <v>8</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="13" thickBot="1">
+    <row r="132" spans="1:15" ht="13" thickBot="1">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="13" thickBot="1">
+    <row r="133" spans="1:15" ht="13" thickBot="1">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="18" thickBot="1">
+    <row r="134" spans="1:15" ht="18" thickBot="1">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="J134" s="35"/>
     </row>
-    <row r="135" spans="1:12" ht="13.5" thickBot="1">
+    <row r="135" spans="1:15" ht="13.5" thickBot="1">
       <c r="A135" s="1" t="s">
         <v>39</v>
       </c>
@@ -4491,7 +4491,7 @@
       <c r="K135" s="36"/>
       <c r="L135" s="37"/>
     </row>
-    <row r="136" spans="1:12" ht="13" thickBot="1">
+    <row r="136" spans="1:15" ht="13" thickBot="1">
       <c r="A136" s="1" t="s">
         <v>39</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="K136" s="30"/>
       <c r="L136" s="31"/>
     </row>
-    <row r="137" spans="1:12" ht="13" thickBot="1">
+    <row r="137" spans="1:15" ht="13" thickBot="1">
       <c r="A137" s="1" t="s">
         <v>39</v>
       </c>
@@ -4549,7 +4549,7 @@
       <c r="K137" s="30"/>
       <c r="L137" s="31"/>
     </row>
-    <row r="138" spans="1:12" ht="13" thickBot="1">
+    <row r="138" spans="1:15" ht="13" thickBot="1">
       <c r="A138" s="1" t="s">
         <v>39</v>
       </c>
@@ -4578,7 +4578,7 @@
       <c r="K138" s="30"/>
       <c r="L138" s="31"/>
     </row>
-    <row r="139" spans="1:12" ht="13" thickBot="1">
+    <row r="139" spans="1:15" ht="13" thickBot="1">
       <c r="A139" s="1" t="s">
         <v>39</v>
       </c>
@@ -4607,7 +4607,7 @@
       <c r="K139" s="30"/>
       <c r="L139" s="31"/>
     </row>
-    <row r="140" spans="1:12" ht="13" thickBot="1">
+    <row r="140" spans="1:15" ht="13.5" thickBot="1">
       <c r="A140" s="1" t="s">
         <v>39</v>
       </c>
@@ -4634,9 +4634,12 @@
       </c>
       <c r="J140" s="29"/>
       <c r="K140" s="30"/>
-      <c r="L140" s="31"/>
-    </row>
-    <row r="141" spans="1:12" ht="13" thickBot="1">
+      <c r="L140" s="37"/>
+      <c r="M140" s="37"/>
+      <c r="N140" s="37"/>
+      <c r="O140" s="37"/>
+    </row>
+    <row r="141" spans="1:15" ht="13" thickBot="1">
       <c r="A141" s="1" t="s">
         <v>40</v>
       </c>
@@ -4661,11 +4664,8 @@
       <c r="H141" s="31">
         <v>0.77</v>
       </c>
-      <c r="J141" s="32"/>
-      <c r="K141" s="33"/>
-      <c r="L141" s="34"/>
-    </row>
-    <row r="142" spans="1:12" ht="18" thickBot="1">
+    </row>
+    <row r="142" spans="1:15" ht="13" thickBot="1">
       <c r="A142" s="1" t="s">
         <v>40</v>
       </c>
@@ -4690,9 +4690,8 @@
       <c r="H142" s="31">
         <v>0.41</v>
       </c>
-      <c r="J142" s="35"/>
-    </row>
-    <row r="143" spans="1:12" ht="13.5" thickBot="1">
+    </row>
+    <row r="143" spans="1:15" ht="13" thickBot="1">
       <c r="A143" s="1" t="s">
         <v>40</v>
       </c>
@@ -4717,11 +4716,8 @@
       <c r="H143" s="31">
         <v>2.17</v>
       </c>
-      <c r="J143" s="36"/>
-      <c r="K143" s="36"/>
-      <c r="L143" s="37"/>
-    </row>
-    <row r="144" spans="1:12" ht="13" thickBot="1">
+    </row>
+    <row r="144" spans="1:15" ht="13" thickBot="1">
       <c r="A144" s="1" t="s">
         <v>40</v>
       </c>
@@ -4746,9 +4742,6 @@
       <c r="H144" s="31">
         <v>1.06</v>
       </c>
-      <c r="J144" s="29"/>
-      <c r="K144" s="30"/>
-      <c r="L144" s="31"/>
     </row>
     <row r="145" spans="1:12" ht="13" thickBot="1">
       <c r="A145" s="1" t="s">
@@ -4775,9 +4768,6 @@
       <c r="H145" s="31">
         <v>0.94</v>
       </c>
-      <c r="J145" s="29"/>
-      <c r="K145" s="30"/>
-      <c r="L145" s="31"/>
     </row>
     <row r="146" spans="1:12" ht="13" thickBot="1">
       <c r="A146" s="1" t="s">
@@ -4804,9 +4794,6 @@
       <c r="H146" s="34">
         <v>1</v>
       </c>
-      <c r="J146" s="29"/>
-      <c r="K146" s="30"/>
-      <c r="L146" s="31"/>
     </row>
     <row r="147" spans="1:12" ht="13" thickBot="1">
       <c r="A147" s="1" t="s">
@@ -4833,9 +4820,6 @@
       <c r="H147" s="31">
         <v>0.72</v>
       </c>
-      <c r="J147" s="29"/>
-      <c r="K147" s="30"/>
-      <c r="L147" s="31"/>
     </row>
     <row r="148" spans="1:12" ht="13" thickBot="1">
       <c r="A148" s="1" t="s">
@@ -4862,9 +4846,6 @@
       <c r="H148" s="31">
         <v>0.64</v>
       </c>
-      <c r="J148" s="29"/>
-      <c r="K148" s="30"/>
-      <c r="L148" s="31"/>
     </row>
     <row r="149" spans="1:12" ht="13" thickBot="1">
       <c r="A149" s="1" t="s">
@@ -4891,11 +4872,8 @@
       <c r="H149" s="31">
         <v>0.67</v>
       </c>
-      <c r="J149" s="32"/>
-      <c r="K149" s="33"/>
-      <c r="L149" s="34"/>
-    </row>
-    <row r="150" spans="1:12" ht="18" thickBot="1">
+    </row>
+    <row r="150" spans="1:12" ht="13" thickBot="1">
       <c r="A150" s="1" t="s">
         <v>37</v>
       </c>
@@ -4920,7 +4898,6 @@
       <c r="H150" s="31">
         <v>1.5</v>
       </c>
-      <c r="J150" s="35"/>
     </row>
     <row r="151" spans="1:12" ht="13" thickBot="1">
       <c r="A151" s="1" t="s">
@@ -4948,7 +4925,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="12.5">
+    <row r="152" spans="1:12" ht="13" thickBot="1">
       <c r="A152" s="1" t="s">
         <v>37</v>
       </c>
@@ -4974,194 +4951,569 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="12.5">
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="1:12" ht="12.5">
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="1:12" ht="12.5">
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="1:12" ht="12.5">
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="1:12" ht="12.5">
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="1:12" ht="13.5" thickBot="1">
-      <c r="D158" s="1"/>
-      <c r="J158" s="36"/>
-      <c r="K158" s="36"/>
-      <c r="L158" s="37"/>
+    <row r="153" spans="1:12" ht="18" thickBot="1">
+      <c r="A153" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B153" s="1">
+        <v>20</v>
+      </c>
+      <c r="C153" s="29">
+        <v>10</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="38">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="F153" s="39">
+        <v>0</v>
+      </c>
+      <c r="G153" s="31">
+        <v>0.09</v>
+      </c>
+      <c r="H153" s="31">
+        <v>1.62</v>
+      </c>
+      <c r="J153" s="35"/>
+    </row>
+    <row r="154" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A154" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B154" s="1">
+        <v>20</v>
+      </c>
+      <c r="C154" s="29">
+        <v>1</v>
+      </c>
+      <c r="D154" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="38">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F154" s="39">
+        <v>0</v>
+      </c>
+      <c r="G154" s="31">
+        <v>0.44</v>
+      </c>
+      <c r="H154" s="31">
+        <v>1.19</v>
+      </c>
+      <c r="J154" s="36"/>
+      <c r="K154" s="36"/>
+      <c r="L154" s="37"/>
+    </row>
+    <row r="155" spans="1:12" ht="13" thickBot="1">
+      <c r="A155" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B155" s="1">
+        <v>20</v>
+      </c>
+      <c r="C155" s="29">
+        <v>13</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="F155" s="39">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G155" s="31">
+        <v>0</v>
+      </c>
+      <c r="H155" s="31">
+        <v>0.36</v>
+      </c>
+      <c r="J155" s="29"/>
+      <c r="K155" s="30"/>
+      <c r="L155" s="31"/>
+    </row>
+    <row r="156" spans="1:12" ht="13" thickBot="1">
+      <c r="A156" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B156" s="1">
+        <v>20</v>
+      </c>
+      <c r="C156" s="29">
+        <v>11</v>
+      </c>
+      <c r="D156" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="F156" s="39">
+        <v>0.183</v>
+      </c>
+      <c r="G156" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="H156" s="31">
+        <v>1.48</v>
+      </c>
+      <c r="J156" s="29"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="31"/>
+    </row>
+    <row r="157" spans="1:12" ht="13" thickBot="1">
+      <c r="A157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B157" s="1">
+        <v>20</v>
+      </c>
+      <c r="C157" s="29">
+        <v>33</v>
+      </c>
+      <c r="D157" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E157" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" s="39">
+        <v>1</v>
+      </c>
+      <c r="G157" s="31">
+        <v>0</v>
+      </c>
+      <c r="H157" s="31">
+        <v>0</v>
+      </c>
+      <c r="J157" s="29"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="31"/>
+    </row>
+    <row r="158" spans="1:12" ht="13" thickBot="1">
+      <c r="A158" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B158" s="1">
+        <v>20</v>
+      </c>
+      <c r="C158" s="29">
+        <v>24</v>
+      </c>
+      <c r="D158" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E158" s="38">
+        <v>0</v>
+      </c>
+      <c r="F158" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="G158" s="31">
+        <v>0</v>
+      </c>
+      <c r="H158" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="J158" s="29"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="31"/>
     </row>
     <row r="159" spans="1:12" ht="13" thickBot="1">
-      <c r="D159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B159" s="1">
+        <v>20</v>
+      </c>
+      <c r="C159" s="29">
+        <v>3</v>
+      </c>
+      <c r="D159" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="38">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="F159" s="39">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G159" s="31">
+        <v>0.69</v>
+      </c>
+      <c r="H159" s="31">
+        <v>1.83</v>
+      </c>
       <c r="J159" s="29"/>
       <c r="K159" s="30"/>
       <c r="L159" s="31"/>
     </row>
     <row r="160" spans="1:12" ht="13" thickBot="1">
-      <c r="D160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B160" s="1">
+        <v>20</v>
+      </c>
+      <c r="C160" s="29">
+        <v>5</v>
+      </c>
+      <c r="D160" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" s="38">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F160" s="39">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G160" s="31">
+        <v>0.22</v>
+      </c>
+      <c r="H160" s="31">
+        <v>1</v>
+      </c>
       <c r="J160" s="29"/>
       <c r="K160" s="30"/>
       <c r="L160" s="31"/>
     </row>
-    <row r="161" spans="4:12" ht="13" thickBot="1">
-      <c r="D161" s="1"/>
+    <row r="161" spans="1:12" ht="13" thickBot="1">
+      <c r="A161" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B161" s="1">
+        <v>20</v>
+      </c>
+      <c r="C161" s="29">
+        <v>12</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E161" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G161" s="31">
+        <v>0</v>
+      </c>
+      <c r="H161" s="31">
+        <v>2</v>
+      </c>
       <c r="J161" s="29"/>
       <c r="K161" s="30"/>
       <c r="L161" s="31"/>
     </row>
-    <row r="162" spans="4:12" ht="13" thickBot="1">
-      <c r="D162" s="1"/>
+    <row r="162" spans="1:12" ht="13" thickBot="1">
+      <c r="A162" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B162" s="1">
+        <v>20</v>
+      </c>
+      <c r="C162" s="29">
+        <v>2</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F162" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G162" s="31">
+        <v>0</v>
+      </c>
+      <c r="H162" s="31">
+        <v>0.25</v>
+      </c>
       <c r="J162" s="29"/>
       <c r="K162" s="30"/>
       <c r="L162" s="31"/>
     </row>
-    <row r="163" spans="4:12" ht="13" thickBot="1">
-      <c r="D163" s="1"/>
+    <row r="163" spans="1:12" ht="13" thickBot="1">
+      <c r="A163" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B163" s="1">
+        <v>20</v>
+      </c>
+      <c r="C163" s="29">
+        <v>0</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E163" s="38">
+        <v>0</v>
+      </c>
+      <c r="F163" s="39">
+        <v>0</v>
+      </c>
+      <c r="G163" s="31">
+        <v>0</v>
+      </c>
+      <c r="H163" s="31">
+        <v>0</v>
+      </c>
       <c r="J163" s="29"/>
       <c r="K163" s="30"/>
       <c r="L163" s="31"/>
     </row>
-    <row r="164" spans="4:12" ht="12.5">
-      <c r="D164" s="1"/>
-      <c r="J164" s="32"/>
-      <c r="K164" s="33"/>
-      <c r="L164" s="34"/>
-    </row>
-    <row r="165" spans="4:12" ht="17.5">
+    <row r="164" spans="1:12" ht="13" thickBot="1">
+      <c r="A164" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B164" s="1">
+        <v>20</v>
+      </c>
+      <c r="C164" s="32">
+        <v>4</v>
+      </c>
+      <c r="D164" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="40">
+        <v>0</v>
+      </c>
+      <c r="F164" s="41">
+        <v>0</v>
+      </c>
+      <c r="G164" s="34">
+        <v>0</v>
+      </c>
+      <c r="H164" s="34">
+        <v>0</v>
+      </c>
+      <c r="J164" s="29"/>
+      <c r="K164" s="30"/>
+      <c r="L164" s="31"/>
+    </row>
+    <row r="165" spans="1:12" ht="13" thickBot="1">
       <c r="D165" s="1"/>
-      <c r="J165" s="35"/>
-    </row>
-    <row r="166" spans="4:12" ht="12.5">
+      <c r="J165" s="29"/>
+      <c r="K165" s="30"/>
+      <c r="L165" s="31"/>
+    </row>
+    <row r="166" spans="1:12" ht="12.5">
       <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="4:12" ht="12.5">
+      <c r="J166" s="32"/>
+      <c r="K166" s="33"/>
+      <c r="L166" s="34"/>
+    </row>
+    <row r="167" spans="1:12" ht="17.5">
       <c r="D167" s="1"/>
-    </row>
-    <row r="168" spans="4:12" ht="12.5">
+      <c r="J167" s="35"/>
+    </row>
+    <row r="168" spans="1:12" ht="13.5" thickBot="1">
       <c r="D168" s="1"/>
-    </row>
-    <row r="169" spans="4:12" ht="12.5">
+      <c r="J168" s="36"/>
+      <c r="K168" s="36"/>
+      <c r="L168" s="37"/>
+    </row>
+    <row r="169" spans="1:12" ht="13" thickBot="1">
       <c r="D169" s="1"/>
-    </row>
-    <row r="170" spans="4:12" ht="12.5">
+      <c r="J169" s="29"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="31"/>
+    </row>
+    <row r="170" spans="1:12" ht="13" thickBot="1">
       <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="4:12" ht="12.5">
+      <c r="J170" s="29"/>
+      <c r="K170" s="30"/>
+      <c r="L170" s="31"/>
+    </row>
+    <row r="171" spans="1:12" ht="13" thickBot="1">
       <c r="D171" s="1"/>
-    </row>
-    <row r="172" spans="4:12" ht="12.5">
+      <c r="J171" s="29"/>
+      <c r="K171" s="30"/>
+      <c r="L171" s="31"/>
+    </row>
+    <row r="172" spans="1:12" ht="13" thickBot="1">
       <c r="D172" s="1"/>
-    </row>
-    <row r="173" spans="4:12" ht="12.5">
+      <c r="J172" s="29"/>
+      <c r="K172" s="30"/>
+      <c r="L172" s="31"/>
+    </row>
+    <row r="173" spans="1:12" ht="13" thickBot="1">
       <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="4:12" ht="12.5">
+      <c r="J173" s="29"/>
+      <c r="K173" s="30"/>
+      <c r="L173" s="31"/>
+    </row>
+    <row r="174" spans="1:12" ht="13" thickBot="1">
       <c r="D174" s="1"/>
-    </row>
-    <row r="175" spans="4:12" ht="12.5">
+      <c r="J174" s="29"/>
+      <c r="K174" s="30"/>
+      <c r="L174" s="31"/>
+    </row>
+    <row r="175" spans="1:12" ht="13" thickBot="1">
       <c r="D175" s="1"/>
-    </row>
-    <row r="176" spans="4:12" ht="12.5">
+      <c r="J175" s="29"/>
+      <c r="K175" s="30"/>
+      <c r="L175" s="31"/>
+    </row>
+    <row r="176" spans="1:12" ht="13" thickBot="1">
       <c r="D176" s="1"/>
-    </row>
-    <row r="177" spans="4:4" ht="12.5">
+      <c r="J176" s="29"/>
+      <c r="K176" s="30"/>
+      <c r="L176" s="31"/>
+    </row>
+    <row r="177" spans="4:12" ht="13" thickBot="1">
       <c r="D177" s="1"/>
-    </row>
-    <row r="178" spans="4:4" ht="12.5">
+      <c r="J177" s="29"/>
+      <c r="K177" s="30"/>
+      <c r="L177" s="31"/>
+    </row>
+    <row r="178" spans="4:12" ht="13" thickBot="1">
       <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="4:4" ht="12.5">
+      <c r="J178" s="29"/>
+      <c r="K178" s="30"/>
+      <c r="L178" s="31"/>
+    </row>
+    <row r="179" spans="4:12" ht="13" thickBot="1">
       <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="4:4" ht="12.5">
+      <c r="J179" s="29"/>
+      <c r="K179" s="30"/>
+      <c r="L179" s="31"/>
+    </row>
+    <row r="180" spans="4:12" ht="12.5">
       <c r="D180" s="1"/>
-    </row>
-    <row r="181" spans="4:4" ht="12.5">
+      <c r="J180" s="32"/>
+      <c r="K180" s="33"/>
+      <c r="L180" s="34"/>
+    </row>
+    <row r="181" spans="4:12" ht="17.5">
       <c r="D181" s="1"/>
-    </row>
-    <row r="182" spans="4:4" ht="12.5">
+      <c r="J181" s="35"/>
+    </row>
+    <row r="182" spans="4:12" ht="13.5" thickBot="1">
       <c r="D182" s="1"/>
-    </row>
-    <row r="183" spans="4:4" ht="12.5">
+      <c r="J182" s="36"/>
+      <c r="K182" s="36"/>
+      <c r="L182" s="37"/>
+    </row>
+    <row r="183" spans="4:12" ht="13" thickBot="1">
       <c r="D183" s="1"/>
-    </row>
-    <row r="184" spans="4:4" ht="12.5">
+      <c r="J183" s="29"/>
+      <c r="K183" s="30"/>
+      <c r="L183" s="31"/>
+    </row>
+    <row r="184" spans="4:12" ht="13" thickBot="1">
       <c r="D184" s="1"/>
-    </row>
-    <row r="185" spans="4:4" ht="12.5">
+      <c r="J184" s="29"/>
+      <c r="K184" s="30"/>
+      <c r="L184" s="31"/>
+    </row>
+    <row r="185" spans="4:12" ht="13" thickBot="1">
       <c r="D185" s="1"/>
-    </row>
-    <row r="186" spans="4:4" ht="12.5">
+      <c r="J185" s="29"/>
+      <c r="K185" s="30"/>
+      <c r="L185" s="31"/>
+    </row>
+    <row r="186" spans="4:12" ht="13" thickBot="1">
       <c r="D186" s="1"/>
-    </row>
-    <row r="187" spans="4:4" ht="12.5">
+      <c r="J186" s="29"/>
+      <c r="K186" s="30"/>
+      <c r="L186" s="31"/>
+    </row>
+    <row r="187" spans="4:12" ht="13" thickBot="1">
       <c r="D187" s="1"/>
-    </row>
-    <row r="188" spans="4:4" ht="12.5">
+      <c r="J187" s="29"/>
+      <c r="K187" s="30"/>
+      <c r="L187" s="31"/>
+    </row>
+    <row r="188" spans="4:12" ht="13" thickBot="1">
       <c r="D188" s="1"/>
-    </row>
-    <row r="189" spans="4:4" ht="12.5">
+      <c r="J188" s="29"/>
+      <c r="K188" s="30"/>
+      <c r="L188" s="31"/>
+    </row>
+    <row r="189" spans="4:12" ht="13" thickBot="1">
       <c r="D189" s="1"/>
-    </row>
-    <row r="190" spans="4:4" ht="12.5">
+      <c r="J189" s="29"/>
+      <c r="K189" s="30"/>
+      <c r="L189" s="31"/>
+    </row>
+    <row r="190" spans="4:12" ht="13" thickBot="1">
       <c r="D190" s="1"/>
-    </row>
-    <row r="191" spans="4:4" ht="12.5">
+      <c r="J190" s="29"/>
+      <c r="K190" s="30"/>
+      <c r="L190" s="31"/>
+    </row>
+    <row r="191" spans="4:12" ht="13" thickBot="1">
       <c r="D191" s="1"/>
-    </row>
-    <row r="192" spans="4:4" ht="12.5">
+      <c r="J191" s="29"/>
+      <c r="K191" s="30"/>
+      <c r="L191" s="31"/>
+    </row>
+    <row r="192" spans="4:12" ht="13" thickBot="1">
       <c r="D192" s="1"/>
-    </row>
-    <row r="193" spans="4:4" ht="12.5">
+      <c r="J192" s="29"/>
+      <c r="K192" s="30"/>
+      <c r="L192" s="31"/>
+    </row>
+    <row r="193" spans="4:12" ht="13" thickBot="1">
       <c r="D193" s="1"/>
-    </row>
-    <row r="194" spans="4:4" ht="12.5">
+      <c r="J193" s="29"/>
+      <c r="K193" s="30"/>
+      <c r="L193" s="31"/>
+    </row>
+    <row r="194" spans="4:12" ht="12.5">
       <c r="D194" s="1"/>
-    </row>
-    <row r="195" spans="4:4" ht="12.5">
+      <c r="J194" s="32"/>
+      <c r="K194" s="33"/>
+      <c r="L194" s="34"/>
+    </row>
+    <row r="195" spans="4:12" ht="17.5">
       <c r="D195" s="1"/>
-    </row>
-    <row r="196" spans="4:4" ht="12.5">
+      <c r="J195" s="35"/>
+    </row>
+    <row r="196" spans="4:12" ht="12.5">
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="4:4" ht="12.5">
+    <row r="197" spans="4:12" ht="12.5">
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="4:4" ht="12.5">
+    <row r="198" spans="4:12" ht="12.5">
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="4:4" ht="12.5">
+    <row r="199" spans="4:12" ht="12.5">
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="4:4" ht="12.5">
+    <row r="200" spans="4:12" ht="12.5">
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="4:4" ht="12.5">
+    <row r="201" spans="4:12" ht="12.5">
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="4:4" ht="12.5">
+    <row r="202" spans="4:12" ht="12.5">
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="4:4" ht="12.5">
+    <row r="203" spans="4:12" ht="12.5">
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="4:4" ht="12.5">
+    <row r="204" spans="4:12" ht="12.5">
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="4:4" ht="12.5">
+    <row r="205" spans="4:12" ht="12.5">
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="4:4" ht="12.5">
+    <row r="206" spans="4:12" ht="12.5">
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="4:4" ht="12.5">
+    <row r="207" spans="4:12" ht="12.5">
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="4:4" ht="12.5">
+    <row r="208" spans="4:12" ht="12.5">
       <c r="D208" s="1"/>
     </row>
     <row r="209" spans="4:4" ht="12.5">
@@ -7648,6 +8000,18 @@
     <hyperlink ref="D150" r:id="rId149" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882139-424d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{FB4E72B4-1546-49DB-A9D9-1FEA6938351E}"/>
     <hyperlink ref="D151" r:id="rId150" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882139-424d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{64B3DB5C-297D-4EC7-81D0-C3EDCE96278F}"/>
     <hyperlink ref="D152" r:id="rId151" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882139-424d&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{D8AB9E92-F2E0-4A20-9204-C713219B34F3}"/>
+    <hyperlink ref="D153" r:id="rId152" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{B16F9F34-E537-4FF3-B503-B3EAAA9264D1}"/>
+    <hyperlink ref="D154" r:id="rId153" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{A444D225-B4C4-4B34-90E8-F26FB7376CF6}"/>
+    <hyperlink ref="D155" r:id="rId154" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{A700DAB8-77E8-457A-A97E-5D22A3232272}"/>
+    <hyperlink ref="D156" r:id="rId155" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{1E491CD9-E0C6-49A3-B626-A2F470468DE2}"/>
+    <hyperlink ref="D157" r:id="rId156" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{BA2AA076-2E67-4B66-8829-9847C72CDC10}"/>
+    <hyperlink ref="D158" r:id="rId157" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{E9764DD1-1AB2-4D09-AA05-B65025DE26AF}"/>
+    <hyperlink ref="D159" r:id="rId158" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{5C07760A-FA0C-4774-91E4-B55CA34A407C}"/>
+    <hyperlink ref="D160" r:id="rId159" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{EBA2D857-8CC2-43EB-8E70-C3F33E37DD3E}"/>
+    <hyperlink ref="D161" r:id="rId160" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{CCE80BF4-77A9-41A0-A82D-32457CC56C2F}"/>
+    <hyperlink ref="D162" r:id="rId161" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{A4E2A02B-8202-419C-866E-A5FA3666486A}"/>
+    <hyperlink ref="D163" r:id="rId162" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{82A1D98E-BD5C-44F4-9E8C-6C2F97998F70}"/>
+    <hyperlink ref="D164" r:id="rId163" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{3BEA2564-EA69-4686-A513-FBB21537D211}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BB_players23.xlsx
+++ b/BB_players23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4d9515fbe68ffa5/Desktop/sports analytics R stuff/FHSBB_2223/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E70140A7-4A88-4596-B1FF-62A3C5B65252}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="11_CC9C0F685AB09146EA330E9AB4387F8555D10FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3CEFDAF-C381-43F0-A3A8-0262E3AB2880}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="22540" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="42">
   <si>
     <t>Opponent</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Middletown</t>
+  </si>
+  <si>
+    <t>Bloomfield</t>
   </si>
 </sst>
 </file>
@@ -670,8 +673,8 @@
   </sheetPr>
   <dimension ref="A1:Q985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A164" sqref="A153:B164"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4743,7 +4746,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="13" thickBot="1">
+    <row r="145" spans="1:15" ht="13" thickBot="1">
       <c r="A145" s="1" t="s">
         <v>40</v>
       </c>
@@ -4769,7 +4772,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="13" thickBot="1">
+    <row r="146" spans="1:15" ht="13" thickBot="1">
       <c r="A146" s="1" t="s">
         <v>40</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="13" thickBot="1">
+    <row r="147" spans="1:15" ht="13" thickBot="1">
       <c r="A147" s="1" t="s">
         <v>37</v>
       </c>
@@ -4821,7 +4824,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="13" thickBot="1">
+    <row r="148" spans="1:15" ht="13" thickBot="1">
       <c r="A148" s="1" t="s">
         <v>37</v>
       </c>
@@ -4847,7 +4850,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="13" thickBot="1">
+    <row r="149" spans="1:15" ht="13" thickBot="1">
       <c r="A149" s="1" t="s">
         <v>37</v>
       </c>
@@ -4873,7 +4876,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="13" thickBot="1">
+    <row r="150" spans="1:15" ht="13" thickBot="1">
       <c r="A150" s="1" t="s">
         <v>37</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="13" thickBot="1">
+    <row r="151" spans="1:15" ht="13" thickBot="1">
       <c r="A151" s="1" t="s">
         <v>37</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="13" thickBot="1">
+    <row r="152" spans="1:15" ht="13" thickBot="1">
       <c r="A152" s="1" t="s">
         <v>37</v>
       </c>
@@ -4951,7 +4954,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="18" thickBot="1">
+    <row r="153" spans="1:15" ht="18" thickBot="1">
       <c r="A153" s="1" t="s">
         <v>36</v>
       </c>
@@ -4978,7 +4981,7 @@
       </c>
       <c r="J153" s="35"/>
     </row>
-    <row r="154" spans="1:12" ht="13.5" thickBot="1">
+    <row r="154" spans="1:15" ht="13.5" thickBot="1">
       <c r="A154" s="1" t="s">
         <v>36</v>
       </c>
@@ -5007,7 +5010,7 @@
       <c r="K154" s="36"/>
       <c r="L154" s="37"/>
     </row>
-    <row r="155" spans="1:12" ht="13" thickBot="1">
+    <row r="155" spans="1:15" ht="13.5" thickBot="1">
       <c r="A155" s="1" t="s">
         <v>36</v>
       </c>
@@ -5034,9 +5037,12 @@
       </c>
       <c r="J155" s="29"/>
       <c r="K155" s="30"/>
-      <c r="L155" s="31"/>
-    </row>
-    <row r="156" spans="1:12" ht="13" thickBot="1">
+      <c r="L155" s="37"/>
+      <c r="M155" s="37"/>
+      <c r="N155" s="37"/>
+      <c r="O155" s="37"/>
+    </row>
+    <row r="156" spans="1:15" ht="13" thickBot="1">
       <c r="A156" s="1" t="s">
         <v>36</v>
       </c>
@@ -5063,9 +5069,12 @@
       </c>
       <c r="J156" s="29"/>
       <c r="K156" s="30"/>
-      <c r="L156" s="31"/>
-    </row>
-    <row r="157" spans="1:12" ht="13" thickBot="1">
+      <c r="L156" s="38"/>
+      <c r="M156" s="39"/>
+      <c r="N156" s="31"/>
+      <c r="O156" s="31"/>
+    </row>
+    <row r="157" spans="1:15" ht="13" thickBot="1">
       <c r="A157" s="1" t="s">
         <v>36</v>
       </c>
@@ -5092,9 +5101,12 @@
       </c>
       <c r="J157" s="29"/>
       <c r="K157" s="30"/>
-      <c r="L157" s="31"/>
-    </row>
-    <row r="158" spans="1:12" ht="13" thickBot="1">
+      <c r="L157" s="38"/>
+      <c r="M157" s="39"/>
+      <c r="N157" s="31"/>
+      <c r="O157" s="31"/>
+    </row>
+    <row r="158" spans="1:15" ht="13" thickBot="1">
       <c r="A158" s="1" t="s">
         <v>36</v>
       </c>
@@ -5121,9 +5133,12 @@
       </c>
       <c r="J158" s="29"/>
       <c r="K158" s="30"/>
-      <c r="L158" s="31"/>
-    </row>
-    <row r="159" spans="1:12" ht="13" thickBot="1">
+      <c r="L158" s="38"/>
+      <c r="M158" s="39"/>
+      <c r="N158" s="31"/>
+      <c r="O158" s="31"/>
+    </row>
+    <row r="159" spans="1:15" ht="13" thickBot="1">
       <c r="A159" s="1" t="s">
         <v>36</v>
       </c>
@@ -5150,9 +5165,12 @@
       </c>
       <c r="J159" s="29"/>
       <c r="K159" s="30"/>
-      <c r="L159" s="31"/>
-    </row>
-    <row r="160" spans="1:12" ht="13" thickBot="1">
+      <c r="L159" s="38"/>
+      <c r="M159" s="39"/>
+      <c r="N159" s="31"/>
+      <c r="O159" s="31"/>
+    </row>
+    <row r="160" spans="1:15" ht="13.5" thickBot="1">
       <c r="A160" s="1" t="s">
         <v>36</v>
       </c>
@@ -5179,7 +5197,10 @@
       </c>
       <c r="J160" s="29"/>
       <c r="K160" s="30"/>
-      <c r="L160" s="31"/>
+      <c r="L160" s="37"/>
+      <c r="M160" s="37"/>
+      <c r="N160" s="37"/>
+      <c r="O160" s="37"/>
     </row>
     <row r="161" spans="1:12" ht="13" thickBot="1">
       <c r="A161" s="1" t="s">
@@ -5206,9 +5227,6 @@
       <c r="H161" s="31">
         <v>2</v>
       </c>
-      <c r="J161" s="29"/>
-      <c r="K161" s="30"/>
-      <c r="L161" s="31"/>
     </row>
     <row r="162" spans="1:12" ht="13" thickBot="1">
       <c r="A162" s="1" t="s">
@@ -5235,9 +5253,6 @@
       <c r="H162" s="31">
         <v>0.25</v>
       </c>
-      <c r="J162" s="29"/>
-      <c r="K162" s="30"/>
-      <c r="L162" s="31"/>
     </row>
     <row r="163" spans="1:12" ht="13" thickBot="1">
       <c r="A163" s="1" t="s">
@@ -5264,9 +5279,6 @@
       <c r="H163" s="31">
         <v>0</v>
       </c>
-      <c r="J163" s="29"/>
-      <c r="K163" s="30"/>
-      <c r="L163" s="31"/>
     </row>
     <row r="164" spans="1:12" ht="13" thickBot="1">
       <c r="A164" s="1" t="s">
@@ -5293,79 +5305,344 @@
       <c r="H164" s="34">
         <v>0</v>
       </c>
-      <c r="J164" s="29"/>
-      <c r="K164" s="30"/>
-      <c r="L164" s="31"/>
     </row>
     <row r="165" spans="1:12" ht="13" thickBot="1">
-      <c r="D165" s="1"/>
-      <c r="J165" s="29"/>
-      <c r="K165" s="30"/>
-      <c r="L165" s="31"/>
-    </row>
-    <row r="166" spans="1:12" ht="12.5">
-      <c r="D166" s="1"/>
-      <c r="J166" s="32"/>
-      <c r="K166" s="33"/>
-      <c r="L166" s="34"/>
-    </row>
-    <row r="167" spans="1:12" ht="17.5">
-      <c r="D167" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165" s="1">
+        <v>21</v>
+      </c>
+      <c r="C165" s="29">
+        <v>1</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="38">
+        <v>0.318</v>
+      </c>
+      <c r="F165" s="39">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G165" s="31">
+        <v>0.18</v>
+      </c>
+      <c r="H165" s="31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="13" thickBot="1">
+      <c r="A166" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B166" s="1">
+        <v>21</v>
+      </c>
+      <c r="C166" s="29">
+        <v>10</v>
+      </c>
+      <c r="D166" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="F166" s="39">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G166" s="31">
+        <v>0</v>
+      </c>
+      <c r="H166" s="31">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="18" thickBot="1">
+      <c r="A167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B167" s="1">
+        <v>21</v>
+      </c>
+      <c r="C167" s="29">
+        <v>11</v>
+      </c>
+      <c r="D167" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="F167" s="39">
+        <v>0.252</v>
+      </c>
+      <c r="G167" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H167" s="31">
+        <v>1.38</v>
+      </c>
       <c r="J167" s="35"/>
     </row>
     <row r="168" spans="1:12" ht="13.5" thickBot="1">
-      <c r="D168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B168" s="1">
+        <v>21</v>
+      </c>
+      <c r="C168" s="29">
+        <v>3</v>
+      </c>
+      <c r="D168" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="F168" s="39">
+        <v>0</v>
+      </c>
+      <c r="G168" s="31">
+        <v>0.63</v>
+      </c>
+      <c r="H168" s="31">
+        <v>1.24</v>
+      </c>
       <c r="J168" s="36"/>
       <c r="K168" s="36"/>
       <c r="L168" s="37"/>
     </row>
     <row r="169" spans="1:12" ht="13" thickBot="1">
-      <c r="D169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B169" s="1">
+        <v>21</v>
+      </c>
+      <c r="C169" s="29">
+        <v>5</v>
+      </c>
+      <c r="D169" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="38">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="F169" s="39">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G169" s="31">
+        <v>0.88</v>
+      </c>
+      <c r="H169" s="31">
+        <v>1.29</v>
+      </c>
       <c r="J169" s="29"/>
       <c r="K169" s="30"/>
       <c r="L169" s="31"/>
     </row>
     <row r="170" spans="1:12" ht="13" thickBot="1">
-      <c r="D170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B170" s="1">
+        <v>21</v>
+      </c>
+      <c r="C170" s="32">
+        <v>13</v>
+      </c>
+      <c r="D170" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" s="40">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F170" s="41">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G170" s="34">
+        <v>1.33</v>
+      </c>
+      <c r="H170" s="34">
+        <v>0.83</v>
+      </c>
       <c r="J170" s="29"/>
       <c r="K170" s="30"/>
       <c r="L170" s="31"/>
     </row>
     <row r="171" spans="1:12" ht="13" thickBot="1">
-      <c r="D171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B171" s="1">
+        <v>22</v>
+      </c>
+      <c r="C171" s="29">
+        <v>1</v>
+      </c>
+      <c r="D171" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="38">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="F171" s="39">
+        <v>0.192</v>
+      </c>
+      <c r="G171" s="31">
+        <v>0.43</v>
+      </c>
+      <c r="H171" s="31">
+        <v>1</v>
+      </c>
       <c r="J171" s="29"/>
       <c r="K171" s="30"/>
       <c r="L171" s="31"/>
     </row>
     <row r="172" spans="1:12" ht="13" thickBot="1">
-      <c r="D172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B172" s="1">
+        <v>22</v>
+      </c>
+      <c r="C172" s="29">
+        <v>3</v>
+      </c>
+      <c r="D172" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F172" s="39">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G172" s="31">
+        <v>0</v>
+      </c>
+      <c r="H172" s="31">
+        <v>0.92</v>
+      </c>
       <c r="J172" s="29"/>
       <c r="K172" s="30"/>
       <c r="L172" s="31"/>
     </row>
     <row r="173" spans="1:12" ht="13" thickBot="1">
-      <c r="D173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B173" s="1">
+        <v>22</v>
+      </c>
+      <c r="C173" s="29">
+        <v>5</v>
+      </c>
+      <c r="D173" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F173" s="39">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G173" s="31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H173" s="31">
+        <v>1.5</v>
+      </c>
       <c r="J173" s="29"/>
       <c r="K173" s="30"/>
       <c r="L173" s="31"/>
     </row>
     <row r="174" spans="1:12" ht="13" thickBot="1">
-      <c r="D174" s="1"/>
-      <c r="J174" s="29"/>
-      <c r="K174" s="30"/>
-      <c r="L174" s="31"/>
-    </row>
-    <row r="175" spans="1:12" ht="13" thickBot="1">
-      <c r="D175" s="1"/>
-      <c r="J175" s="29"/>
-      <c r="K175" s="30"/>
-      <c r="L175" s="31"/>
-    </row>
-    <row r="176" spans="1:12" ht="13" thickBot="1">
-      <c r="D176" s="1"/>
-      <c r="J176" s="29"/>
-      <c r="K176" s="30"/>
-      <c r="L176" s="31"/>
+      <c r="A174" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B174" s="1">
+        <v>22</v>
+      </c>
+      <c r="C174" s="29">
+        <v>11</v>
+      </c>
+      <c r="D174" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="38">
+        <v>0.95</v>
+      </c>
+      <c r="F174" s="39">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G174" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="H174" s="31">
+        <v>2</v>
+      </c>
+      <c r="J174" s="32"/>
+      <c r="K174" s="33"/>
+      <c r="L174" s="34"/>
+    </row>
+    <row r="175" spans="1:12" ht="18" thickBot="1">
+      <c r="A175" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B175" s="1">
+        <v>22</v>
+      </c>
+      <c r="C175" s="29">
+        <v>10</v>
+      </c>
+      <c r="D175" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E175" s="38">
+        <v>0.438</v>
+      </c>
+      <c r="F175" s="39">
+        <v>0</v>
+      </c>
+      <c r="G175" s="31">
+        <v>0.38</v>
+      </c>
+      <c r="H175" s="31">
+        <v>0.83</v>
+      </c>
+      <c r="J175" s="35"/>
+    </row>
+    <row r="176" spans="1:12" ht="13.5" thickBot="1">
+      <c r="A176" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B176" s="1">
+        <v>22</v>
+      </c>
+      <c r="C176" s="32">
+        <v>13</v>
+      </c>
+      <c r="D176" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E176" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F176" s="41">
+        <v>1</v>
+      </c>
+      <c r="G176" s="34">
+        <v>0</v>
+      </c>
+      <c r="H176" s="34">
+        <v>0</v>
+      </c>
+      <c r="J176" s="36"/>
+      <c r="K176" s="36"/>
+      <c r="L176" s="37"/>
     </row>
     <row r="177" spans="4:12" ht="13" thickBot="1">
       <c r="D177" s="1"/>
@@ -5385,33 +5662,33 @@
       <c r="K179" s="30"/>
       <c r="L179" s="31"/>
     </row>
-    <row r="180" spans="4:12" ht="12.5">
+    <row r="180" spans="4:12" ht="13" thickBot="1">
       <c r="D180" s="1"/>
-      <c r="J180" s="32"/>
-      <c r="K180" s="33"/>
-      <c r="L180" s="34"/>
-    </row>
-    <row r="181" spans="4:12" ht="17.5">
+      <c r="J180" s="29"/>
+      <c r="K180" s="30"/>
+      <c r="L180" s="31"/>
+    </row>
+    <row r="181" spans="4:12" ht="13" thickBot="1">
       <c r="D181" s="1"/>
-      <c r="J181" s="35"/>
-    </row>
-    <row r="182" spans="4:12" ht="13.5" thickBot="1">
+      <c r="J181" s="29"/>
+      <c r="K181" s="30"/>
+      <c r="L181" s="31"/>
+    </row>
+    <row r="182" spans="4:12" ht="12.5">
       <c r="D182" s="1"/>
-      <c r="J182" s="36"/>
-      <c r="K182" s="36"/>
-      <c r="L182" s="37"/>
-    </row>
-    <row r="183" spans="4:12" ht="13" thickBot="1">
+      <c r="J182" s="32"/>
+      <c r="K182" s="33"/>
+      <c r="L182" s="34"/>
+    </row>
+    <row r="183" spans="4:12" ht="17.5">
       <c r="D183" s="1"/>
-      <c r="J183" s="29"/>
-      <c r="K183" s="30"/>
-      <c r="L183" s="31"/>
-    </row>
-    <row r="184" spans="4:12" ht="13" thickBot="1">
+      <c r="J183" s="35"/>
+    </row>
+    <row r="184" spans="4:12" ht="13.5" thickBot="1">
       <c r="D184" s="1"/>
-      <c r="J184" s="29"/>
-      <c r="K184" s="30"/>
-      <c r="L184" s="31"/>
+      <c r="J184" s="36"/>
+      <c r="K184" s="36"/>
+      <c r="L184" s="37"/>
     </row>
     <row r="185" spans="4:12" ht="13" thickBot="1">
       <c r="D185" s="1"/>
@@ -5443,77 +5720,65 @@
       <c r="K189" s="30"/>
       <c r="L189" s="31"/>
     </row>
-    <row r="190" spans="4:12" ht="13" thickBot="1">
+    <row r="190" spans="4:12" ht="12.5">
       <c r="D190" s="1"/>
-      <c r="J190" s="29"/>
-      <c r="K190" s="30"/>
-      <c r="L190" s="31"/>
-    </row>
-    <row r="191" spans="4:12" ht="13" thickBot="1">
+      <c r="J190" s="32"/>
+      <c r="K190" s="33"/>
+      <c r="L190" s="34"/>
+    </row>
+    <row r="191" spans="4:12" ht="17.5">
       <c r="D191" s="1"/>
-      <c r="J191" s="29"/>
-      <c r="K191" s="30"/>
-      <c r="L191" s="31"/>
-    </row>
-    <row r="192" spans="4:12" ht="13" thickBot="1">
+      <c r="J191" s="35"/>
+    </row>
+    <row r="192" spans="4:12" ht="12.5">
       <c r="D192" s="1"/>
-      <c r="J192" s="29"/>
-      <c r="K192" s="30"/>
-      <c r="L192" s="31"/>
-    </row>
-    <row r="193" spans="4:12" ht="13" thickBot="1">
+    </row>
+    <row r="193" spans="4:4" ht="12.5">
       <c r="D193" s="1"/>
-      <c r="J193" s="29"/>
-      <c r="K193" s="30"/>
-      <c r="L193" s="31"/>
-    </row>
-    <row r="194" spans="4:12" ht="12.5">
+    </row>
+    <row r="194" spans="4:4" ht="12.5">
       <c r="D194" s="1"/>
-      <c r="J194" s="32"/>
-      <c r="K194" s="33"/>
-      <c r="L194" s="34"/>
-    </row>
-    <row r="195" spans="4:12" ht="17.5">
+    </row>
+    <row r="195" spans="4:4" ht="12.5">
       <c r="D195" s="1"/>
-      <c r="J195" s="35"/>
-    </row>
-    <row r="196" spans="4:12" ht="12.5">
+    </row>
+    <row r="196" spans="4:4" ht="12.5">
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="4:12" ht="12.5">
+    <row r="197" spans="4:4" ht="12.5">
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="4:12" ht="12.5">
+    <row r="198" spans="4:4" ht="12.5">
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="4:12" ht="12.5">
+    <row r="199" spans="4:4" ht="12.5">
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="4:12" ht="12.5">
+    <row r="200" spans="4:4" ht="12.5">
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="4:12" ht="12.5">
+    <row r="201" spans="4:4" ht="12.5">
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="4:12" ht="12.5">
+    <row r="202" spans="4:4" ht="12.5">
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="4:12" ht="12.5">
+    <row r="203" spans="4:4" ht="12.5">
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="4:12" ht="12.5">
+    <row r="204" spans="4:4" ht="12.5">
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="4:12" ht="12.5">
+    <row r="205" spans="4:4" ht="12.5">
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="4:12" ht="12.5">
+    <row r="206" spans="4:4" ht="12.5">
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="4:12" ht="12.5">
+    <row r="207" spans="4:4" ht="12.5">
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="4:12" ht="12.5">
+    <row r="208" spans="4:4" ht="12.5">
       <c r="D208" s="1"/>
     </row>
     <row r="209" spans="4:4" ht="12.5">
@@ -8012,6 +8277,18 @@
     <hyperlink ref="D162" r:id="rId161" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{A4E2A02B-8202-419C-866E-A5FA3666486A}"/>
     <hyperlink ref="D163" r:id="rId162" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{82A1D98E-BD5C-44F4-9E8C-6C2F97998F70}"/>
     <hyperlink ref="D164" r:id="rId163" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=20882164-bf0b&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{3BEA2564-EA69-4686-A513-FBB21537D211}"/>
+    <hyperlink ref="D165" r:id="rId164" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=21938629-db72&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{83A2AB4F-6002-4B4E-A305-083D349BDCF1}"/>
+    <hyperlink ref="D166" r:id="rId165" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=21938629-db72&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{124B9C72-2DEC-4FBB-BA76-020522E95B00}"/>
+    <hyperlink ref="D167" r:id="rId166" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=21938629-db72&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{17BD509A-3FFA-43C5-984F-EDACB0BB784E}"/>
+    <hyperlink ref="D168" r:id="rId167" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=21938629-db72&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{517F2399-1B95-4C28-B0C6-8E254D9B0FE6}"/>
+    <hyperlink ref="D169" r:id="rId168" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=21938629-db72&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{2453CBAF-DD7F-4BAA-81C5-8C86AE19BFEA}"/>
+    <hyperlink ref="D170" r:id="rId169" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=21938629-db72&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{9917FA98-7D09-4929-8D69-0E44CB716444}"/>
+    <hyperlink ref="D171" r:id="rId170" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=22045435-0ab3&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{3506B0A5-FEBE-4F45-B101-229317126F96}"/>
+    <hyperlink ref="D172" r:id="rId171" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=22045435-0ab3&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{9A5A5773-6BE9-4E4A-AFD7-E6D4F9E4DDD5}"/>
+    <hyperlink ref="D173" r:id="rId172" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=22045435-0ab3&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{01AED851-CCE1-4B82-AF37-4B537832DDD6}"/>
+    <hyperlink ref="D174" r:id="rId173" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=22045435-0ab3&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{BF5B6699-1C6D-4D6F-AB08-2DF5B907A8DD}"/>
+    <hyperlink ref="D175" r:id="rId174" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=22045435-0ab3&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{A6E455CC-2326-42C1-A9A3-61E20AEC75AF}"/>
+    <hyperlink ref="D176" r:id="rId175" display="https://www.hudl.com/reports/teams/261528/stats?A%5B%5D=ALL&amp;GRP=PLAYER&amp;G%5B%5D=22045435-0ab3&amp;P%5B%5D=WHOLEGAME%2CFIRSTHALF%2CSECONDHALF%2CQ1%2CQ2%2CQ3%2CQ4%2COVERTIME&amp;Q=custom&amp;S=2045117&amp;SD=261528&amp;SHT%5B%5D=ALL&amp;SST=FIELDGOALPERCENT&amp;STYPE=AVERAGES&amp;T=261528&amp;Z=ALLZONES" xr:uid="{9AB69A9F-920F-4EB6-BF6F-B61B175012DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
